--- a/results.xlsx
+++ b/results.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Cases\wagePackage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="144">
   <si>
     <t>var_name</t>
   </si>
@@ -280,9 +285,15 @@
     <t>zulin</t>
   </si>
   <si>
+    <t>zhuangbei</t>
+  </si>
+  <si>
     <t>zixun</t>
   </si>
   <si>
+    <t>compete_elimination</t>
+  </si>
+  <si>
     <t>compete_section</t>
   </si>
   <si>
@@ -349,9 +360,15 @@
     <t>基石租赁</t>
   </si>
   <si>
+    <t>装备集团</t>
+  </si>
+  <si>
     <t>轨道咨询</t>
   </si>
   <si>
+    <t>竞争类大合并抵消数</t>
+  </si>
+  <si>
     <t>竞争性板块合计</t>
   </si>
   <si>
@@ -433,21 +450,18 @@
     <t>-inf</t>
   </si>
   <si>
-    <t>inf</t>
-  </si>
-  <si>
-    <t>patmi_self</t>
+    <t>patmi_BII</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -455,8 +469,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -495,22 +516,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -552,7 +584,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -584,9 +616,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,6 +651,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -793,14 +827,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CG24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:85">
+    <row r="1" spans="1:85" s="2" customFormat="1" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,45 +1093,45 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:85">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E2">
-        <v>21843.97892</v>
+        <v>21843.978920000001</v>
       </c>
       <c r="F2">
-        <v>11141.91798</v>
+        <v>10470.93771</v>
       </c>
       <c r="G2">
-        <v>8171.42804</v>
+        <v>9945.0484400000005</v>
       </c>
       <c r="H2">
-        <v>6953.26077</v>
+        <v>6953.2607699999999</v>
       </c>
       <c r="I2">
-        <v>6719.36967</v>
+        <v>3553.87664</v>
       </c>
       <c r="J2">
-        <v>17861.28766</v>
+        <v>14024.814350000001</v>
       </c>
       <c r="K2">
-        <v>6953.26077</v>
+        <v>6953.2607699999999</v>
       </c>
       <c r="L2">
-        <v>6953.26077</v>
+        <v>6953.2607699999999</v>
       </c>
       <c r="M2">
-        <v>6719.36967</v>
+        <v>3553.87664</v>
       </c>
       <c r="N2">
-        <v>17861.28766</v>
+        <v>14024.814350000001</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1110,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-0.68169</v>
+        <v>-0.68169000000000002</v>
       </c>
       <c r="T2">
-        <v>-0.68169</v>
+        <v>-0.68169000000000002</v>
       </c>
       <c r="U2">
-        <v>-0.68169</v>
+        <v>-0.68169000000000002</v>
       </c>
       <c r="V2">
-        <v>-0.6923899999999999</v>
+        <v>-0.83731</v>
       </c>
       <c r="W2">
-        <v>-0.18232</v>
+        <v>-0.35796</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1137,13 +1173,13 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>37.92357</v>
+        <v>37.923569999999998</v>
       </c>
       <c r="AC2">
-        <v>11.55007</v>
+        <v>6.1088399999999998</v>
       </c>
       <c r="AD2">
-        <v>30.70216</v>
+        <v>24.107559999999999</v>
       </c>
       <c r="AE2">
         <v>576</v>
@@ -1152,31 +1188,31 @@
         <v>581.76</v>
       </c>
       <c r="AG2">
-        <v>0.96636</v>
+        <v>0.51110999999999995</v>
       </c>
       <c r="AH2">
         <v>143168.44334</v>
       </c>
       <c r="AI2">
-        <v>49692.82738</v>
+        <v>49692.827380000002</v>
       </c>
       <c r="AJ2">
-        <v>17139.62335</v>
+        <v>18893.611830000002</v>
       </c>
       <c r="AK2">
-        <v>886442.41662</v>
+        <v>886442.41662000003</v>
       </c>
       <c r="AL2">
-        <v>745684.17467</v>
+        <v>745684.17466999998</v>
       </c>
       <c r="AM2">
-        <v>3328.99457</v>
+        <v>3328.9945699999998</v>
       </c>
       <c r="AN2">
-        <v>188.52961</v>
+        <v>188.52960999999999</v>
       </c>
       <c r="AO2">
-        <v>39460.98</v>
+        <v>39460.980000000003</v>
       </c>
       <c r="AP2">
         <v>4076.46</v>
@@ -1188,7 +1224,7 @@
         <v>690945</v>
       </c>
       <c r="AS2">
-        <v>663653.1899999999</v>
+        <v>663653.18999999994</v>
       </c>
       <c r="AT2">
         <v>13079</v>
@@ -1197,37 +1233,37 @@
         <v>43.17</v>
       </c>
       <c r="AV2">
-        <v>-0.72437</v>
+        <v>-0.72436999999999996</v>
       </c>
       <c r="AW2">
-        <v>-0.91797</v>
+        <v>-0.91796999999999995</v>
       </c>
       <c r="AX2">
-        <v>-0.90962</v>
+        <v>-0.91800999999999999</v>
       </c>
       <c r="AY2">
-        <v>-0.22054</v>
+        <v>-0.22054000000000001</v>
       </c>
       <c r="BB2">
         <v>248.55633</v>
       </c>
       <c r="BC2">
-        <v>86.27227000000001</v>
+        <v>86.272270000000006</v>
       </c>
       <c r="BD2">
-        <v>29.75629</v>
+        <v>32.801409999999997</v>
       </c>
       <c r="BE2">
         <v>1538.96253</v>
       </c>
       <c r="BF2">
-        <v>67.83034000000001</v>
+        <v>67.830340000000007</v>
       </c>
       <c r="BG2">
-        <v>7.00712</v>
+        <v>7.0071199999999996</v>
       </c>
       <c r="BH2">
-        <v>2.66271</v>
+        <v>2.6627100000000001</v>
       </c>
       <c r="BI2">
         <v>1187.68049</v>
@@ -1239,66 +1275,66 @@
         <v>0.5</v>
       </c>
       <c r="BN2">
-        <v>-0.7271</v>
+        <v>-0.72709999999999997</v>
       </c>
       <c r="BO2">
-        <v>-0.91878</v>
+        <v>-0.91878000000000004</v>
       </c>
       <c r="BP2">
-        <v>-0.91052</v>
+        <v>-0.91881999999999997</v>
       </c>
       <c r="BQ2">
-        <v>-0.22826</v>
+        <v>-0.22825999999999999</v>
       </c>
       <c r="BR2">
-        <v>-0.47768</v>
+        <v>-0.47767999999999999</v>
       </c>
       <c r="BS2">
-        <v>0.84121</v>
+        <v>0.84121000000000001</v>
       </c>
       <c r="BT2">
-        <v>0.9605</v>
+        <v>0.96050000000000002</v>
       </c>
       <c r="BU2">
-        <v>-0.14181</v>
+        <v>-0.14180999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:85">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E3">
-        <v>21230.00011</v>
+        <v>21230.000110000001</v>
       </c>
       <c r="F3">
-        <v>1115.22408</v>
+        <v>-2030</v>
       </c>
       <c r="H3">
-        <v>19808.22808</v>
+        <v>19808.228080000001</v>
       </c>
       <c r="I3">
-        <v>19141.92656</v>
+        <v>10124.170700000001</v>
       </c>
       <c r="J3">
-        <v>20257.15065</v>
+        <v>8094.1706999999997</v>
       </c>
       <c r="K3">
-        <v>19808.22808</v>
+        <v>19808.228080000001</v>
       </c>
       <c r="L3">
-        <v>19808.22808</v>
+        <v>19808.228080000001</v>
       </c>
       <c r="M3">
-        <v>19141.92656</v>
+        <v>10124.170700000001</v>
       </c>
       <c r="N3">
-        <v>20257.15065</v>
+        <v>8094.1706999999997</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1313,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-0.06697</v>
+        <v>-6.6970000000000002E-2</v>
       </c>
       <c r="T3">
-        <v>-0.06697</v>
+        <v>-6.6970000000000002E-2</v>
       </c>
       <c r="U3">
-        <v>-0.06697</v>
+        <v>-6.6970000000000002E-2</v>
       </c>
       <c r="V3">
-        <v>-0.09835000000000001</v>
+        <v>-0.52312000000000003</v>
       </c>
       <c r="W3">
-        <v>-0.04582</v>
+        <v>-0.61873999999999996</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1340,13 +1376,13 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>23.56271</v>
+        <v>23.562709999999999</v>
       </c>
       <c r="AC3">
-        <v>21.03485</v>
+        <v>11.12534</v>
       </c>
       <c r="AD3">
-        <v>22.26036</v>
+        <v>8.8946000000000005</v>
       </c>
       <c r="AE3">
         <v>901</v>
@@ -1355,28 +1391,28 @@
         <v>910.01</v>
       </c>
       <c r="AG3">
-        <v>0.96636</v>
+        <v>0.51110999999999995</v>
       </c>
       <c r="AH3">
-        <v>18920.73966</v>
+        <v>18920.739659999999</v>
       </c>
       <c r="AI3">
-        <v>14966.2841</v>
+        <v>14966.284100000001</v>
       </c>
       <c r="AJ3">
-        <v>8259.18433</v>
+        <v>8261.4599999999991</v>
       </c>
       <c r="AK3">
-        <v>137746.32534</v>
+        <v>137746.32534000001</v>
       </c>
       <c r="AL3">
         <v>117459.15994</v>
       </c>
       <c r="AM3">
-        <v>-9429.282999999999</v>
+        <v>-9429.2829999999994</v>
       </c>
       <c r="AN3">
-        <v>2375.78189</v>
+        <v>2375.7818900000002</v>
       </c>
       <c r="AO3">
         <v>17085.11</v>
@@ -1391,7 +1427,7 @@
         <v>174137.11</v>
       </c>
       <c r="AS3">
-        <v>159196.45</v>
+        <v>159196.45000000001</v>
       </c>
       <c r="AT3">
         <v>862.36</v>
@@ -1400,34 +1436,34 @@
         <v>2549.41</v>
       </c>
       <c r="AV3">
-        <v>-0.09702</v>
+        <v>-9.7019999999999995E-2</v>
       </c>
       <c r="AW3">
-        <v>-0.23766</v>
+        <v>-0.23766000000000001</v>
       </c>
       <c r="AX3">
-        <v>-0.23857</v>
+        <v>-0.23877000000000001</v>
       </c>
       <c r="AY3">
-        <v>0.26419</v>
+        <v>0.26418999999999998</v>
       </c>
       <c r="BB3">
         <v>20.99971</v>
       </c>
       <c r="BC3">
-        <v>16.61075</v>
+        <v>16.610749999999999</v>
       </c>
       <c r="BD3">
-        <v>9.166689999999999</v>
+        <v>9.1692099999999996</v>
       </c>
       <c r="BE3">
-        <v>152.8816</v>
+        <v>152.88159999999999</v>
       </c>
       <c r="BF3">
-        <v>18.77464</v>
+        <v>18.774640000000002</v>
       </c>
       <c r="BG3">
-        <v>12.53761</v>
+        <v>12.537610000000001</v>
       </c>
       <c r="BH3">
         <v>6.91073</v>
@@ -1445,48 +1481,51 @@
         <v>-0.10596</v>
       </c>
       <c r="BO3">
-        <v>-0.24521</v>
+        <v>-0.24521000000000001</v>
       </c>
       <c r="BP3">
-        <v>-0.2461</v>
+        <v>-0.24631</v>
       </c>
       <c r="BQ3">
         <v>0.25167</v>
       </c>
       <c r="BR3">
-        <v>0.07285999999999999</v>
+        <v>7.2859999999999994E-2</v>
       </c>
       <c r="BS3">
-        <v>0.85272</v>
+        <v>0.85272000000000003</v>
       </c>
       <c r="BT3">
-        <v>0.9142</v>
+        <v>0.91420000000000001</v>
       </c>
       <c r="BU3">
-        <v>-0.0721</v>
+        <v>-7.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:85">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E4">
         <v>3944</v>
       </c>
+      <c r="F4">
+        <v>12.583959999999999</v>
+      </c>
       <c r="H4">
         <v>3363.22489</v>
       </c>
       <c r="I4">
-        <v>3250.09403</v>
+        <v>1718.9757099999999</v>
       </c>
       <c r="J4">
-        <v>3250.09403</v>
+        <v>1731.5596700000001</v>
       </c>
       <c r="K4">
         <v>3363.22489</v>
@@ -1495,10 +1534,10 @@
         <v>3363.22489</v>
       </c>
       <c r="M4">
-        <v>3250.09403</v>
+        <v>1718.9757099999999</v>
       </c>
       <c r="N4">
-        <v>3250.09403</v>
+        <v>1731.5596700000001</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1522,10 +1561,10 @@
         <v>-0.14726</v>
       </c>
       <c r="V4">
-        <v>-0.17594</v>
+        <v>-0.56415000000000004</v>
       </c>
       <c r="W4">
-        <v>-0.17594</v>
+        <v>-0.56096000000000001</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1540,43 +1579,43 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>49.92405</v>
+        <v>49.924050000000001</v>
       </c>
       <c r="AC4">
-        <v>40.7331</v>
+        <v>21.543749999999999</v>
       </c>
       <c r="AD4">
-        <v>40.7331</v>
+        <v>21.701460000000001</v>
       </c>
       <c r="AE4">
         <v>79</v>
       </c>
       <c r="AF4">
-        <v>79.79000000000001</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="AG4">
-        <v>0.96636</v>
+        <v>0.51110999999999995</v>
       </c>
       <c r="AH4">
-        <v>20455.40531</v>
+        <v>20455.405309999998</v>
       </c>
       <c r="AI4">
         <v>15369.23546</v>
       </c>
       <c r="AJ4">
-        <v>9281.48129</v>
+        <v>13871</v>
       </c>
       <c r="AK4">
         <v>102246.65952</v>
       </c>
       <c r="AL4">
-        <v>75260.64234000001</v>
+        <v>75260.642340000006</v>
       </c>
       <c r="AM4">
-        <v>7741.53268</v>
+        <v>7741.5326800000003</v>
       </c>
       <c r="AN4">
-        <v>3802.90723</v>
+        <v>3802.9072299999998</v>
       </c>
       <c r="AO4">
         <v>16667</v>
@@ -1603,22 +1642,22 @@
         <v>-0.1852</v>
       </c>
       <c r="AW4">
-        <v>-0.18669</v>
+        <v>-0.18668999999999999</v>
       </c>
       <c r="AX4">
-        <v>0.21775</v>
+        <v>-0.18517</v>
       </c>
       <c r="AY4">
-        <v>0.00676</v>
+        <v>6.7600000000000004E-3</v>
       </c>
       <c r="BB4">
-        <v>258.92918</v>
+        <v>258.92917999999997</v>
       </c>
       <c r="BC4">
         <v>194.54728</v>
       </c>
       <c r="BD4">
-        <v>117.4871</v>
+        <v>175.58228</v>
       </c>
       <c r="BE4">
         <v>1294.26151</v>
@@ -1627,13 +1666,13 @@
         <v>208.88583</v>
       </c>
       <c r="BG4">
-        <v>156.66124</v>
+        <v>156.66123999999999</v>
       </c>
       <c r="BH4">
-        <v>141.65309</v>
+        <v>141.65308999999999</v>
       </c>
       <c r="BI4">
-        <v>1290.11154</v>
+        <v>1290.1115400000001</v>
       </c>
       <c r="BJ4">
         <v>0.5</v>
@@ -1648,195 +1687,192 @@
         <v>-0.19474</v>
       </c>
       <c r="BP4">
-        <v>0.20569</v>
+        <v>-0.19324</v>
       </c>
       <c r="BQ4">
-        <v>-0.00321</v>
+        <v>-3.2100000000000002E-3</v>
       </c>
       <c r="BR4">
-        <v>-0.09823999999999999</v>
+        <v>-9.8239999999999994E-2</v>
       </c>
       <c r="BS4">
         <v>0.73607</v>
       </c>
       <c r="BT4">
-        <v>0.70166</v>
+        <v>0.70165999999999995</v>
       </c>
       <c r="BU4">
-        <v>0.04675</v>
+        <v>4.675E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:85">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E5">
-        <v>2821.24228</v>
-      </c>
-      <c r="F5">
-        <v>8.91563</v>
+        <v>36772.31452</v>
       </c>
       <c r="H5">
-        <v>3450.81485</v>
+        <v>55026.639260000004</v>
       </c>
       <c r="I5">
-        <v>3334.73768</v>
+        <v>28124.630160000001</v>
       </c>
       <c r="J5">
-        <v>3343.65331</v>
+        <v>28124.630160000001</v>
       </c>
       <c r="K5">
-        <v>3507.66669</v>
+        <v>64955.372380000001</v>
       </c>
       <c r="L5">
-        <v>3198.98583</v>
+        <v>44126.777430000002</v>
       </c>
       <c r="M5">
-        <v>3129.33952</v>
+        <v>22553.608789999998</v>
       </c>
       <c r="N5">
-        <v>3138.25515</v>
+        <v>22553.608789999998</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>3598.1319400000002</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1839.0389</v>
       </c>
       <c r="Q5">
-        <v>251.82903</v>
+        <v>7301.7298899999996</v>
       </c>
       <c r="R5">
-        <v>205.39816</v>
+        <v>3731.9824600000002</v>
       </c>
       <c r="S5">
-        <v>0.34758</v>
+        <v>0.76641999999999999</v>
       </c>
       <c r="T5">
-        <v>0.24331</v>
+        <v>0.76641999999999999</v>
       </c>
       <c r="U5">
-        <v>0.13389</v>
+        <v>0.2</v>
       </c>
       <c r="V5">
-        <v>0.10921</v>
+        <v>-0.38667000000000001</v>
       </c>
       <c r="W5">
-        <v>0.11237</v>
+        <v>-0.38667000000000001</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>9.7850000000000006E-2</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>5.0009999999999999E-2</v>
       </c>
       <c r="Z5">
-        <v>0.08926000000000001</v>
+        <v>0.19857</v>
       </c>
       <c r="AA5">
-        <v>0.0728</v>
+        <v>0.10149</v>
       </c>
       <c r="AB5">
-        <v>28.78819</v>
+        <v>14.55897</v>
       </c>
       <c r="AC5">
-        <v>31.61588</v>
+        <v>8.8410600000000006</v>
       </c>
       <c r="AD5">
-        <v>31.70595</v>
+        <v>8.8410600000000006</v>
       </c>
       <c r="AE5">
-        <v>98</v>
+        <v>2525.75</v>
       </c>
       <c r="AF5">
-        <v>98.98</v>
+        <v>2551.0075000000002</v>
       </c>
       <c r="AG5">
-        <v>0.96636</v>
+        <v>0.51110999999999995</v>
       </c>
       <c r="AH5">
-        <v>1620.83713</v>
+        <v>-20184.50606</v>
       </c>
       <c r="AI5">
-        <v>1224.35928</v>
+        <v>-18657.206320000001</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>-18657.206320000001</v>
       </c>
       <c r="AK5">
-        <v>10036.37117</v>
+        <v>179107.35988</v>
       </c>
       <c r="AL5">
-        <v>9098.94326</v>
+        <v>186298.44787999999</v>
       </c>
       <c r="AM5">
-        <v>737.4291899999999</v>
+        <v>-23.33052</v>
       </c>
       <c r="AN5">
-        <v>57.37174</v>
+        <v>412.45150999999998</v>
       </c>
       <c r="AO5">
-        <v>2098</v>
+        <v>-5550.69</v>
       </c>
       <c r="AP5">
-        <v>1783</v>
+        <v>-5014.7</v>
       </c>
       <c r="AQ5">
-        <v>1747</v>
+        <v>-5014.7</v>
       </c>
       <c r="AR5">
-        <v>13223</v>
+        <v>344381.9</v>
       </c>
       <c r="AS5">
-        <v>11488</v>
+        <v>364207.59</v>
       </c>
       <c r="AT5">
-        <v>343</v>
+        <v>14312</v>
       </c>
       <c r="AU5">
         <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.29439</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="AW5">
-        <v>0.45627</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>139</v>
+        <v>0.73121999999999998</v>
+      </c>
+      <c r="AX5">
+        <v>0.73121999999999998</v>
       </c>
       <c r="AY5">
-        <v>0.31751</v>
+        <v>0.92276999999999998</v>
       </c>
       <c r="BB5">
-        <v>16.53915</v>
+        <v>-7.9914899999999998</v>
       </c>
       <c r="BC5">
-        <v>12.49346</v>
+        <v>-7.3868</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>-7.3868</v>
       </c>
       <c r="BE5">
-        <v>102.41195</v>
+        <v>70.912540000000007</v>
       </c>
       <c r="BF5">
-        <v>21.1962</v>
+        <v>-2.1758799999999998</v>
       </c>
       <c r="BG5">
-        <v>18.01374</v>
+        <v>-1.96577</v>
       </c>
       <c r="BH5">
-        <v>17.65003</v>
+        <v>-1.96577</v>
       </c>
       <c r="BI5">
-        <v>133.59264</v>
+        <v>134.99839</v>
       </c>
       <c r="BJ5">
         <v>0.5</v>
@@ -1845,72 +1881,66 @@
         <v>0.5</v>
       </c>
       <c r="BN5">
-        <v>0.28158</v>
+        <v>0.72772999999999999</v>
       </c>
       <c r="BO5">
-        <v>0.44185</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>139</v>
+        <v>0.73387999999999998</v>
+      </c>
+      <c r="BP5">
+        <v>0.73387999999999998</v>
       </c>
       <c r="BQ5">
-        <v>0.30446</v>
+        <v>0.90373000000000003</v>
       </c>
       <c r="BR5">
-        <v>0.29302</v>
+        <v>0.81572999999999996</v>
       </c>
       <c r="BS5">
-        <v>0.9066</v>
+        <v>1.0401499999999999</v>
       </c>
       <c r="BT5">
-        <v>0.86879</v>
+        <v>1.0575699999999999</v>
       </c>
       <c r="BU5">
-        <v>0.0417</v>
+        <v>-1.6750000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:85">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E6">
-        <v>49839.22132</v>
+        <v>2821.2422799999999</v>
       </c>
       <c r="F6">
-        <v>12266.05769</v>
-      </c>
-      <c r="G6">
-        <v>8171.42804</v>
+        <v>8.9156300000000002</v>
       </c>
       <c r="H6">
-        <v>33575.5286</v>
+        <v>3450.8148500000002</v>
       </c>
       <c r="I6">
-        <v>32446.12795</v>
+        <v>1763.7437600000001</v>
       </c>
       <c r="J6">
-        <v>44712.18564</v>
+        <v>1772.65939</v>
       </c>
       <c r="K6">
-        <v>33632.38044</v>
+        <v>3507.66669</v>
       </c>
       <c r="L6">
-        <v>33323.69957</v>
+        <v>3198.9858300000001</v>
       </c>
       <c r="M6">
-        <v>32240.72979</v>
+        <v>1635.0315900000001</v>
       </c>
       <c r="N6">
-        <v>44506.78749</v>
+        <v>1643.94721</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1919,22 +1949,25 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>251.82903</v>
+        <v>251.82902999999999</v>
       </c>
       <c r="R6">
-        <v>205.39816</v>
+        <v>128.71216999999999</v>
+      </c>
+      <c r="S6">
+        <v>0.34758</v>
       </c>
       <c r="T6">
-        <v>-0.32518</v>
+        <v>0.24331</v>
       </c>
       <c r="U6">
-        <v>-0.33138</v>
+        <v>0.13389000000000001</v>
       </c>
       <c r="V6">
-        <v>-0.35311</v>
+        <v>-0.42046</v>
       </c>
       <c r="W6">
-        <v>-0.10699</v>
+        <v>-0.4173</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1943,106 +1976,106 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.00505</v>
+        <v>8.9260000000000006E-2</v>
       </c>
       <c r="AA6">
-        <v>0.00412</v>
+        <v>4.5620000000000001E-2</v>
       </c>
       <c r="AB6">
-        <v>30.13254</v>
+        <v>28.78819</v>
       </c>
       <c r="AC6">
-        <v>19.29959</v>
+        <v>16.518809999999998</v>
       </c>
       <c r="AD6">
-        <v>26.64216</v>
+        <v>16.608879999999999</v>
       </c>
       <c r="AE6">
-        <v>1654</v>
+        <v>98</v>
       </c>
       <c r="AF6">
-        <v>1670.54</v>
+        <v>98.98</v>
       </c>
       <c r="AG6">
-        <v>0.96636</v>
+        <v>0.51110999999999995</v>
       </c>
       <c r="AH6">
-        <v>184165.42544</v>
+        <v>1620.8371299999999</v>
       </c>
       <c r="AI6">
-        <v>81252.70621</v>
+        <v>1224.3592799999999</v>
       </c>
       <c r="AJ6">
-        <v>34680.28897</v>
+        <v>1199.8720900000001</v>
       </c>
       <c r="AK6">
-        <v>1136471.77266</v>
+        <v>10036.37117</v>
       </c>
       <c r="AL6">
-        <v>947502.92021</v>
+        <v>9098.94326</v>
       </c>
       <c r="AM6">
-        <v>2378.67344</v>
+        <v>737.42918999999995</v>
       </c>
       <c r="AN6">
-        <v>6424.59047</v>
+        <v>57.371740000000003</v>
       </c>
       <c r="AO6">
-        <v>75311.09</v>
+        <v>2098</v>
       </c>
       <c r="AP6">
-        <v>29768.81</v>
+        <v>1783</v>
       </c>
       <c r="AQ6">
-        <v>20887.39</v>
+        <v>1747</v>
       </c>
       <c r="AR6">
-        <v>981243.11</v>
+        <v>13223</v>
       </c>
       <c r="AS6">
-        <v>906564.64</v>
+        <v>11488</v>
       </c>
       <c r="AT6">
-        <v>14284.36</v>
+        <v>343</v>
       </c>
       <c r="AU6">
-        <v>3092.58</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>-0.59107</v>
+        <v>0.29438999999999999</v>
       </c>
       <c r="AW6">
-        <v>-0.63363</v>
+        <v>0.45627000000000001</v>
       </c>
       <c r="AX6">
-        <v>-0.39772</v>
+        <v>0.45599000000000001</v>
       </c>
       <c r="AY6">
-        <v>-0.13659</v>
+        <v>0.31751000000000001</v>
       </c>
       <c r="BB6">
-        <v>111.34548</v>
+        <v>16.539149999999999</v>
       </c>
       <c r="BC6">
-        <v>49.12497</v>
+        <v>12.493460000000001</v>
       </c>
       <c r="BD6">
-        <v>20.96753</v>
+        <v>12.243589999999999</v>
       </c>
       <c r="BE6">
-        <v>687.10506</v>
+        <v>102.41195</v>
       </c>
       <c r="BF6">
-        <v>45.08188</v>
+        <v>21.196200000000001</v>
       </c>
       <c r="BG6">
-        <v>17.81987</v>
+        <v>18.013739999999999</v>
       </c>
       <c r="BH6">
-        <v>12.50338</v>
+        <v>17.650030000000001</v>
       </c>
       <c r="BI6">
-        <v>587.38079</v>
+        <v>133.59263999999999</v>
       </c>
       <c r="BJ6">
         <v>0.5</v>
@@ -2051,484 +2084,364 @@
         <v>0.5</v>
       </c>
       <c r="BN6">
-        <v>-0.59512</v>
+        <v>0.28158</v>
       </c>
       <c r="BO6">
-        <v>-0.63725</v>
+        <v>0.44185000000000002</v>
       </c>
       <c r="BP6">
-        <v>-0.40368</v>
+        <v>0.44157000000000002</v>
       </c>
       <c r="BQ6">
-        <v>-0.14514</v>
+        <v>0.30446000000000001</v>
       </c>
       <c r="BR6">
-        <v>-0.37013</v>
+        <v>0.29302</v>
       </c>
       <c r="BS6">
-        <v>0.83372</v>
+        <v>0.90659999999999996</v>
       </c>
       <c r="BT6">
-        <v>0.92389</v>
+        <v>0.86878999999999995</v>
       </c>
       <c r="BU6">
-        <v>-0.10815</v>
+        <v>4.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:85">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" t="s">
         <v>135</v>
       </c>
-      <c r="E7">
-        <v>49839.22132</v>
-      </c>
-      <c r="F7">
-        <v>12266.05769</v>
-      </c>
-      <c r="G7">
-        <v>8171.42804</v>
-      </c>
       <c r="H7">
-        <v>24274.69991</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>24274.69991</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>44712.18564</v>
-      </c>
-      <c r="K7">
-        <v>24274.69991</v>
-      </c>
-      <c r="L7">
-        <v>24274.69991</v>
-      </c>
-      <c r="M7">
-        <v>24274.69991</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>44712.18564</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>-0.51294</v>
-      </c>
-      <c r="T7">
-        <v>-0.51294</v>
-      </c>
-      <c r="U7">
-        <v>-0.51294</v>
-      </c>
-      <c r="V7">
-        <v>-0.51294</v>
-      </c>
-      <c r="W7">
-        <v>-0.10287</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>30.13254</v>
-      </c>
-      <c r="AC7">
-        <v>14.53105</v>
-      </c>
-      <c r="AD7">
-        <v>26.76511</v>
-      </c>
-      <c r="AE7">
-        <v>1654</v>
-      </c>
-      <c r="AF7">
-        <v>1670.54</v>
-      </c>
       <c r="AH7">
-        <v>184165.42544</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>81252.70621</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>34680.28897</v>
+        <v>-19675.29665</v>
       </c>
       <c r="AK7">
-        <v>1136471.77266</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>947502.92021</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>2378.67344</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>6424.59047</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>75311.09</v>
+        <v>-28660.65</v>
       </c>
       <c r="AP7">
-        <v>29768.81</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
-        <v>20887.39</v>
+        <v>-23028.92</v>
       </c>
       <c r="AR7">
-        <v>981243.11</v>
+        <v>-246352.39</v>
       </c>
       <c r="AS7">
-        <v>906564.64</v>
+        <v>-220335.65</v>
       </c>
       <c r="AT7">
-        <v>14284.36</v>
+        <v>-14312</v>
       </c>
       <c r="AU7">
-        <v>3092.58</v>
-      </c>
-      <c r="AV7">
-        <v>-0.59107</v>
-      </c>
-      <c r="AW7">
-        <v>-0.63363</v>
+        <v>0</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>142</v>
       </c>
       <c r="AX7">
-        <v>-0.39772</v>
-      </c>
-      <c r="AY7">
-        <v>-0.13659</v>
-      </c>
-      <c r="BB7">
-        <v>111.34548</v>
-      </c>
-      <c r="BC7">
-        <v>49.12497</v>
-      </c>
-      <c r="BD7">
-        <v>20.96753</v>
-      </c>
-      <c r="BE7">
-        <v>687.10506</v>
-      </c>
-      <c r="BF7">
-        <v>45.08188</v>
-      </c>
-      <c r="BG7">
-        <v>17.81987</v>
-      </c>
-      <c r="BH7">
-        <v>12.50338</v>
-      </c>
-      <c r="BI7">
-        <v>587.38079</v>
+        <v>-0.17044999999999999</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>142</v>
       </c>
       <c r="BJ7">
-        <v>0.5</v>
-      </c>
-      <c r="BM7">
-        <v>0.5</v>
-      </c>
-      <c r="BN7">
-        <v>-0.59512</v>
-      </c>
-      <c r="BO7">
-        <v>-0.63725</v>
-      </c>
-      <c r="BP7">
-        <v>-0.40368</v>
-      </c>
-      <c r="BQ7">
-        <v>-0.14514</v>
+        <v>1</v>
       </c>
       <c r="BR7">
-        <v>-0.37013</v>
-      </c>
-      <c r="BS7">
-        <v>0.83372</v>
+        <v>0</v>
       </c>
       <c r="BT7">
-        <v>0.92389</v>
-      </c>
-      <c r="BU7">
-        <v>-0.10815</v>
+        <v>0.89439000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:85">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E8">
-        <v>22298.737</v>
+        <v>86611.535839999997</v>
+      </c>
+      <c r="F8">
+        <v>8462.4372999999996</v>
       </c>
       <c r="G8">
-        <v>9785.1273</v>
+        <v>9945.0484400000005</v>
       </c>
       <c r="H8">
-        <v>23302.18016</v>
+        <v>88602.167860000001</v>
       </c>
       <c r="I8">
-        <v>23302.18016</v>
+        <v>45285.396959999998</v>
       </c>
       <c r="J8">
-        <v>23302.18016</v>
+        <v>53747.834260000003</v>
       </c>
       <c r="K8">
-        <v>23302.18016</v>
+        <v>98587.752819999994</v>
       </c>
       <c r="L8">
-        <v>23302.18016</v>
+        <v>77450.476999999999</v>
       </c>
       <c r="M8">
-        <v>23302.18016</v>
+        <v>39585.663419999997</v>
       </c>
       <c r="N8">
-        <v>23302.18016</v>
+        <v>48048.100720000002</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>3598.1319400000002</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1839.0389</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>7553.5589200000004</v>
       </c>
       <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0.045</v>
+        <v>3860.6946400000002</v>
       </c>
       <c r="T8">
-        <v>0.045</v>
+        <v>0.13827999999999999</v>
       </c>
       <c r="U8">
-        <v>0.045</v>
+        <v>-0.10577</v>
       </c>
       <c r="V8">
-        <v>0.045</v>
+        <v>-0.54295000000000004</v>
       </c>
       <c r="W8">
-        <v>0.045</v>
+        <v>-0.44524999999999998</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>4.1540000000000001E-2</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>2.1229999999999999E-2</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>8.7209999999999996E-2</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>4.4569999999999999E-2</v>
       </c>
       <c r="AB8">
-        <v>30.46276</v>
+        <v>20.721699999999998</v>
       </c>
       <c r="AC8">
-        <v>31.83358</v>
+        <v>9.3770500000000006</v>
       </c>
       <c r="AD8">
-        <v>31.83358</v>
+        <v>11.381629999999999</v>
       </c>
       <c r="AE8">
-        <v>732</v>
+        <v>4179.75</v>
       </c>
       <c r="AF8">
-        <v>732</v>
+        <v>4221.5474999999997</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0.51110999999999995</v>
       </c>
       <c r="AH8">
-        <v>29713.54039</v>
+        <v>163980.91938000001</v>
       </c>
       <c r="AI8">
-        <v>4754.77504</v>
+        <v>62595.499900000003</v>
       </c>
       <c r="AJ8">
-        <v>70.51154</v>
+        <v>3893.4409500000002</v>
       </c>
       <c r="AK8">
-        <v>66520.72960999999</v>
+        <v>1315579.1325399999</v>
       </c>
       <c r="AL8">
-        <v>57946.9561</v>
+        <v>1133801.36809</v>
       </c>
       <c r="AM8">
-        <v>19009.96135</v>
+        <v>2355.34292</v>
       </c>
       <c r="AN8">
-        <v>2411.78686</v>
+        <v>6837.04198</v>
       </c>
       <c r="AO8">
-        <v>-7767.5</v>
+        <v>41099.75</v>
       </c>
       <c r="AP8">
-        <v>-16593.69</v>
+        <v>24754.11</v>
       </c>
       <c r="AQ8">
-        <v>-8964.690000000001</v>
+        <v>-7156.23</v>
       </c>
       <c r="AR8">
-        <v>45154.7</v>
+        <v>1079272.6200000001</v>
       </c>
       <c r="AS8">
-        <v>54045.2</v>
+        <v>1050436.58</v>
       </c>
       <c r="AT8">
-        <v>575</v>
+        <v>14284.36</v>
       </c>
       <c r="AU8">
-        <v>348</v>
+        <v>3092.58</v>
       </c>
       <c r="AV8">
-        <v>-1.26141</v>
+        <v>-0.74936000000000003</v>
       </c>
       <c r="AW8">
-        <v>-4.4899</v>
+        <v>-0.60453999999999997</v>
       </c>
       <c r="AX8">
-        <v>-128.13791</v>
+        <v>-2.8380200000000002</v>
       </c>
       <c r="AY8">
-        <v>-0.32119</v>
-      </c>
-      <c r="AZ8">
-        <v>105</v>
-      </c>
-      <c r="BA8">
-        <v>0.045</v>
+        <v>-0.17962</v>
       </c>
       <c r="BB8">
-        <v>40.59227</v>
+        <v>39.232230000000001</v>
       </c>
       <c r="BC8">
-        <v>6.49559</v>
+        <v>14.975899999999999</v>
       </c>
       <c r="BD8">
-        <v>0.09633</v>
+        <v>0.93149999999999999</v>
       </c>
       <c r="BE8">
-        <v>90.87531</v>
+        <v>314.75067000000001</v>
       </c>
       <c r="BF8">
-        <v>-10.61134</v>
+        <v>9.7357099999999992</v>
       </c>
       <c r="BG8">
-        <v>-22.66898</v>
+        <v>5.8637499999999996</v>
       </c>
       <c r="BH8">
-        <v>-12.24684</v>
+        <v>-1.6951700000000001</v>
       </c>
       <c r="BI8">
-        <v>61.68675</v>
+        <v>255.65805</v>
       </c>
       <c r="BJ8">
         <v>0.5</v>
       </c>
-      <c r="BL8">
+      <c r="BM8">
         <v>0.5</v>
       </c>
       <c r="BN8">
-        <v>-1.26141</v>
+        <v>-0.75183999999999995</v>
       </c>
       <c r="BO8">
-        <v>-4.4899</v>
+        <v>-0.60845000000000005</v>
       </c>
       <c r="BP8">
-        <v>-128.13791</v>
+        <v>-2.81982</v>
       </c>
       <c r="BQ8">
-        <v>-0.32119</v>
+        <v>-0.18773999999999999</v>
       </c>
       <c r="BR8">
-        <v>-64.69965999999999</v>
+        <v>-0.46978999999999999</v>
       </c>
       <c r="BS8">
-        <v>0.65892</v>
+        <v>0.86182999999999998</v>
       </c>
       <c r="BT8">
-        <v>1.17291</v>
+        <v>0.97328000000000003</v>
       </c>
       <c r="BU8">
-        <v>-0.78006</v>
+        <v>-0.12931999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:85">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E9">
-        <v>1738.473</v>
+        <v>86611.535839999997</v>
+      </c>
+      <c r="F9">
+        <v>8462.4372999999996</v>
+      </c>
+      <c r="G9">
+        <v>9945.0484400000005</v>
       </c>
       <c r="H9">
-        <v>1811.48887</v>
+        <v>35340.34852</v>
       </c>
       <c r="I9">
-        <v>1811.48887</v>
+        <v>35340.34852</v>
       </c>
       <c r="J9">
-        <v>1811.48887</v>
+        <v>53747.834260000003</v>
       </c>
       <c r="K9">
-        <v>1811.48887</v>
+        <v>35340.34852</v>
       </c>
       <c r="L9">
-        <v>1811.48887</v>
+        <v>35340.34852</v>
       </c>
       <c r="M9">
-        <v>1811.48887</v>
+        <v>35340.34852</v>
       </c>
       <c r="N9">
-        <v>1811.48887</v>
+        <v>53747.834260000003</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2543,19 +2456,19 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.042</v>
+        <v>-0.59197</v>
       </c>
       <c r="T9">
-        <v>0.042</v>
+        <v>-0.59197</v>
       </c>
       <c r="U9">
-        <v>0.042</v>
+        <v>-0.59197</v>
       </c>
       <c r="V9">
-        <v>0.042</v>
+        <v>-0.59197</v>
       </c>
       <c r="W9">
-        <v>0.042</v>
+        <v>-0.37944</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -2570,383 +2483,168 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>31.63736</v>
+        <v>20.721699999999998</v>
       </c>
       <c r="AC9">
-        <v>32.96613</v>
+        <v>8.3714200000000005</v>
       </c>
       <c r="AD9">
-        <v>32.96613</v>
+        <v>12.731780000000001</v>
       </c>
       <c r="AE9">
-        <v>54.95</v>
+        <v>4179.75</v>
       </c>
       <c r="AF9">
-        <v>54.95</v>
-      </c>
-      <c r="AG9">
-        <v>1</v>
+        <v>4221.5474999999997</v>
       </c>
       <c r="AH9">
-        <v>3.3775</v>
+        <v>163980.91938000001</v>
       </c>
       <c r="AI9">
-        <v>2.53313</v>
+        <v>62595.499900000003</v>
       </c>
       <c r="AJ9">
-        <v>2.53313</v>
+        <v>3893.4409500000002</v>
       </c>
       <c r="AK9">
-        <v>317.23616</v>
+        <v>1315579.1325399999</v>
       </c>
       <c r="AL9">
-        <v>317.23616</v>
+        <v>1133801.36809</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>2355.34292</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>6837.04198</v>
       </c>
       <c r="AO9">
-        <v>13.93</v>
+        <v>41099.75</v>
       </c>
       <c r="AP9">
-        <v>13.93</v>
+        <v>24754.11</v>
       </c>
       <c r="AQ9">
-        <v>13.93</v>
+        <v>-7156.23</v>
       </c>
       <c r="AR9">
-        <v>30033.83</v>
+        <v>1079272.6200000001</v>
       </c>
       <c r="AS9">
-        <v>30019.9</v>
+        <v>1050436.58</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>14284.36</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>3092.58</v>
       </c>
       <c r="AV9">
-        <v>3.12435</v>
+        <v>-0.74936000000000003</v>
       </c>
       <c r="AW9">
-        <v>4.49913</v>
+        <v>-0.60453999999999997</v>
       </c>
       <c r="AX9">
-        <v>4.49913</v>
+        <v>-2.8380200000000002</v>
       </c>
       <c r="AY9">
-        <v>93.67341</v>
-      </c>
-      <c r="AZ9">
-        <v>104</v>
-      </c>
-      <c r="BA9">
-        <v>0.042</v>
+        <v>-0.17962</v>
       </c>
       <c r="BB9">
-        <v>0.06146</v>
+        <v>39.232230000000001</v>
       </c>
       <c r="BC9">
-        <v>0.0461</v>
+        <v>14.975899999999999</v>
       </c>
       <c r="BD9">
-        <v>0.0461</v>
+        <v>0.93149999999999999</v>
       </c>
       <c r="BE9">
-        <v>5.77318</v>
+        <v>314.75067000000001</v>
       </c>
       <c r="BF9">
-        <v>0.2535</v>
+        <v>9.7357099999999992</v>
       </c>
       <c r="BG9">
-        <v>0.2535</v>
+        <v>5.8637499999999996</v>
       </c>
       <c r="BH9">
-        <v>0.2535</v>
+        <v>-1.6951700000000001</v>
       </c>
       <c r="BI9">
-        <v>546.56652</v>
+        <v>255.65805</v>
       </c>
       <c r="BJ9">
         <v>0.5</v>
       </c>
-      <c r="BL9">
+      <c r="BM9">
         <v>0.5</v>
       </c>
       <c r="BN9">
-        <v>3.12435</v>
+        <v>-0.75183999999999995</v>
       </c>
       <c r="BO9">
-        <v>4.49913</v>
+        <v>-0.60845000000000005</v>
       </c>
       <c r="BP9">
-        <v>4.49913</v>
+        <v>-2.81982</v>
       </c>
       <c r="BQ9">
-        <v>93.67341</v>
+        <v>-0.18773999999999999</v>
       </c>
       <c r="BR9">
-        <v>3.81174</v>
+        <v>-0.46978999999999999</v>
       </c>
       <c r="BS9">
-        <v>1</v>
+        <v>0.86182999999999998</v>
       </c>
       <c r="BT9">
-        <v>0.99954</v>
+        <v>0.97328000000000003</v>
       </c>
       <c r="BU9">
-        <v>0.00046</v>
+        <v>-0.12931999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:85">
-      <c r="A10" t="s">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>93</v>
       </c>
-      <c r="B10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
         <v>136</v>
       </c>
-      <c r="E10">
-        <v>2005.91978</v>
-      </c>
-      <c r="H10">
-        <v>2096.18617</v>
-      </c>
-      <c r="I10">
-        <v>2096.18617</v>
-      </c>
-      <c r="J10">
-        <v>2096.18617</v>
-      </c>
-      <c r="K10">
-        <v>2096.18617</v>
-      </c>
-      <c r="L10">
-        <v>2096.18617</v>
-      </c>
-      <c r="M10">
-        <v>2096.18617</v>
-      </c>
-      <c r="N10">
-        <v>2096.18617</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0.045</v>
-      </c>
-      <c r="T10">
-        <v>0.045</v>
-      </c>
-      <c r="U10">
-        <v>0.045</v>
-      </c>
-      <c r="V10">
-        <v>0.045</v>
-      </c>
-      <c r="W10">
-        <v>0.045</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>39.33176</v>
-      </c>
-      <c r="AC10">
-        <v>41.10169</v>
-      </c>
-      <c r="AD10">
-        <v>41.10169</v>
-      </c>
-      <c r="AE10">
-        <v>51</v>
-      </c>
-      <c r="AF10">
-        <v>51</v>
-      </c>
-      <c r="AG10">
-        <v>1</v>
-      </c>
-      <c r="AH10">
-        <v>-4031.55981</v>
-      </c>
-      <c r="AI10">
-        <v>-4044.18827</v>
-      </c>
-      <c r="AJ10">
-        <v>-4044.18827</v>
-      </c>
-      <c r="AK10">
-        <v>324.51673</v>
-      </c>
-      <c r="AL10">
-        <v>4356.07654</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>-22353.49</v>
-      </c>
-      <c r="AP10">
-        <v>-22353.49</v>
-      </c>
-      <c r="AQ10">
-        <v>-22353.49</v>
-      </c>
-      <c r="AR10">
-        <v>6282.89</v>
-      </c>
-      <c r="AS10">
-        <v>28636.38</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>-4.54463</v>
-      </c>
-      <c r="AW10">
-        <v>-4.52731</v>
-      </c>
-      <c r="AX10">
-        <v>-4.52731</v>
-      </c>
-      <c r="AY10">
-        <v>18.36076</v>
-      </c>
-      <c r="AZ10">
-        <v>105</v>
-      </c>
-      <c r="BA10">
-        <v>0.045</v>
-      </c>
-      <c r="BB10">
-        <v>-79.05019</v>
-      </c>
-      <c r="BC10">
-        <v>-79.29781</v>
-      </c>
-      <c r="BD10">
-        <v>-79.29781</v>
-      </c>
-      <c r="BE10">
-        <v>6.36307</v>
-      </c>
-      <c r="BF10">
-        <v>-438.30373</v>
-      </c>
-      <c r="BG10">
-        <v>-438.30373</v>
-      </c>
-      <c r="BH10">
-        <v>-438.30373</v>
-      </c>
-      <c r="BI10">
-        <v>123.19392</v>
-      </c>
-      <c r="BJ10">
-        <v>0.5</v>
-      </c>
-      <c r="BL10">
-        <v>0.5</v>
-      </c>
-      <c r="BN10">
-        <v>-4.54463</v>
-      </c>
-      <c r="BO10">
-        <v>-4.52731</v>
-      </c>
-      <c r="BP10">
-        <v>-4.52731</v>
-      </c>
-      <c r="BQ10">
-        <v>18.36076</v>
-      </c>
-      <c r="BR10">
-        <v>-4.53597</v>
-      </c>
-      <c r="BS10">
-        <v>13.42327</v>
-      </c>
-      <c r="BT10">
-        <v>4.55784</v>
-      </c>
-      <c r="BU10">
-        <v>0.66045</v>
-      </c>
-    </row>
-    <row r="11" spans="1:85">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E11">
-        <v>6628.4</v>
+        <v>22298.737000000001</v>
+      </c>
+      <c r="G11">
+        <v>9785.1273000000001</v>
       </c>
       <c r="H11">
-        <v>6926.678</v>
+        <v>23302.18016</v>
       </c>
       <c r="I11">
-        <v>6926.678</v>
+        <v>48614.878530000002</v>
       </c>
       <c r="J11">
-        <v>6926.678</v>
+        <v>48614.878530000002</v>
       </c>
       <c r="K11">
-        <v>6926.678</v>
+        <v>23302.18016</v>
       </c>
       <c r="L11">
-        <v>6926.678</v>
+        <v>23302.18016</v>
       </c>
       <c r="M11">
-        <v>6926.678</v>
+        <v>23302.18016</v>
       </c>
       <c r="N11">
-        <v>6926.678</v>
+        <v>23302.18016</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2958,22 +2656,22 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>25312.698359999999</v>
       </c>
       <c r="S11">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="T11">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="U11">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="V11">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="W11">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -2985,109 +2683,109 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1.1351599999999999</v>
       </c>
       <c r="AB11">
-        <v>33.99179</v>
+        <v>30.462759999999999</v>
       </c>
       <c r="AC11">
-        <v>35.52143</v>
+        <v>31.833580000000001</v>
       </c>
       <c r="AD11">
-        <v>35.52143</v>
+        <v>31.833580000000001</v>
       </c>
       <c r="AE11">
-        <v>195</v>
+        <v>732</v>
       </c>
       <c r="AF11">
-        <v>195</v>
+        <v>732</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>2.0862799999999999</v>
       </c>
       <c r="AH11">
-        <v>20.84264</v>
+        <v>29713.540389999998</v>
       </c>
       <c r="AI11">
-        <v>0.1982</v>
+        <v>4754.7750400000004</v>
       </c>
       <c r="AJ11">
-        <v>0.1982</v>
+        <v>-3764.1720700000001</v>
       </c>
       <c r="AK11">
-        <v>29567.45911</v>
+        <v>66520.729609999995</v>
       </c>
       <c r="AL11">
-        <v>29569.31481</v>
+        <v>57946.956100000003</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>19009.961350000001</v>
       </c>
       <c r="AN11">
-        <v>19.25593</v>
+        <v>2411.7868600000002</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>-7767.5</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>-16593.689999999999</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>-8964.69</v>
       </c>
       <c r="AR11">
-        <v>32460.9</v>
+        <v>45154.7</v>
       </c>
       <c r="AS11">
-        <v>32460.9</v>
+        <v>54045.2</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="AV11">
-        <v>-1</v>
+        <v>-1.2614099999999999</v>
       </c>
       <c r="AW11">
-        <v>-1</v>
+        <v>-4.4898999999999996</v>
       </c>
       <c r="AX11">
-        <v>-1</v>
+        <v>-1.38158</v>
       </c>
       <c r="AY11">
-        <v>0.09786</v>
+        <v>-0.32118999999999998</v>
       </c>
       <c r="AZ11">
         <v>105</v>
       </c>
       <c r="BA11">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="BB11">
-        <v>0.10689</v>
+        <v>40.592269999999999</v>
       </c>
       <c r="BC11">
-        <v>0.00102</v>
+        <v>6.49559</v>
       </c>
       <c r="BD11">
-        <v>0.00102</v>
+        <v>-5.1423100000000002</v>
       </c>
       <c r="BE11">
-        <v>151.628</v>
+        <v>90.875309999999999</v>
       </c>
       <c r="BF11">
-        <v>0</v>
+        <v>-10.61134</v>
       </c>
       <c r="BG11">
-        <v>0</v>
+        <v>-22.668980000000001</v>
       </c>
       <c r="BH11">
-        <v>0</v>
+        <v>-12.246840000000001</v>
       </c>
       <c r="BI11">
-        <v>166.46615</v>
+        <v>61.686750000000004</v>
       </c>
       <c r="BJ11">
         <v>0.5</v>
@@ -3096,66 +2794,66 @@
         <v>0.5</v>
       </c>
       <c r="BN11">
-        <v>-1</v>
+        <v>-1.2614099999999999</v>
       </c>
       <c r="BO11">
-        <v>-1</v>
+        <v>-4.4898999999999996</v>
       </c>
       <c r="BP11">
-        <v>-1</v>
+        <v>-1.38158</v>
       </c>
       <c r="BQ11">
-        <v>0.09786</v>
+        <v>-0.32118999999999998</v>
       </c>
       <c r="BR11">
-        <v>-1</v>
+        <v>-1.3214999999999999</v>
       </c>
       <c r="BS11">
-        <v>0.99941</v>
+        <v>0.65891999999999995</v>
       </c>
       <c r="BT11">
-        <v>1</v>
+        <v>1.1729099999999999</v>
       </c>
       <c r="BU11">
-        <v>-0.00059</v>
+        <v>-0.78005999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:85">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E12">
-        <v>1727.24812</v>
+        <v>1738.473</v>
       </c>
       <c r="H12">
-        <v>1810.15603</v>
+        <v>1811.4888699999999</v>
       </c>
       <c r="I12">
-        <v>1810.15603</v>
+        <v>1811.4888699999999</v>
       </c>
       <c r="J12">
-        <v>1810.15603</v>
+        <v>1811.4888699999999</v>
       </c>
       <c r="K12">
-        <v>1810.15603</v>
+        <v>1811.4888699999999</v>
       </c>
       <c r="L12">
-        <v>1810.15603</v>
+        <v>1811.4888699999999</v>
       </c>
       <c r="M12">
-        <v>1810.15603</v>
+        <v>1811.4888699999999</v>
       </c>
       <c r="N12">
-        <v>1810.15603</v>
+        <v>1811.4888699999999</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -3166,23 +2864,20 @@
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
       <c r="S12">
-        <v>0.048</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="T12">
-        <v>0.048</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="U12">
-        <v>0.048</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="V12">
-        <v>0.048</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="W12">
-        <v>0.048</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -3193,101 +2888,107 @@
       <c r="Z12">
         <v>0</v>
       </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
       <c r="AB12">
-        <v>33.86761</v>
+        <v>31.637360000000001</v>
       </c>
       <c r="AC12">
-        <v>35.49326</v>
+        <v>32.96613</v>
       </c>
       <c r="AD12">
-        <v>35.49326</v>
+        <v>32.96613</v>
       </c>
       <c r="AE12">
-        <v>51</v>
+        <v>54.95</v>
       </c>
       <c r="AF12">
-        <v>51</v>
+        <v>54.95</v>
       </c>
       <c r="AG12">
         <v>1</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>3.3774999999999999</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>2.5331299999999999</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>2.5331299999999999</v>
       </c>
       <c r="AK12">
-        <v>3156.59217</v>
+        <v>317.23615999999998</v>
       </c>
       <c r="AL12">
-        <v>3952.1832</v>
+        <v>317.23615999999998</v>
       </c>
       <c r="AM12">
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>761.91937</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>13.93</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>13.93</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>13.93</v>
       </c>
       <c r="AR12">
-        <v>7129.94</v>
+        <v>30033.83</v>
       </c>
       <c r="AS12">
-        <v>8128.94</v>
+        <v>30019.9</v>
       </c>
       <c r="AT12">
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>999</v>
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>3.1243500000000002</v>
+      </c>
+      <c r="AW12">
+        <v>4.4991300000000001</v>
+      </c>
+      <c r="AX12">
+        <v>4.4991300000000001</v>
       </c>
       <c r="AY12">
-        <v>1.25875</v>
+        <v>93.673410000000004</v>
       </c>
       <c r="AZ12">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BA12">
-        <v>0.048</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="BB12">
-        <v>0</v>
+        <v>6.1460000000000001E-2</v>
       </c>
       <c r="BC12">
-        <v>0</v>
+        <v>4.6100000000000002E-2</v>
       </c>
       <c r="BD12">
-        <v>0</v>
+        <v>4.6100000000000002E-2</v>
       </c>
       <c r="BE12">
-        <v>61.89396</v>
+        <v>5.77318</v>
       </c>
       <c r="BF12">
-        <v>0</v>
+        <v>0.2535</v>
       </c>
       <c r="BG12">
-        <v>0</v>
+        <v>0.2535</v>
       </c>
       <c r="BH12">
-        <v>0</v>
+        <v>0.2535</v>
       </c>
       <c r="BI12">
-        <v>139.80275</v>
+        <v>546.56651999999997</v>
       </c>
       <c r="BJ12">
         <v>0.5</v>
@@ -3295,61 +2996,67 @@
       <c r="BL12">
         <v>0.5</v>
       </c>
+      <c r="BN12">
+        <v>3.1243500000000002</v>
+      </c>
+      <c r="BO12">
+        <v>4.4991300000000001</v>
+      </c>
+      <c r="BP12">
+        <v>4.4991300000000001</v>
+      </c>
       <c r="BQ12">
-        <v>1.25875</v>
+        <v>93.673410000000004</v>
       </c>
       <c r="BR12">
-        <v>0</v>
+        <v>3.8117399999999999</v>
       </c>
       <c r="BS12">
-        <v>1.00859</v>
+        <v>1</v>
       </c>
       <c r="BT12">
-        <v>1</v>
+        <v>0.99953999999999998</v>
       </c>
       <c r="BU12">
-        <v>0.00852</v>
+        <v>4.6000000000000001E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:85">
+    <row r="13" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E13">
-        <v>13292.10937</v>
-      </c>
-      <c r="G13">
-        <v>5675.42801</v>
+        <v>2005.9197799999999</v>
       </c>
       <c r="H13">
-        <v>13631.05815</v>
+        <v>2096.1861699999999</v>
       </c>
       <c r="I13">
-        <v>13631.05815</v>
+        <v>2096.1861699999999</v>
       </c>
       <c r="J13">
-        <v>13631.05815</v>
+        <v>2096.1861699999999</v>
       </c>
       <c r="K13">
-        <v>13631.05815</v>
+        <v>2096.1861699999999</v>
       </c>
       <c r="L13">
-        <v>13631.05815</v>
+        <v>2096.1861699999999</v>
       </c>
       <c r="M13">
-        <v>13631.05815</v>
+        <v>2096.1861699999999</v>
       </c>
       <c r="N13">
-        <v>13631.05815</v>
+        <v>2096.1861699999999</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3360,23 +3067,20 @@
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
       <c r="S13">
-        <v>0.0255</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="T13">
-        <v>0.0255</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="U13">
-        <v>0.0255</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="V13">
-        <v>0.0255</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="W13">
-        <v>0.0255</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -3387,110 +3091,107 @@
       <c r="Z13">
         <v>0</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
       <c r="AB13">
-        <v>48.74916</v>
+        <v>39.331760000000003</v>
       </c>
       <c r="AC13">
-        <v>49.99227</v>
+        <v>41.101689999999998</v>
       </c>
       <c r="AD13">
-        <v>49.99227</v>
+        <v>41.101689999999998</v>
       </c>
       <c r="AE13">
-        <v>272.66333</v>
+        <v>51</v>
       </c>
       <c r="AF13">
-        <v>272.66333</v>
+        <v>51</v>
       </c>
       <c r="AG13">
         <v>1</v>
       </c>
       <c r="AH13">
-        <v>279594.00506</v>
+        <v>-4031.5598100000002</v>
       </c>
       <c r="AI13">
-        <v>264141.18949</v>
+        <v>-4044.1882700000001</v>
       </c>
       <c r="AJ13">
-        <v>231186.9278</v>
+        <v>-4044.1882700000001</v>
       </c>
       <c r="AK13">
-        <v>49240.77218</v>
+        <v>324.51673</v>
       </c>
       <c r="AL13">
-        <v>1356219.74277</v>
+        <v>4356.07654</v>
       </c>
       <c r="AM13">
-        <v>548278.28551</v>
+        <v>0</v>
       </c>
       <c r="AN13">
-        <v>972604.23035</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>157752.55338</v>
+        <v>-22353.49</v>
       </c>
       <c r="AP13">
-        <v>206254.87338</v>
+        <v>-22353.49</v>
       </c>
       <c r="AQ13">
-        <v>185893.45</v>
+        <v>-22353.49</v>
       </c>
       <c r="AR13">
-        <v>-969.83</v>
+        <v>6282.89</v>
       </c>
       <c r="AS13">
-        <v>299389.34662</v>
+        <v>28636.38</v>
       </c>
       <c r="AT13">
-        <v>485905.81</v>
+        <v>0</v>
       </c>
       <c r="AU13">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="AV13">
-        <v>-0.43578</v>
+        <v>-4.5446299999999997</v>
       </c>
       <c r="AW13">
-        <v>-0.21915</v>
+        <v>-4.5273099999999999</v>
       </c>
       <c r="AX13">
-        <v>-0.19592</v>
+        <v>-4.5273099999999999</v>
       </c>
       <c r="AY13">
-        <v>-1.0197</v>
+        <v>18.360759999999999</v>
       </c>
       <c r="AZ13">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BA13">
-        <v>0.051</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="BB13">
-        <v>1025.41842</v>
+        <v>-79.050190000000001</v>
       </c>
       <c r="BC13">
-        <v>968.74481</v>
+        <v>-79.297809999999998</v>
       </c>
       <c r="BD13">
-        <v>847.88418</v>
+        <v>-79.297809999999998</v>
       </c>
       <c r="BE13">
-        <v>180.59184</v>
+        <v>6.3630699999999996</v>
       </c>
       <c r="BF13">
-        <v>578.56167</v>
+        <v>-438.30372999999997</v>
       </c>
       <c r="BG13">
-        <v>756.44521</v>
+        <v>-438.30372999999997</v>
       </c>
       <c r="BH13">
-        <v>681.76915</v>
+        <v>-438.30372999999997</v>
       </c>
       <c r="BI13">
-        <v>-3.55688</v>
+        <v>123.19392000000001</v>
       </c>
       <c r="BJ13">
         <v>0.5</v>
@@ -3499,75 +3200,66 @@
         <v>0.5</v>
       </c>
       <c r="BN13">
-        <v>-0.43578</v>
+        <v>-4.5446299999999997</v>
       </c>
       <c r="BO13">
-        <v>-0.21915</v>
+        <v>-4.5273099999999999</v>
       </c>
       <c r="BP13">
-        <v>-0.19592</v>
+        <v>-4.5273099999999999</v>
       </c>
       <c r="BQ13">
-        <v>-1.0197</v>
+        <v>18.360759999999999</v>
       </c>
       <c r="BR13">
-        <v>-0.31585</v>
+        <v>-4.5359699999999998</v>
       </c>
       <c r="BS13">
-        <v>0.86377</v>
+        <v>13.42327</v>
       </c>
       <c r="BT13">
-        <v>0.55967</v>
+        <v>4.5578399999999997</v>
       </c>
       <c r="BU13">
-        <v>0.35205</v>
-      </c>
-      <c r="BV13" t="s">
+        <v>0.66044999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
         <v>140</v>
       </c>
-      <c r="BW13">
-        <v>-0.21915</v>
-      </c>
-      <c r="BX13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:85">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" t="s">
-        <v>137</v>
-      </c>
       <c r="E14">
-        <v>10796.7181</v>
+        <v>6628.4</v>
       </c>
       <c r="H14">
-        <v>11023.44919</v>
+        <v>6926.6779999999999</v>
       </c>
       <c r="I14">
-        <v>11023.44919</v>
+        <v>6926.6779999999999</v>
       </c>
       <c r="J14">
-        <v>11023.44919</v>
+        <v>6926.6779999999999</v>
       </c>
       <c r="K14">
-        <v>11023.44919</v>
+        <v>6926.6779999999999</v>
       </c>
       <c r="L14">
-        <v>11023.44919</v>
+        <v>6926.6779999999999</v>
       </c>
       <c r="M14">
-        <v>11023.44919</v>
+        <v>6926.6779999999999</v>
       </c>
       <c r="N14">
-        <v>11023.44919</v>
+        <v>6926.6779999999999</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3578,23 +3270,20 @@
       <c r="Q14">
         <v>0</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
       <c r="S14">
-        <v>0.021</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="T14">
-        <v>0.021</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="U14">
-        <v>0.021</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="V14">
-        <v>0.021</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="W14">
-        <v>0.021</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -3605,62 +3294,59 @@
       <c r="Z14">
         <v>0</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
       <c r="AB14">
-        <v>39.95085</v>
+        <v>33.991790000000002</v>
       </c>
       <c r="AC14">
-        <v>40.78982</v>
+        <v>35.521430000000002</v>
       </c>
       <c r="AD14">
-        <v>40.78982</v>
+        <v>35.521430000000002</v>
       </c>
       <c r="AE14">
-        <v>270.25</v>
+        <v>195</v>
       </c>
       <c r="AF14">
-        <v>270.25</v>
+        <v>195</v>
       </c>
       <c r="AG14">
         <v>1</v>
       </c>
       <c r="AH14">
-        <v>14911.20859</v>
+        <v>20.842639999999999</v>
       </c>
       <c r="AI14">
-        <v>11776.67807</v>
+        <v>0.19819999999999999</v>
       </c>
       <c r="AJ14">
-        <v>7520.7119</v>
+        <v>0.19819999999999999</v>
       </c>
       <c r="AK14">
-        <v>24730.58931</v>
+        <v>29567.45911</v>
       </c>
       <c r="AL14">
-        <v>9866.76244</v>
+        <v>29569.31481</v>
       </c>
       <c r="AM14">
-        <v>32.54717</v>
+        <v>0</v>
       </c>
       <c r="AN14">
-        <v>13.24162</v>
+        <v>19.255929999999999</v>
       </c>
       <c r="AO14">
-        <v>43771.7</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>-1249</v>
+        <v>0</v>
       </c>
       <c r="AQ14">
-        <v>44003.9</v>
+        <v>0</v>
       </c>
       <c r="AR14">
-        <v>65109.2</v>
+        <v>32460.9</v>
       </c>
       <c r="AS14">
-        <v>29818.5</v>
+        <v>32460.9</v>
       </c>
       <c r="AT14">
         <v>0</v>
@@ -3669,46 +3355,46 @@
         <v>0</v>
       </c>
       <c r="AV14">
-        <v>1.93549</v>
+        <v>-1</v>
       </c>
       <c r="AW14">
-        <v>-1.10606</v>
+        <v>-1</v>
       </c>
       <c r="AX14">
-        <v>4.85103</v>
+        <v>-1</v>
       </c>
       <c r="AY14">
-        <v>1.63274</v>
+        <v>9.7860000000000003E-2</v>
       </c>
       <c r="AZ14">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BA14">
-        <v>0.042</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="BB14">
-        <v>55.17561</v>
+        <v>0.10689</v>
       </c>
       <c r="BC14">
-        <v>43.57698</v>
+        <v>1.0200000000000001E-3</v>
       </c>
       <c r="BD14">
-        <v>27.82872</v>
+        <v>1.0200000000000001E-3</v>
       </c>
       <c r="BE14">
-        <v>91.51004</v>
+        <v>151.62799999999999</v>
       </c>
       <c r="BF14">
-        <v>161.96744</v>
+        <v>0</v>
       </c>
       <c r="BG14">
-        <v>-4.62165</v>
+        <v>0</v>
       </c>
       <c r="BH14">
-        <v>162.82664</v>
+        <v>0</v>
       </c>
       <c r="BI14">
-        <v>240.92211</v>
+        <v>166.46615</v>
       </c>
       <c r="BJ14">
         <v>0.5</v>
@@ -3717,75 +3403,66 @@
         <v>0.5</v>
       </c>
       <c r="BN14">
-        <v>1.93549</v>
+        <v>-1</v>
       </c>
       <c r="BO14">
-        <v>-1.10606</v>
+        <v>-1</v>
       </c>
       <c r="BP14">
-        <v>4.85103</v>
+        <v>-1</v>
       </c>
       <c r="BQ14">
-        <v>1.63274</v>
+        <v>9.7860000000000003E-2</v>
       </c>
       <c r="BR14">
-        <v>3.39326</v>
+        <v>-1</v>
       </c>
       <c r="BS14">
-        <v>0.39823</v>
+        <v>0.99941000000000002</v>
       </c>
       <c r="BT14">
-        <v>0.45798</v>
+        <v>1</v>
       </c>
       <c r="BU14">
-        <v>-0.15002</v>
-      </c>
-      <c r="BV14" t="s">
+        <v>-5.9000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" t="s">
         <v>140</v>
       </c>
-      <c r="BW14">
-        <v>-1.10606</v>
-      </c>
-      <c r="BX14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:85">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" t="s">
-        <v>137</v>
-      </c>
       <c r="E15">
-        <v>5380.16084</v>
+        <v>1727.24812</v>
       </c>
       <c r="H15">
-        <v>5485.07397</v>
+        <v>1810.1560300000001</v>
       </c>
       <c r="I15">
-        <v>5485.07397</v>
+        <v>1810.1560300000001</v>
       </c>
       <c r="J15">
-        <v>5485.07397</v>
+        <v>1810.1560300000001</v>
       </c>
       <c r="K15">
-        <v>5485.07397</v>
+        <v>1810.1560300000001</v>
       </c>
       <c r="L15">
-        <v>5485.07397</v>
+        <v>1810.1560300000001</v>
       </c>
       <c r="M15">
-        <v>5485.07397</v>
+        <v>1810.1560300000001</v>
       </c>
       <c r="N15">
-        <v>5485.07397</v>
+        <v>1810.1560300000001</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -3796,23 +3473,20 @@
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
       <c r="S15">
-        <v>0.0195</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="T15">
-        <v>0.0195</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="U15">
-        <v>0.0195</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="V15">
-        <v>0.0195</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="W15">
-        <v>0.0195</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -3823,110 +3497,98 @@
       <c r="Z15">
         <v>0</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
       <c r="AB15">
-        <v>35.31757</v>
+        <v>33.867609999999999</v>
       </c>
       <c r="AC15">
-        <v>36.00626</v>
+        <v>35.493259999999999</v>
       </c>
       <c r="AD15">
-        <v>36.00626</v>
+        <v>35.493259999999999</v>
       </c>
       <c r="AE15">
-        <v>152.33667</v>
+        <v>51</v>
       </c>
       <c r="AF15">
-        <v>152.33667</v>
+        <v>51</v>
       </c>
       <c r="AG15">
         <v>1</v>
       </c>
       <c r="AH15">
-        <v>14894.8362</v>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <v>11307.26285</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>12485.85796</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>12626.34182</v>
+        <v>3156.5921699999999</v>
       </c>
       <c r="AL15">
-        <v>14521.25097</v>
+        <v>3952.1831999999999</v>
       </c>
       <c r="AM15">
-        <v>2492.50513</v>
+        <v>0</v>
       </c>
       <c r="AN15">
-        <v>208.44061</v>
+        <v>761.91936999999996</v>
       </c>
       <c r="AO15">
-        <v>2263.55</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>-1265.72</v>
+        <v>0</v>
       </c>
       <c r="AQ15">
-        <v>2234.9</v>
+        <v>0</v>
       </c>
       <c r="AR15">
-        <v>53641.45</v>
+        <v>7129.94</v>
       </c>
       <c r="AS15">
-        <v>54060.9</v>
+        <v>8128.94</v>
       </c>
       <c r="AT15">
-        <v>2310</v>
+        <v>0</v>
       </c>
       <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>-0.84803</v>
-      </c>
-      <c r="AW15">
-        <v>-1.11194</v>
-      </c>
-      <c r="AX15">
-        <v>-0.82101</v>
+        <v>999</v>
       </c>
       <c r="AY15">
-        <v>3.24838</v>
+        <v>1.25875</v>
       </c>
       <c r="AZ15">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BA15">
-        <v>0.039</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="BB15">
-        <v>97.77578</v>
+        <v>0</v>
       </c>
       <c r="BC15">
-        <v>74.22548</v>
+        <v>0</v>
       </c>
       <c r="BD15">
-        <v>81.96226</v>
+        <v>0</v>
       </c>
       <c r="BE15">
-        <v>82.88446</v>
+        <v>61.89396</v>
       </c>
       <c r="BF15">
-        <v>14.85887</v>
+        <v>0</v>
       </c>
       <c r="BG15">
-        <v>-8.3087</v>
+        <v>0</v>
       </c>
       <c r="BH15">
-        <v>14.67079</v>
+        <v>0</v>
       </c>
       <c r="BI15">
-        <v>352.12435</v>
+        <v>139.80275</v>
       </c>
       <c r="BJ15">
         <v>0.5</v>
@@ -3934,76 +3596,61 @@
       <c r="BL15">
         <v>0.5</v>
       </c>
-      <c r="BN15">
-        <v>-0.84803</v>
-      </c>
-      <c r="BO15">
-        <v>-1.11194</v>
-      </c>
-      <c r="BP15">
-        <v>-0.82101</v>
-      </c>
       <c r="BQ15">
-        <v>3.24838</v>
+        <v>1.25875</v>
       </c>
       <c r="BR15">
-        <v>-0.83452</v>
+        <v>0</v>
       </c>
       <c r="BS15">
-        <v>0.94741</v>
+        <v>1.0085900000000001</v>
       </c>
       <c r="BT15">
-        <v>0.96621</v>
+        <v>1</v>
       </c>
       <c r="BU15">
-        <v>-0.01984</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>140</v>
-      </c>
-      <c r="BW15">
-        <v>-1.11194</v>
-      </c>
-      <c r="BX15">
-        <v>-1</v>
+        <v>8.5199999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:85">
+    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E16">
-        <v>3057.5</v>
+        <v>13292.10937</v>
+      </c>
+      <c r="G16">
+        <v>3693.0338000000002</v>
       </c>
       <c r="H16">
-        <v>3120.5133</v>
+        <v>13736.91912</v>
       </c>
       <c r="I16">
-        <v>3120.5133</v>
+        <v>13736.91912</v>
       </c>
       <c r="J16">
-        <v>3120.5133</v>
+        <v>13736.91912</v>
       </c>
       <c r="K16">
-        <v>3120.5133</v>
+        <v>13736.91912</v>
       </c>
       <c r="L16">
-        <v>3120.5133</v>
+        <v>13736.91912</v>
       </c>
       <c r="M16">
-        <v>3120.5133</v>
+        <v>13736.91912</v>
       </c>
       <c r="N16">
-        <v>3120.5133</v>
+        <v>13736.91912</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -4014,23 +3661,20 @@
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
       <c r="S16">
-        <v>0.02061</v>
+        <v>3.3459999999999997E-2</v>
       </c>
       <c r="T16">
-        <v>0.02061</v>
+        <v>3.3459999999999997E-2</v>
       </c>
       <c r="U16">
-        <v>0.02061</v>
+        <v>3.3459999999999997E-2</v>
       </c>
       <c r="V16">
-        <v>0.02061</v>
+        <v>3.3459999999999997E-2</v>
       </c>
       <c r="W16">
-        <v>0.02061</v>
+        <v>3.3459999999999997E-2</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -4041,110 +3685,107 @@
       <c r="Z16">
         <v>0</v>
       </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
       <c r="AB16">
-        <v>31.19898</v>
+        <v>48.749160000000003</v>
       </c>
       <c r="AC16">
-        <v>31.84197</v>
+        <v>50.380510000000001</v>
       </c>
       <c r="AD16">
-        <v>31.84197</v>
+        <v>50.380510000000001</v>
       </c>
       <c r="AE16">
-        <v>98</v>
+        <v>272.66332999999997</v>
       </c>
       <c r="AF16">
-        <v>98</v>
+        <v>272.66332999999997</v>
       </c>
       <c r="AG16">
         <v>1</v>
       </c>
       <c r="AH16">
-        <v>8357.242700000001</v>
+        <v>279594.00506</v>
       </c>
       <c r="AI16">
-        <v>7399.8872</v>
+        <v>264141.18949000002</v>
       </c>
       <c r="AJ16">
-        <v>3950.55944</v>
+        <v>199962.41299000001</v>
       </c>
       <c r="AK16">
-        <v>27061.56093</v>
+        <v>49240.77218</v>
       </c>
       <c r="AL16">
-        <v>21434.01337</v>
+        <v>527912.75598999998</v>
       </c>
       <c r="AM16">
-        <v>1990.00297</v>
+        <v>548278.28550999996</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>144297.24356</v>
       </c>
       <c r="AO16">
-        <v>7496</v>
+        <v>157752.55338</v>
       </c>
       <c r="AP16">
-        <v>6372</v>
+        <v>206254.87338</v>
       </c>
       <c r="AQ16">
-        <v>3788.79</v>
+        <v>185893.45</v>
       </c>
       <c r="AR16">
-        <v>35090</v>
+        <v>-969.83</v>
       </c>
       <c r="AS16">
-        <v>29394</v>
+        <v>299389.34662000003</v>
       </c>
       <c r="AT16">
-        <v>1800</v>
+        <v>485905.81</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="AV16">
-        <v>-0.10305</v>
+        <v>-0.43578</v>
       </c>
       <c r="AW16">
-        <v>-0.13891</v>
+        <v>-0.21915000000000001</v>
       </c>
       <c r="AX16">
-        <v>-0.04095</v>
+        <v>-7.0360000000000006E-2</v>
       </c>
       <c r="AY16">
-        <v>0.29667</v>
+        <v>-1.0197000000000001</v>
       </c>
       <c r="AZ16">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="BA16">
-        <v>0.039</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="BB16">
-        <v>85.27799</v>
+        <v>1025.41842</v>
       </c>
       <c r="BC16">
-        <v>75.50905</v>
+        <v>968.74481000000003</v>
       </c>
       <c r="BD16">
-        <v>40.31183</v>
+        <v>733.36744999999996</v>
       </c>
       <c r="BE16">
-        <v>276.13838</v>
+        <v>180.59183999999999</v>
       </c>
       <c r="BF16">
-        <v>76.4898</v>
+        <v>578.56167000000005</v>
       </c>
       <c r="BG16">
-        <v>65.02041</v>
+        <v>756.44520999999997</v>
       </c>
       <c r="BH16">
-        <v>38.66112</v>
+        <v>681.76914999999997</v>
       </c>
       <c r="BI16">
-        <v>358.06122</v>
+        <v>-3.55688</v>
       </c>
       <c r="BJ16">
         <v>0.5</v>
@@ -4153,62 +3794,77 @@
         <v>0.5</v>
       </c>
       <c r="BN16">
-        <v>-0.10305</v>
+        <v>-0.43578</v>
       </c>
       <c r="BO16">
-        <v>-0.13891</v>
+        <v>-0.21915000000000001</v>
       </c>
       <c r="BP16">
-        <v>-0.04095</v>
+        <v>-7.0360000000000006E-2</v>
       </c>
       <c r="BQ16">
-        <v>0.29667</v>
+        <v>-1.0197000000000001</v>
       </c>
       <c r="BR16">
-        <v>-0.07199999999999999</v>
+        <v>-0.25307000000000002</v>
       </c>
       <c r="BS16">
-        <v>0.7377899999999999</v>
+        <v>0.71165</v>
       </c>
       <c r="BT16">
-        <v>0.7968</v>
+        <v>0.55967</v>
       </c>
       <c r="BU16">
-        <v>-0.07998</v>
+        <v>0.21354999999999999</v>
       </c>
       <c r="BV16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BW16">
-        <v>-0.13891</v>
+        <v>-7.0360000000000006E-2</v>
       </c>
       <c r="BX16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:85">
+    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>136</v>
+      </c>
+      <c r="D17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17">
+        <v>10796.7181</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11347.35073</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>11347.35073</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11347.35073</v>
+      </c>
+      <c r="K17">
+        <v>11347.35073</v>
+      </c>
+      <c r="L17">
+        <v>11347.35073</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11347.35073</v>
       </c>
       <c r="N17">
+        <v>11347.35073</v>
+      </c>
+      <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
@@ -4217,121 +3873,208 @@
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
       <c r="S17">
-        <v>30.60299</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="T17">
-        <v>30.60299</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="U17">
-        <v>0.2</v>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="V17">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="W17">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>39.950850000000003</v>
+      </c>
+      <c r="AC17">
+        <v>41.988349999999997</v>
+      </c>
+      <c r="AD17">
+        <v>41.988349999999997</v>
+      </c>
+      <c r="AE17">
+        <v>270.25</v>
+      </c>
+      <c r="AF17">
+        <v>270.25</v>
       </c>
       <c r="AG17">
         <v>1</v>
       </c>
       <c r="AH17">
-        <v>10586.08854</v>
+        <v>14911.20859</v>
       </c>
       <c r="AI17">
-        <v>-571.37848</v>
+        <v>11776.67807</v>
       </c>
       <c r="AJ17">
-        <v>-20203.73681</v>
+        <v>21129.72941</v>
       </c>
       <c r="AK17">
-        <v>23493.70728</v>
+        <v>24730.589309999999</v>
       </c>
       <c r="AL17">
-        <v>82038.56862999999</v>
+        <v>9866.7624400000004</v>
       </c>
       <c r="AM17">
-        <v>58593.70552</v>
+        <v>32.547170000000001</v>
       </c>
       <c r="AN17">
-        <v>55927.11484</v>
+        <v>13.241619999999999</v>
       </c>
       <c r="AO17">
-        <v>59536.21</v>
+        <v>43771.7</v>
       </c>
       <c r="AP17">
-        <v>57717.49</v>
+        <v>-1249</v>
       </c>
       <c r="AQ17">
-        <v>17536.35</v>
+        <v>44003.9</v>
       </c>
       <c r="AR17">
-        <v>31242.64</v>
+        <v>65109.2</v>
       </c>
       <c r="AS17">
-        <v>107230.33</v>
+        <v>29818.5</v>
       </c>
       <c r="AT17">
-        <v>85092.89999999999</v>
+        <v>0</v>
       </c>
       <c r="AU17">
-        <v>50431</v>
+        <v>0</v>
       </c>
       <c r="AV17">
-        <v>4.624</v>
+        <v>1.9354899999999999</v>
       </c>
       <c r="AW17">
-        <v>102.01446</v>
+        <v>-1.10606</v>
       </c>
       <c r="AX17">
-        <v>1.86798</v>
+        <v>1.08256</v>
       </c>
       <c r="AY17">
-        <v>0.32983</v>
+        <v>1.6327400000000001</v>
+      </c>
+      <c r="AZ17">
+        <v>104</v>
       </c>
       <c r="BA17">
-        <v>0.03</v>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="BB17">
+        <v>55.175609999999999</v>
+      </c>
+      <c r="BC17">
+        <v>43.576979999999999</v>
+      </c>
+      <c r="BD17">
+        <v>78.185860000000005</v>
+      </c>
+      <c r="BE17">
+        <v>91.510040000000004</v>
+      </c>
+      <c r="BF17">
+        <v>161.96744000000001</v>
+      </c>
+      <c r="BG17">
+        <v>-4.6216499999999998</v>
+      </c>
+      <c r="BH17">
+        <v>162.82664</v>
+      </c>
+      <c r="BI17">
+        <v>240.92211</v>
       </c>
       <c r="BJ17">
+        <v>0.5</v>
+      </c>
+      <c r="BL17">
+        <v>0.5</v>
+      </c>
+      <c r="BN17">
+        <v>1.9354899999999999</v>
+      </c>
+      <c r="BO17">
+        <v>-1.10606</v>
+      </c>
+      <c r="BP17">
+        <v>1.08256</v>
+      </c>
+      <c r="BQ17">
+        <v>1.6327400000000001</v>
+      </c>
+      <c r="BR17">
+        <v>1.50902</v>
+      </c>
+      <c r="BS17">
+        <v>0.39822999999999997</v>
+      </c>
+      <c r="BT17">
+        <v>0.45798</v>
+      </c>
+      <c r="BU17">
+        <v>-0.15001999999999999</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>143</v>
+      </c>
+      <c r="BW17">
+        <v>1.08256</v>
+      </c>
+      <c r="BX17">
         <v>1</v>
       </c>
-      <c r="BR17">
-        <v>0</v>
-      </c>
-      <c r="BS17">
-        <v>0.5944199999999999</v>
-      </c>
-      <c r="BT17">
-        <v>0.643</v>
-      </c>
-      <c r="BU17">
-        <v>-0.08172</v>
-      </c>
     </row>
-    <row r="18" spans="1:85">
+    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>136</v>
+      </c>
+      <c r="D18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18">
+        <v>5380.1608399999996</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5485.0739700000004</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>5485.0739700000004</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5485.0739700000004</v>
+      </c>
+      <c r="K18">
+        <v>5485.0739700000004</v>
+      </c>
+      <c r="L18">
+        <v>5485.0739700000004</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5485.0739700000004</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5485.0739700000004</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -4342,139 +4085,208 @@
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
       <c r="S18">
-        <v>-1.38559</v>
+        <v>1.95E-2</v>
       </c>
       <c r="T18">
-        <v>-1.38559</v>
+        <v>1.95E-2</v>
       </c>
       <c r="U18">
-        <v>-1.38559</v>
+        <v>1.95E-2</v>
+      </c>
+      <c r="V18">
+        <v>1.95E-2</v>
+      </c>
+      <c r="W18">
+        <v>1.95E-2</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>35.317570000000003</v>
+      </c>
+      <c r="AC18">
+        <v>36.006259999999997</v>
+      </c>
+      <c r="AD18">
+        <v>36.006259999999997</v>
+      </c>
+      <c r="AE18">
+        <v>152.33667</v>
+      </c>
+      <c r="AF18">
+        <v>152.33667</v>
       </c>
       <c r="AG18">
         <v>1</v>
       </c>
       <c r="AH18">
-        <v>-220080.64826</v>
+        <v>14894.8362</v>
       </c>
       <c r="AI18">
-        <v>-149495.39295</v>
+        <v>11307.262849999999</v>
       </c>
       <c r="AJ18">
-        <v>-37902.12037</v>
+        <v>25378.07028</v>
       </c>
       <c r="AK18">
-        <v>-807629.7982</v>
+        <v>12626.34182</v>
       </c>
       <c r="AL18">
-        <v>-866611.22014</v>
+        <v>14521.250969999999</v>
       </c>
       <c r="AM18">
-        <v>-278567.0299</v>
+        <v>2492.50513</v>
       </c>
       <c r="AN18">
-        <v>-490.0533</v>
+        <v>208.44060999999999</v>
       </c>
       <c r="AO18">
-        <v>48105.92</v>
+        <v>2263.5500000000002</v>
       </c>
       <c r="AP18">
-        <v>-25819.15691</v>
+        <v>-1265.72</v>
       </c>
       <c r="AQ18">
-        <v>53824.33309</v>
+        <v>2234.9</v>
       </c>
       <c r="AR18">
-        <v>-63412</v>
+        <v>53641.45</v>
       </c>
       <c r="AS18">
-        <v>-69155</v>
+        <v>54060.9</v>
       </c>
       <c r="AT18">
-        <v>54031.01</v>
+        <v>2310</v>
       </c>
       <c r="AU18">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AV18">
-        <v>1.21858</v>
+        <v>-0.84802999999999995</v>
       </c>
       <c r="AW18">
-        <v>0.82729</v>
+        <v>-1.1119399999999999</v>
       </c>
       <c r="AX18">
-        <v>2.42009</v>
+        <v>-0.91193999999999997</v>
       </c>
       <c r="AY18">
-        <v>0.92148</v>
+        <v>3.24838</v>
+      </c>
+      <c r="AZ18">
+        <v>103</v>
       </c>
       <c r="BA18">
-        <v>0.03</v>
+        <v>3.9E-2</v>
+      </c>
+      <c r="BB18">
+        <v>97.775779999999997</v>
+      </c>
+      <c r="BC18">
+        <v>74.225480000000005</v>
+      </c>
+      <c r="BD18">
+        <v>166.59200000000001</v>
+      </c>
+      <c r="BE18">
+        <v>82.884460000000004</v>
+      </c>
+      <c r="BF18">
+        <v>14.85887</v>
+      </c>
+      <c r="BG18">
+        <v>-8.3087</v>
+      </c>
+      <c r="BH18">
+        <v>14.67079</v>
+      </c>
+      <c r="BI18">
+        <v>352.12434999999999</v>
       </c>
       <c r="BJ18">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="BL18">
+        <v>0.5</v>
+      </c>
+      <c r="BN18">
+        <v>-0.84802999999999995</v>
+      </c>
+      <c r="BO18">
+        <v>-1.1119399999999999</v>
+      </c>
+      <c r="BP18">
+        <v>-0.91193999999999997</v>
+      </c>
+      <c r="BQ18">
+        <v>3.24838</v>
       </c>
       <c r="BR18">
-        <v>0</v>
+        <v>-0.87997999999999998</v>
       </c>
       <c r="BS18">
-        <v>0.79748</v>
+        <v>0.94740999999999997</v>
       </c>
       <c r="BT18">
-        <v>7.37182</v>
+        <v>0.96621000000000001</v>
       </c>
       <c r="BU18">
-        <v>-8.2439</v>
+        <v>-1.984E-2</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>143</v>
+      </c>
+      <c r="BW18">
+        <v>-0.91193999999999997</v>
+      </c>
+      <c r="BX18">
+        <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:85">
+    <row r="19" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E19">
-        <v>66925.2662</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>15460.55531</v>
+        <v>3057.5</v>
       </c>
       <c r="H19">
-        <v>69206.78384</v>
+        <v>3150.4637499999999</v>
       </c>
       <c r="I19">
-        <v>69206.78384</v>
+        <v>3150.4637499999999</v>
       </c>
       <c r="J19">
-        <v>69206.78384</v>
+        <v>3150.4637499999999</v>
       </c>
       <c r="K19">
-        <v>69206.78384</v>
+        <v>3150.4637499999999</v>
       </c>
       <c r="L19">
-        <v>69206.78384</v>
+        <v>3150.4637499999999</v>
       </c>
       <c r="M19">
-        <v>69206.78384</v>
+        <v>3150.4637499999999</v>
       </c>
       <c r="N19">
-        <v>69206.78384</v>
+        <v>3150.4637499999999</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -4485,20 +4297,20 @@
       <c r="Q19">
         <v>0</v>
       </c>
-      <c r="R19">
-        <v>0</v>
+      <c r="S19">
+        <v>3.041E-2</v>
       </c>
       <c r="T19">
-        <v>0.03409</v>
+        <v>3.041E-2</v>
       </c>
       <c r="U19">
-        <v>0.03409</v>
+        <v>3.041E-2</v>
       </c>
       <c r="V19">
-        <v>0.03409</v>
+        <v>3.041E-2</v>
       </c>
       <c r="W19">
-        <v>0.03409</v>
+        <v>3.041E-2</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -4509,104 +4321,107 @@
       <c r="Z19">
         <v>0</v>
       </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
       <c r="AB19">
-        <v>35.65164</v>
+        <v>31.198979999999999</v>
       </c>
       <c r="AC19">
-        <v>36.86703</v>
+        <v>32.147590000000001</v>
       </c>
       <c r="AD19">
-        <v>36.86703</v>
+        <v>32.147590000000001</v>
       </c>
       <c r="AE19">
-        <v>1877.2</v>
+        <v>98</v>
       </c>
       <c r="AF19">
-        <v>1877.2</v>
+        <v>98</v>
       </c>
       <c r="AG19">
         <v>1</v>
       </c>
       <c r="AH19">
-        <v>133968.93355</v>
+        <v>8357.2427000000007</v>
       </c>
       <c r="AI19">
-        <v>145271.56428</v>
+        <v>7399.8872000000001</v>
       </c>
       <c r="AJ19">
-        <v>145271.56428</v>
+        <v>3950.55944</v>
       </c>
       <c r="AK19">
-        <v>-570590.2929</v>
+        <v>27061.56093</v>
       </c>
       <c r="AL19">
-        <v>713610.88487</v>
+        <v>21434.013370000001</v>
       </c>
       <c r="AM19">
-        <v>351829.97775</v>
+        <v>1990.00297</v>
       </c>
       <c r="AN19">
-        <v>1031455.93628</v>
+        <v>0</v>
       </c>
       <c r="AO19">
-        <v>288818.87338</v>
+        <v>7496</v>
       </c>
       <c r="AP19">
-        <v>203077.23647</v>
+        <v>6372</v>
       </c>
       <c r="AQ19">
-        <v>275977.47309</v>
+        <v>3788.79</v>
       </c>
       <c r="AR19">
-        <v>241763.72</v>
+        <v>35090</v>
       </c>
       <c r="AS19">
-        <v>604029.39662</v>
+        <v>29394</v>
       </c>
       <c r="AT19">
-        <v>629714.72</v>
+        <v>1800</v>
       </c>
       <c r="AU19">
-        <v>101778</v>
+        <v>0</v>
       </c>
       <c r="AV19">
-        <v>1.15586</v>
+        <v>-0.10305</v>
       </c>
       <c r="AW19">
-        <v>0.39791</v>
+        <v>-0.13891000000000001</v>
       </c>
       <c r="AX19">
-        <v>0.89973</v>
+        <v>-4.095E-2</v>
       </c>
       <c r="AY19">
-        <v>1.42371</v>
+        <v>0.29666999999999999</v>
+      </c>
+      <c r="AZ19">
+        <v>103</v>
+      </c>
+      <c r="BA19">
+        <v>3.9E-2</v>
       </c>
       <c r="BB19">
-        <v>71.36636</v>
+        <v>85.277990000000003</v>
       </c>
       <c r="BC19">
-        <v>77.38737</v>
+        <v>75.509050000000002</v>
       </c>
       <c r="BD19">
-        <v>77.38737</v>
+        <v>40.31183</v>
       </c>
       <c r="BE19">
-        <v>-303.95818</v>
+        <v>276.13837999999998</v>
       </c>
       <c r="BF19">
-        <v>153.85621</v>
+        <v>76.489800000000002</v>
       </c>
       <c r="BG19">
-        <v>108.18093</v>
+        <v>65.020409999999998</v>
       </c>
       <c r="BH19">
-        <v>147.01549</v>
+        <v>38.661119999999997</v>
       </c>
       <c r="BI19">
-        <v>128.78954</v>
+        <v>358.06121999999999</v>
       </c>
       <c r="BJ19">
         <v>0.5</v>
@@ -4615,1016 +4430,1450 @@
         <v>0.5</v>
       </c>
       <c r="BN19">
-        <v>1.15586</v>
+        <v>-0.10305</v>
       </c>
       <c r="BO19">
-        <v>0.39791</v>
+        <v>-0.13891000000000001</v>
       </c>
       <c r="BP19">
-        <v>0.89973</v>
+        <v>-4.095E-2</v>
       </c>
       <c r="BQ19">
-        <v>1.42371</v>
+        <v>0.29666999999999999</v>
       </c>
       <c r="BR19">
-        <v>1.0278</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="BS19">
-        <v>0.87808</v>
+        <v>0.73778999999999995</v>
       </c>
       <c r="BT19">
-        <v>0.62063</v>
+        <v>0.79679999999999995</v>
       </c>
       <c r="BU19">
-        <v>0.2932</v>
+        <v>-7.9979999999999996E-2</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>143</v>
+      </c>
+      <c r="BW19">
+        <v>-4.095E-2</v>
+      </c>
+      <c r="BX19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:85">
+    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20">
-        <v>66925.2662</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>15460.55531</v>
+        <v>136</v>
       </c>
       <c r="H20">
-        <v>75967.53223</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>75967.53223</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>91428.08753999999</v>
-      </c>
-      <c r="K20">
-        <v>75967.53223</v>
-      </c>
-      <c r="L20">
-        <v>75967.53223</v>
-      </c>
-      <c r="M20">
-        <v>75967.53223</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>91428.08753999999</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
       <c r="S20">
-        <v>0.19301</v>
+        <v>30.602989999999998</v>
       </c>
       <c r="T20">
-        <v>0.13511</v>
+        <v>30.602989999999998</v>
       </c>
       <c r="U20">
-        <v>0.13511</v>
-      </c>
-      <c r="V20">
-        <v>0.13511</v>
-      </c>
-      <c r="W20">
-        <v>0.36612</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Z20">
         <v>0</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>35.65164</v>
-      </c>
-      <c r="AC20">
-        <v>40.46853</v>
-      </c>
-      <c r="AD20">
-        <v>48.7045</v>
-      </c>
-      <c r="AE20">
-        <v>1877.2</v>
-      </c>
-      <c r="AF20">
-        <v>1877.2</v>
-      </c>
       <c r="AH20">
-        <v>133968.93355</v>
+        <v>10586.088540000001</v>
       </c>
       <c r="AI20">
-        <v>145271.56428</v>
+        <v>-571.37847999999997</v>
       </c>
       <c r="AJ20">
-        <v>193067.25451</v>
+        <v>13742.23782</v>
       </c>
       <c r="AK20">
-        <v>-570590.2929</v>
+        <v>23493.707279999999</v>
       </c>
       <c r="AL20">
-        <v>713610.88487</v>
+        <v>82038.568629999994</v>
       </c>
       <c r="AM20">
-        <v>351829.97775</v>
+        <v>58593.705520000003</v>
       </c>
       <c r="AN20">
-        <v>1031455.93628</v>
+        <v>55927.114840000002</v>
       </c>
       <c r="AO20">
-        <v>288818.87338</v>
+        <v>59536.21</v>
       </c>
       <c r="AP20">
-        <v>203077.23647</v>
+        <v>57717.49</v>
       </c>
       <c r="AQ20">
-        <v>275977.47309</v>
+        <v>17536.349999999999</v>
       </c>
       <c r="AR20">
-        <v>241763.72</v>
+        <v>31242.639999999999</v>
       </c>
       <c r="AS20">
-        <v>604029.39662</v>
+        <v>107230.33</v>
       </c>
       <c r="AT20">
-        <v>629714.72</v>
+        <v>85092.9</v>
       </c>
       <c r="AU20">
-        <v>101778</v>
+        <v>50431</v>
       </c>
       <c r="AV20">
-        <v>1.15586</v>
+        <v>4.6239999999999997</v>
       </c>
       <c r="AW20">
-        <v>0.39791</v>
+        <v>102.01446</v>
       </c>
       <c r="AX20">
-        <v>0.42944</v>
+        <v>0.27609</v>
       </c>
       <c r="AY20">
-        <v>1.42371</v>
+        <v>0.32983000000000001</v>
       </c>
       <c r="BA20">
         <v>0.03</v>
       </c>
-      <c r="BB20">
+      <c r="BJ20">
+        <v>1</v>
+      </c>
+      <c r="BR20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
+        <v>0.59441999999999995</v>
+      </c>
+      <c r="BT20">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="BU20">
+        <v>-8.1720000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>-1.3855900000000001</v>
+      </c>
+      <c r="T21">
+        <v>-1.3855900000000001</v>
+      </c>
+      <c r="U21">
+        <v>-1.3855900000000001</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>-220080.64825999999</v>
+      </c>
+      <c r="AI21">
+        <v>-149495.39295000001</v>
+      </c>
+      <c r="AJ21">
+        <v>-28576.287700000001</v>
+      </c>
+      <c r="AK21">
+        <v>-807629.79819999996</v>
+      </c>
+      <c r="AL21">
+        <v>-866611.22013999999</v>
+      </c>
+      <c r="AM21">
+        <v>-278567.02990000002</v>
+      </c>
+      <c r="AN21">
+        <v>-490.05329999999998</v>
+      </c>
+      <c r="AO21">
+        <v>48105.919999999998</v>
+      </c>
+      <c r="AP21">
+        <v>-25819.156910000002</v>
+      </c>
+      <c r="AQ21">
+        <v>53824.33309</v>
+      </c>
+      <c r="AR21">
+        <v>-63412</v>
+      </c>
+      <c r="AS21">
+        <v>-69155</v>
+      </c>
+      <c r="AT21">
+        <v>54031.01</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>1.21858</v>
+      </c>
+      <c r="AW21">
+        <v>0.82728999999999997</v>
+      </c>
+      <c r="AX21">
+        <v>2.8835299999999999</v>
+      </c>
+      <c r="AY21">
+        <v>0.92147999999999997</v>
+      </c>
+      <c r="BA21">
+        <v>0.03</v>
+      </c>
+      <c r="BJ21">
+        <v>1</v>
+      </c>
+      <c r="BR21">
+        <v>0</v>
+      </c>
+      <c r="BS21">
+        <v>0.79747999999999997</v>
+      </c>
+      <c r="BT21">
+        <v>7.3718199999999996</v>
+      </c>
+      <c r="BU21">
+        <v>-8.2439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22">
+        <v>66925.266199999998</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>13478.16109</v>
+      </c>
+      <c r="H22">
+        <v>69666.496799999994</v>
+      </c>
+      <c r="I22">
+        <v>94979.195160000003</v>
+      </c>
+      <c r="J22">
+        <v>94979.195160000003</v>
+      </c>
+      <c r="K22">
+        <v>69666.496799999994</v>
+      </c>
+      <c r="L22">
+        <v>69666.496799999994</v>
+      </c>
+      <c r="M22">
+        <v>69666.496799999994</v>
+      </c>
+      <c r="N22">
+        <v>69666.496799999994</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>25312.698359999999</v>
+      </c>
+      <c r="T22">
+        <v>4.0960000000000003E-2</v>
+      </c>
+      <c r="U22">
+        <v>4.0960000000000003E-2</v>
+      </c>
+      <c r="V22">
+        <v>4.0960000000000003E-2</v>
+      </c>
+      <c r="W22">
+        <v>4.0960000000000003E-2</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0.37822</v>
+      </c>
+      <c r="AB22">
+        <v>35.65164</v>
+      </c>
+      <c r="AC22">
+        <v>37.111919999999998</v>
+      </c>
+      <c r="AD22">
+        <v>37.111919999999998</v>
+      </c>
+      <c r="AE22">
+        <v>1877.2</v>
+      </c>
+      <c r="AF22">
+        <v>1877.2</v>
+      </c>
+      <c r="AG22">
+        <v>1.36334</v>
+      </c>
+      <c r="AH22">
+        <v>133968.93354999999</v>
+      </c>
+      <c r="AI22">
+        <v>145271.56427999999</v>
+      </c>
+      <c r="AJ22">
+        <v>145271.56427999999</v>
+      </c>
+      <c r="AK22">
+        <v>-570590.2929</v>
+      </c>
+      <c r="AL22">
+        <v>-114696.10192</v>
+      </c>
+      <c r="AM22">
+        <v>351829.97775000002</v>
+      </c>
+      <c r="AN22">
+        <v>203148.94949</v>
+      </c>
+      <c r="AO22">
+        <v>288818.87338</v>
+      </c>
+      <c r="AP22">
+        <v>203077.23647</v>
+      </c>
+      <c r="AQ22">
+        <v>275977.47308999998</v>
+      </c>
+      <c r="AR22">
+        <v>241763.72</v>
+      </c>
+      <c r="AS22">
+        <v>604029.39662000001</v>
+      </c>
+      <c r="AT22">
+        <v>629714.72</v>
+      </c>
+      <c r="AU22">
+        <v>101778</v>
+      </c>
+      <c r="AV22">
+        <v>1.1558600000000001</v>
+      </c>
+      <c r="AW22">
+        <v>0.39790999999999999</v>
+      </c>
+      <c r="AX22">
+        <v>0.89973000000000003</v>
+      </c>
+      <c r="AY22">
+        <v>1.42371</v>
+      </c>
+      <c r="BB22">
         <v>71.36636</v>
       </c>
-      <c r="BC20">
-        <v>77.38737</v>
-      </c>
-      <c r="BD20">
-        <v>102.84853</v>
-      </c>
-      <c r="BE20">
-        <v>-303.95818</v>
-      </c>
-      <c r="BF20">
+      <c r="BC22">
+        <v>77.387370000000004</v>
+      </c>
+      <c r="BD22">
+        <v>77.387370000000004</v>
+      </c>
+      <c r="BE22">
+        <v>-303.95818000000003</v>
+      </c>
+      <c r="BF22">
         <v>153.85621</v>
       </c>
-      <c r="BG20">
+      <c r="BG22">
         <v>108.18093</v>
       </c>
-      <c r="BH20">
+      <c r="BH22">
         <v>147.01549</v>
       </c>
-      <c r="BI20">
-        <v>128.78954</v>
-      </c>
-      <c r="BJ20">
+      <c r="BI22">
+        <v>128.78953999999999</v>
+      </c>
+      <c r="BJ22">
         <v>0.5</v>
       </c>
-      <c r="BL20">
+      <c r="BL22">
         <v>0.5</v>
       </c>
-      <c r="BN20">
-        <v>1.15586</v>
-      </c>
-      <c r="BO20">
-        <v>0.39791</v>
-      </c>
-      <c r="BP20">
-        <v>0.42944</v>
-      </c>
-      <c r="BQ20">
+      <c r="BN22">
+        <v>1.1558600000000001</v>
+      </c>
+      <c r="BO22">
+        <v>0.39790999999999999</v>
+      </c>
+      <c r="BP22">
+        <v>0.89973000000000003</v>
+      </c>
+      <c r="BQ22">
         <v>1.42371</v>
       </c>
-      <c r="BR20">
-        <v>0.79265</v>
-      </c>
-      <c r="BS20">
-        <v>0.87808</v>
-      </c>
-      <c r="BT20">
-        <v>0.62063</v>
-      </c>
-      <c r="BU20">
-        <v>0.2932</v>
+      <c r="BR22">
+        <v>1.0278</v>
+      </c>
+      <c r="BS22">
+        <v>7.3469600000000002</v>
+      </c>
+      <c r="BT22">
+        <v>0.62063000000000001</v>
+      </c>
+      <c r="BU22">
+        <v>0.91552999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:85">
-      <c r="A21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21">
-        <v>27607.5</v>
-      </c>
-      <c r="H21">
-        <v>27932.23549</v>
-      </c>
-      <c r="I21">
-        <v>27932.23549</v>
-      </c>
-      <c r="J21">
-        <v>27932.23549</v>
-      </c>
-      <c r="K21">
-        <v>27932.23549</v>
-      </c>
-      <c r="L21">
-        <v>27932.23549</v>
-      </c>
-      <c r="M21">
-        <v>27932.23549</v>
-      </c>
-      <c r="N21">
-        <v>27932.23549</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0.0168</v>
-      </c>
-      <c r="T21">
-        <v>0.01176</v>
-      </c>
-      <c r="U21">
-        <v>0.01176</v>
-      </c>
-      <c r="V21">
-        <v>0.01176</v>
-      </c>
-      <c r="W21">
-        <v>0.01176</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>12.55457</v>
-      </c>
-      <c r="AC21">
-        <v>12.70224</v>
-      </c>
-      <c r="AD21">
-        <v>12.70224</v>
-      </c>
-      <c r="AE21">
-        <v>2199</v>
-      </c>
-      <c r="AF21">
-        <v>2199</v>
-      </c>
-      <c r="AG21">
-        <v>1</v>
-      </c>
-      <c r="AH21">
-        <v>16226.29492</v>
-      </c>
-      <c r="AI21">
-        <v>13687.54885</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>132680.0634</v>
-      </c>
-      <c r="AL21">
-        <v>116948.37727</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>489.62179</v>
-      </c>
-      <c r="AO21">
-        <v>8531</v>
-      </c>
-      <c r="AP21">
-        <v>7196</v>
-      </c>
-      <c r="AQ21">
-        <v>3669.96</v>
-      </c>
-      <c r="AR21">
-        <v>126396</v>
-      </c>
-      <c r="AS21">
-        <v>118073</v>
-      </c>
-      <c r="AT21">
-        <v>159</v>
-      </c>
-      <c r="AU21">
-        <v>49</v>
-      </c>
-      <c r="AV21">
-        <v>-0.47425</v>
-      </c>
-      <c r="AW21">
-        <v>-0.47427</v>
-      </c>
-      <c r="AX21" t="s">
+    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" t="s">
         <v>139</v>
       </c>
-      <c r="AY21">
-        <v>-0.04736</v>
-      </c>
-      <c r="AZ21">
-        <v>104</v>
-      </c>
-      <c r="BA21">
-        <v>0.042</v>
-      </c>
-      <c r="BB21">
-        <v>7.37894</v>
-      </c>
-      <c r="BC21">
-        <v>6.22444</v>
-      </c>
-      <c r="BD21">
-        <v>0</v>
-      </c>
-      <c r="BE21">
-        <v>60.33655</v>
-      </c>
-      <c r="BF21">
-        <v>3.87949</v>
-      </c>
-      <c r="BG21">
-        <v>3.2724</v>
-      </c>
-      <c r="BH21">
-        <v>1.66892</v>
-      </c>
-      <c r="BI21">
-        <v>57.47885</v>
-      </c>
-      <c r="BJ21">
-        <v>0.5</v>
-      </c>
-      <c r="BM21">
-        <v>0.5</v>
-      </c>
-      <c r="BN21">
-        <v>-0.47425</v>
-      </c>
-      <c r="BO21">
-        <v>-0.47427</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>139</v>
-      </c>
-      <c r="BQ21">
-        <v>-0.04736</v>
-      </c>
-      <c r="BR21">
-        <v>-0.26081</v>
-      </c>
-      <c r="BS21">
-        <v>0.88143</v>
-      </c>
-      <c r="BT21">
-        <v>0.93415</v>
-      </c>
-      <c r="BU21">
-        <v>-0.05981</v>
-      </c>
-      <c r="BY21">
-        <v>100</v>
-      </c>
-      <c r="BZ21">
-        <v>100</v>
-      </c>
-      <c r="CA21">
-        <v>37.95</v>
-      </c>
-      <c r="CB21">
-        <v>103</v>
-      </c>
-      <c r="CC21">
-        <v>103</v>
-      </c>
-      <c r="CD21">
-        <v>40</v>
-      </c>
-      <c r="CE21">
+      <c r="E23">
+        <v>66925.266199999998</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>13478.16109</v>
+      </c>
+      <c r="H23">
+        <v>81501.034069999994</v>
+      </c>
+      <c r="I23">
+        <v>81501.034069999994</v>
+      </c>
+      <c r="J23">
+        <v>94979.195160000003</v>
+      </c>
+      <c r="K23">
+        <v>81798.449640000006</v>
+      </c>
+      <c r="L23">
+        <v>80310.319440000007</v>
+      </c>
+      <c r="M23">
+        <v>80310.319440000007</v>
+      </c>
+      <c r="N23">
+        <v>93788.480540000004</v>
+      </c>
+      <c r="O23">
+        <v>1190.7146299999999</v>
+      </c>
+      <c r="P23">
+        <v>1190.7146299999999</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.31747999999999998</v>
+      </c>
+      <c r="T23">
+        <v>0.22223999999999999</v>
+      </c>
+      <c r="U23">
+        <v>0.2</v>
+      </c>
+      <c r="V23">
+        <v>0.2</v>
+      </c>
+      <c r="W23">
+        <v>0.40139000000000002</v>
+      </c>
+      <c r="X23">
+        <v>1.779E-2</v>
+      </c>
+      <c r="Y23">
+        <v>1.779E-2</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>35.65164</v>
+      </c>
+      <c r="AC23">
+        <v>42.781970000000001</v>
+      </c>
+      <c r="AD23">
+        <v>49.9619</v>
+      </c>
+      <c r="AE23">
+        <v>1877.2</v>
+      </c>
+      <c r="AF23">
+        <v>1877.2</v>
+      </c>
+      <c r="AH23">
+        <v>133968.93354999999</v>
+      </c>
+      <c r="AI23">
+        <v>145271.56427999999</v>
+      </c>
+      <c r="AJ23">
+        <v>227781.09320999999</v>
+      </c>
+      <c r="AK23">
+        <v>-570590.2929</v>
+      </c>
+      <c r="AL23">
+        <v>-114696.10192</v>
+      </c>
+      <c r="AM23">
+        <v>351829.97775000002</v>
+      </c>
+      <c r="AN23">
+        <v>203148.94949</v>
+      </c>
+      <c r="AO23">
+        <v>288818.87338</v>
+      </c>
+      <c r="AP23">
+        <v>203077.23647</v>
+      </c>
+      <c r="AQ23">
+        <v>275977.47308999998</v>
+      </c>
+      <c r="AR23">
+        <v>241763.72</v>
+      </c>
+      <c r="AS23">
+        <v>604029.39662000001</v>
+      </c>
+      <c r="AT23">
+        <v>629714.72</v>
+      </c>
+      <c r="AU23">
+        <v>101778</v>
+      </c>
+      <c r="AV23">
+        <v>1.1558600000000001</v>
+      </c>
+      <c r="AW23">
+        <v>0.39790999999999999</v>
+      </c>
+      <c r="AX23">
+        <v>0.21159</v>
+      </c>
+      <c r="AY23">
+        <v>1.42371</v>
+      </c>
+      <c r="BA23">
         <v>0.03</v>
       </c>
-      <c r="CF21">
-        <v>-0.03</v>
-      </c>
-      <c r="CG21">
-        <v>0.05402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:85">
-      <c r="A22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>1</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>-1888</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>-960.96</v>
-      </c>
-      <c r="AR22">
-        <v>-27908</v>
-      </c>
-      <c r="AS22">
-        <v>-26020</v>
-      </c>
-      <c r="AT22">
-        <v>0</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>138</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>138</v>
-      </c>
-      <c r="BJ22">
-        <v>1</v>
-      </c>
-      <c r="BR22">
-        <v>0</v>
-      </c>
-      <c r="BT22">
-        <v>0.93235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:85">
-      <c r="A23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23">
-        <v>27607.5</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>27932.23549</v>
-      </c>
-      <c r="I23">
-        <v>27932.23549</v>
-      </c>
-      <c r="J23">
-        <v>27932.23549</v>
-      </c>
-      <c r="K23">
-        <v>27932.23549</v>
-      </c>
-      <c r="L23">
-        <v>27932.23549</v>
-      </c>
-      <c r="M23">
-        <v>27932.23549</v>
-      </c>
-      <c r="N23">
-        <v>27932.23549</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0.01176</v>
-      </c>
-      <c r="U23">
-        <v>0.01176</v>
-      </c>
-      <c r="V23">
-        <v>0.01176</v>
-      </c>
-      <c r="W23">
-        <v>0.01176</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>12.55457</v>
-      </c>
-      <c r="AC23">
-        <v>12.70224</v>
-      </c>
-      <c r="AD23">
-        <v>12.70224</v>
-      </c>
-      <c r="AE23">
-        <v>2199</v>
-      </c>
-      <c r="AF23">
-        <v>2199</v>
-      </c>
-      <c r="AG23">
-        <v>1</v>
-      </c>
-      <c r="AH23">
-        <v>16226.29492</v>
-      </c>
-      <c r="AI23">
-        <v>13687.54885</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>132680.0634</v>
-      </c>
-      <c r="AL23">
-        <v>116948.37727</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>489.62179</v>
-      </c>
-      <c r="AO23">
-        <v>6643</v>
-      </c>
-      <c r="AP23">
-        <v>7196</v>
-      </c>
-      <c r="AQ23">
-        <v>2709</v>
-      </c>
-      <c r="AR23">
-        <v>98488</v>
-      </c>
-      <c r="AS23">
-        <v>92053</v>
-      </c>
-      <c r="AT23">
-        <v>159</v>
-      </c>
-      <c r="AU23">
-        <v>49</v>
-      </c>
-      <c r="AV23">
-        <v>-0.5906</v>
-      </c>
-      <c r="AW23">
-        <v>-0.47427</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY23">
-        <v>-0.2577</v>
-      </c>
       <c r="BB23">
-        <v>7.37894</v>
+        <v>71.36636</v>
       </c>
       <c r="BC23">
-        <v>6.22444</v>
+        <v>77.387370000000004</v>
       </c>
       <c r="BD23">
-        <v>0</v>
+        <v>121.34088</v>
       </c>
       <c r="BE23">
-        <v>60.33655</v>
+        <v>-303.95818000000003</v>
       </c>
       <c r="BF23">
-        <v>3.02092</v>
+        <v>153.85621</v>
       </c>
       <c r="BG23">
-        <v>3.2724</v>
+        <v>108.18093</v>
       </c>
       <c r="BH23">
-        <v>1.23192</v>
+        <v>147.01549</v>
       </c>
       <c r="BI23">
-        <v>44.78763</v>
+        <v>128.78953999999999</v>
       </c>
       <c r="BJ23">
         <v>0.5</v>
       </c>
-      <c r="BM23">
+      <c r="BL23">
         <v>0.5</v>
       </c>
       <c r="BN23">
-        <v>-0.5906</v>
+        <v>1.1558600000000001</v>
       </c>
       <c r="BO23">
-        <v>-0.47427</v>
-      </c>
-      <c r="BP23" t="s">
+        <v>0.39790999999999999</v>
+      </c>
+      <c r="BP23">
+        <v>0.21159</v>
+      </c>
+      <c r="BQ23">
+        <v>1.42371</v>
+      </c>
+      <c r="BR23">
+        <v>0.68372999999999995</v>
+      </c>
+      <c r="BS23">
+        <v>7.3469600000000002</v>
+      </c>
+      <c r="BT23">
+        <v>0.62063000000000001</v>
+      </c>
+      <c r="BU23">
+        <v>0.91552999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25">
+        <v>27607.5</v>
+      </c>
+      <c r="H25">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="I25">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="J25">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="K25">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="L25">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="M25">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="N25">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="T25">
+        <v>1.176E-2</v>
+      </c>
+      <c r="U25">
+        <v>1.176E-2</v>
+      </c>
+      <c r="V25">
+        <v>1.176E-2</v>
+      </c>
+      <c r="W25">
+        <v>1.176E-2</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>12.55457</v>
+      </c>
+      <c r="AC25">
+        <v>12.70224</v>
+      </c>
+      <c r="AD25">
+        <v>12.70224</v>
+      </c>
+      <c r="AE25">
+        <v>2199</v>
+      </c>
+      <c r="AF25">
+        <v>2199</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>16226.29492</v>
+      </c>
+      <c r="AI25">
+        <v>13687.548849999999</v>
+      </c>
+      <c r="AJ25">
+        <v>13687.548849999999</v>
+      </c>
+      <c r="AK25">
+        <v>132680.06340000001</v>
+      </c>
+      <c r="AL25">
+        <v>116948.37727</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>489.62178999999998</v>
+      </c>
+      <c r="AO25">
+        <v>8531</v>
+      </c>
+      <c r="AP25">
+        <v>7196</v>
+      </c>
+      <c r="AQ25">
+        <v>3669.96</v>
+      </c>
+      <c r="AR25">
+        <v>126396</v>
+      </c>
+      <c r="AS25">
+        <v>118073</v>
+      </c>
+      <c r="AT25">
+        <v>159</v>
+      </c>
+      <c r="AU25">
+        <v>49</v>
+      </c>
+      <c r="AV25">
+        <v>-0.47425</v>
+      </c>
+      <c r="AW25">
+        <v>-0.47427000000000002</v>
+      </c>
+      <c r="AX25">
+        <v>-0.73187999999999998</v>
+      </c>
+      <c r="AY25">
+        <v>-4.7359999999999999E-2</v>
+      </c>
+      <c r="AZ25">
+        <v>104</v>
+      </c>
+      <c r="BA25">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="BB25">
+        <v>7.3789400000000001</v>
+      </c>
+      <c r="BC25">
+        <v>6.2244400000000004</v>
+      </c>
+      <c r="BD25">
+        <v>6.2244400000000004</v>
+      </c>
+      <c r="BE25">
+        <v>60.336550000000003</v>
+      </c>
+      <c r="BF25">
+        <v>3.8794900000000001</v>
+      </c>
+      <c r="BG25">
+        <v>3.2724000000000002</v>
+      </c>
+      <c r="BH25">
+        <v>1.66892</v>
+      </c>
+      <c r="BI25">
+        <v>57.478850000000001</v>
+      </c>
+      <c r="BJ25">
+        <v>0.5</v>
+      </c>
+      <c r="BM25">
+        <v>0.5</v>
+      </c>
+      <c r="BN25">
+        <v>-0.47425</v>
+      </c>
+      <c r="BO25">
+        <v>-0.47427000000000002</v>
+      </c>
+      <c r="BP25">
+        <v>-0.73187999999999998</v>
+      </c>
+      <c r="BQ25">
+        <v>-4.7359999999999999E-2</v>
+      </c>
+      <c r="BR25">
+        <v>-0.26080999999999999</v>
+      </c>
+      <c r="BS25">
+        <v>0.88143000000000005</v>
+      </c>
+      <c r="BT25">
+        <v>0.93415000000000004</v>
+      </c>
+      <c r="BU25">
+        <v>-5.9810000000000002E-2</v>
+      </c>
+      <c r="BY25">
+        <v>100</v>
+      </c>
+      <c r="BZ25">
+        <v>100</v>
+      </c>
+      <c r="CA25">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="CB25">
+        <v>103</v>
+      </c>
+      <c r="CC25">
+        <v>103</v>
+      </c>
+      <c r="CD25">
+        <v>40</v>
+      </c>
+      <c r="CE25">
+        <v>0.03</v>
+      </c>
+      <c r="CF25">
+        <v>-0.03</v>
+      </c>
+      <c r="CG25">
+        <v>5.4019999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>-7051.4701800000003</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>-1888</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>-960.96</v>
+      </c>
+      <c r="AR26">
+        <v>-27908</v>
+      </c>
+      <c r="AS26">
+        <v>-26020</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX26">
+        <v>0.86372000000000004</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ26">
+        <v>1</v>
+      </c>
+      <c r="BR26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>0.93235000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27">
+        <v>27607.5</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="I27">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="J27">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="K27">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="L27">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="M27">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="N27">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>1.176E-2</v>
+      </c>
+      <c r="U27">
+        <v>1.176E-2</v>
+      </c>
+      <c r="V27">
+        <v>1.176E-2</v>
+      </c>
+      <c r="W27">
+        <v>1.176E-2</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>12.55457</v>
+      </c>
+      <c r="AC27">
+        <v>12.70224</v>
+      </c>
+      <c r="AD27">
+        <v>12.70224</v>
+      </c>
+      <c r="AE27">
+        <v>2199</v>
+      </c>
+      <c r="AF27">
+        <v>2199</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27">
+        <v>16226.29492</v>
+      </c>
+      <c r="AI27">
+        <v>13687.548849999999</v>
+      </c>
+      <c r="AJ27">
+        <v>6636.0786699999999</v>
+      </c>
+      <c r="AK27">
+        <v>132680.06340000001</v>
+      </c>
+      <c r="AL27">
+        <v>116948.37727</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>489.62178999999998</v>
+      </c>
+      <c r="AO27">
+        <v>6643</v>
+      </c>
+      <c r="AP27">
+        <v>7196</v>
+      </c>
+      <c r="AQ27">
+        <v>2709</v>
+      </c>
+      <c r="AR27">
+        <v>98488</v>
+      </c>
+      <c r="AS27">
+        <v>92053</v>
+      </c>
+      <c r="AT27">
+        <v>159</v>
+      </c>
+      <c r="AU27">
+        <v>49</v>
+      </c>
+      <c r="AV27">
+        <v>-0.59060000000000001</v>
+      </c>
+      <c r="AW27">
+        <v>-0.47427000000000002</v>
+      </c>
+      <c r="AX27">
+        <v>-0.59177999999999997</v>
+      </c>
+      <c r="AY27">
+        <v>-0.25769999999999998</v>
+      </c>
+      <c r="BB27">
+        <v>7.3789400000000001</v>
+      </c>
+      <c r="BC27">
+        <v>6.2244400000000004</v>
+      </c>
+      <c r="BD27">
+        <v>3.0177700000000001</v>
+      </c>
+      <c r="BE27">
+        <v>60.336550000000003</v>
+      </c>
+      <c r="BF27">
+        <v>3.0209199999999998</v>
+      </c>
+      <c r="BG27">
+        <v>3.2724000000000002</v>
+      </c>
+      <c r="BH27">
+        <v>1.2319199999999999</v>
+      </c>
+      <c r="BI27">
+        <v>44.78763</v>
+      </c>
+      <c r="BJ27">
+        <v>0.5</v>
+      </c>
+      <c r="BM27">
+        <v>0.5</v>
+      </c>
+      <c r="BN27">
+        <v>-0.59060000000000001</v>
+      </c>
+      <c r="BO27">
+        <v>-0.47427000000000002</v>
+      </c>
+      <c r="BP27">
+        <v>-0.59177999999999997</v>
+      </c>
+      <c r="BQ27">
+        <v>-0.25769999999999998</v>
+      </c>
+      <c r="BR27">
+        <v>-0.42415000000000003</v>
+      </c>
+      <c r="BS27">
+        <v>0.88143000000000005</v>
+      </c>
+      <c r="BT27">
+        <v>0.93466000000000005</v>
+      </c>
+      <c r="BU27">
+        <v>-6.0389999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" t="s">
         <v>139</v>
       </c>
-      <c r="BQ23">
-        <v>-0.2577</v>
-      </c>
-      <c r="BR23">
-        <v>-0.42415</v>
-      </c>
-      <c r="BS23">
-        <v>0.88143</v>
-      </c>
-      <c r="BT23">
-        <v>0.93466</v>
-      </c>
-      <c r="BU23">
-        <v>-0.06039</v>
-      </c>
-    </row>
-    <row r="24" spans="1:85">
-      <c r="A24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24">
+      <c r="E28">
         <v>27607.5</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>27932.23549</v>
-      </c>
-      <c r="I24">
-        <v>27932.23549</v>
-      </c>
-      <c r="J24">
-        <v>27932.23549</v>
-      </c>
-      <c r="K24">
-        <v>27932.23549</v>
-      </c>
-      <c r="L24">
-        <v>27932.23549</v>
-      </c>
-      <c r="M24">
-        <v>27932.23549</v>
-      </c>
-      <c r="N24">
-        <v>27932.23549</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0.0168</v>
-      </c>
-      <c r="T24">
-        <v>0.01176</v>
-      </c>
-      <c r="U24">
-        <v>0.01176</v>
-      </c>
-      <c r="V24">
-        <v>0.01176</v>
-      </c>
-      <c r="W24">
-        <v>0.01176</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="I28">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="J28">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="K28">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="L28">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="M28">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="N28">
+        <v>27932.235489999999</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="T28">
+        <v>1.176E-2</v>
+      </c>
+      <c r="U28">
+        <v>1.176E-2</v>
+      </c>
+      <c r="V28">
+        <v>1.176E-2</v>
+      </c>
+      <c r="W28">
+        <v>1.176E-2</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
         <v>12.55457</v>
       </c>
-      <c r="AC24">
+      <c r="AC28">
         <v>12.70224</v>
       </c>
-      <c r="AD24">
+      <c r="AD28">
         <v>12.70224</v>
       </c>
-      <c r="AE24">
+      <c r="AE28">
         <v>2199</v>
       </c>
-      <c r="AF24">
+      <c r="AF28">
         <v>2199</v>
       </c>
-      <c r="AH24">
+      <c r="AH28">
         <v>16226.29492</v>
       </c>
-      <c r="AI24">
-        <v>13687.54885</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>132680.0634</v>
-      </c>
-      <c r="AL24">
+      <c r="AI28">
+        <v>13687.548849999999</v>
+      </c>
+      <c r="AJ28">
+        <v>6636.0786699999999</v>
+      </c>
+      <c r="AK28">
+        <v>132680.06340000001</v>
+      </c>
+      <c r="AL28">
         <v>116948.37727</v>
       </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>489.62179</v>
-      </c>
-      <c r="AO24">
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>489.62178999999998</v>
+      </c>
+      <c r="AO28">
         <v>6643</v>
       </c>
-      <c r="AP24">
+      <c r="AP28">
         <v>7196</v>
       </c>
-      <c r="AQ24">
+      <c r="AQ28">
         <v>2709</v>
       </c>
-      <c r="AR24">
+      <c r="AR28">
         <v>98488</v>
       </c>
-      <c r="AS24">
+      <c r="AS28">
         <v>92053</v>
       </c>
-      <c r="AT24">
+      <c r="AT28">
         <v>159</v>
       </c>
-      <c r="AU24">
+      <c r="AU28">
         <v>49</v>
       </c>
-      <c r="AV24">
-        <v>-0.5906</v>
-      </c>
-      <c r="AW24">
-        <v>-0.47427</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY24">
-        <v>-0.2577</v>
-      </c>
-      <c r="BB24">
-        <v>7.37894</v>
-      </c>
-      <c r="BC24">
-        <v>6.22444</v>
-      </c>
-      <c r="BD24">
-        <v>0</v>
-      </c>
-      <c r="BE24">
-        <v>60.33655</v>
-      </c>
-      <c r="BF24">
-        <v>3.02092</v>
-      </c>
-      <c r="BG24">
-        <v>3.2724</v>
-      </c>
-      <c r="BH24">
-        <v>1.23192</v>
-      </c>
-      <c r="BI24">
+      <c r="AV28">
+        <v>-0.59060000000000001</v>
+      </c>
+      <c r="AW28">
+        <v>-0.47427000000000002</v>
+      </c>
+      <c r="AX28">
+        <v>-0.59177999999999997</v>
+      </c>
+      <c r="AY28">
+        <v>-0.25769999999999998</v>
+      </c>
+      <c r="BB28">
+        <v>7.3789400000000001</v>
+      </c>
+      <c r="BC28">
+        <v>6.2244400000000004</v>
+      </c>
+      <c r="BD28">
+        <v>3.0177700000000001</v>
+      </c>
+      <c r="BE28">
+        <v>60.336550000000003</v>
+      </c>
+      <c r="BF28">
+        <v>3.0209199999999998</v>
+      </c>
+      <c r="BG28">
+        <v>3.2724000000000002</v>
+      </c>
+      <c r="BH28">
+        <v>1.2319199999999999</v>
+      </c>
+      <c r="BI28">
         <v>44.78763</v>
       </c>
-      <c r="BJ24">
+      <c r="BJ28">
         <v>0.5</v>
       </c>
-      <c r="BM24">
+      <c r="BM28">
         <v>0.5</v>
       </c>
-      <c r="BN24">
-        <v>-0.5906</v>
-      </c>
-      <c r="BO24">
-        <v>-0.47427</v>
-      </c>
-      <c r="BP24" t="s">
-        <v>139</v>
-      </c>
-      <c r="BQ24">
-        <v>-0.2577</v>
-      </c>
-      <c r="BR24">
-        <v>-0.42415</v>
-      </c>
-      <c r="BS24">
-        <v>0.88143</v>
-      </c>
-      <c r="BT24">
-        <v>0.93466</v>
-      </c>
-      <c r="BU24">
-        <v>-0.06039</v>
-      </c>
-      <c r="BY24">
+      <c r="BN28">
+        <v>-0.59060000000000001</v>
+      </c>
+      <c r="BO28">
+        <v>-0.47427000000000002</v>
+      </c>
+      <c r="BP28">
+        <v>-0.59177999999999997</v>
+      </c>
+      <c r="BQ28">
+        <v>-0.25769999999999998</v>
+      </c>
+      <c r="BR28">
+        <v>-0.42415000000000003</v>
+      </c>
+      <c r="BS28">
+        <v>0.88143000000000005</v>
+      </c>
+      <c r="BT28">
+        <v>0.93466000000000005</v>
+      </c>
+      <c r="BU28">
+        <v>-6.0389999999999999E-2</v>
+      </c>
+      <c r="BY28">
         <v>100</v>
       </c>
-      <c r="BZ24">
+      <c r="BZ28">
         <v>100</v>
       </c>
-      <c r="CA24">
-        <v>37.95</v>
-      </c>
-      <c r="CB24">
+      <c r="CA28">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="CB28">
         <v>103</v>
       </c>
-      <c r="CC24">
+      <c r="CC28">
         <v>103</v>
       </c>
-      <c r="CD24">
+      <c r="CD28">
         <v>40</v>
       </c>
-      <c r="CE24">
+      <c r="CE28">
         <v>0.03</v>
       </c>
-      <c r="CF24">
+      <c r="CF28">
         <v>-0.03</v>
       </c>
-      <c r="CG24">
-        <v>0.05402</v>
+      <c r="CG28">
+        <v>5.4019999999999999E-2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>10926.57528</v>
+        <v>11414.72825</v>
       </c>
       <c r="S8">
         <v>0.045</v>
@@ -2523,49 +2523,49 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.50043</v>
+        <v>0.52279</v>
       </c>
       <c r="AB8">
         <v>1</v>
       </c>
       <c r="AC8">
-        <v>29713.54039</v>
+        <v>50520.4144</v>
       </c>
       <c r="AD8">
-        <v>4754.77504</v>
+        <v>25561.64905</v>
       </c>
       <c r="AE8">
-        <v>-3764.17207</v>
+        <v>287.13364</v>
       </c>
       <c r="AF8">
-        <v>66520.72960999999</v>
+        <v>206009.02667</v>
       </c>
       <c r="AG8">
-        <v>57946.9561</v>
+        <v>176658.72749</v>
       </c>
       <c r="AH8">
         <v>19009.96135</v>
       </c>
       <c r="AI8">
-        <v>2411.78686</v>
+        <v>2442.1352</v>
       </c>
       <c r="AJ8">
-        <v>31013.48132</v>
+        <v>32509.50645</v>
       </c>
       <c r="AK8">
-        <v>-7767.5</v>
+        <v>2555.5</v>
       </c>
       <c r="AL8">
-        <v>-16593.69</v>
+        <v>-6270.69</v>
       </c>
       <c r="AM8">
-        <v>-8964.690000000001</v>
+        <v>-7003.69</v>
       </c>
       <c r="AN8">
-        <v>45154.7</v>
+        <v>181658.7</v>
       </c>
       <c r="AO8">
-        <v>54045.2</v>
+        <v>180226.2</v>
       </c>
       <c r="AP8">
         <v>575</v>
@@ -2574,19 +2574,19 @@
         <v>348</v>
       </c>
       <c r="AR8">
-        <v>39275</v>
+        <v>41089</v>
       </c>
       <c r="AS8">
-        <v>-1.26141</v>
+        <v>-0.94942</v>
       </c>
       <c r="AT8">
-        <v>-4.4899</v>
+        <v>-1.24532</v>
       </c>
       <c r="AU8">
-        <v>-1.38158</v>
+        <v>-25.39174</v>
       </c>
       <c r="AV8">
-        <v>-0.32119</v>
+        <v>-0.1182</v>
       </c>
       <c r="AW8">
         <v>105</v>
@@ -2595,13 +2595,13 @@
         <v>0.045</v>
       </c>
       <c r="AY8">
-        <v>0.65892</v>
+        <v>0.77665</v>
       </c>
       <c r="AZ8">
-        <v>1.17291</v>
+        <v>0.9871</v>
       </c>
       <c r="BA8">
-        <v>-0.78006</v>
+        <v>-0.27096</v>
       </c>
       <c r="BB8">
         <v>732</v>
@@ -2610,28 +2610,28 @@
         <v>732</v>
       </c>
       <c r="BD8">
-        <v>40.59227</v>
+        <v>69.01696</v>
       </c>
       <c r="BE8">
-        <v>6.49559</v>
+        <v>34.92029</v>
       </c>
       <c r="BF8">
-        <v>-5.14231</v>
+        <v>0.39226</v>
       </c>
       <c r="BG8">
-        <v>90.87531</v>
+        <v>281.4331</v>
       </c>
       <c r="BH8">
-        <v>-10.61134</v>
+        <v>3.49112</v>
       </c>
       <c r="BI8">
-        <v>-22.66898</v>
+        <v>-8.566520000000001</v>
       </c>
       <c r="BJ8">
-        <v>-12.24684</v>
+        <v>-9.567880000000001</v>
       </c>
       <c r="BK8">
-        <v>61.68675</v>
+        <v>248.16762</v>
       </c>
       <c r="BL8">
         <v>0.5</v>
@@ -2640,40 +2640,40 @@
         <v>0.5</v>
       </c>
       <c r="BP8">
-        <v>-1.26141</v>
+        <v>-0.94942</v>
       </c>
       <c r="BQ8">
-        <v>-4.4899</v>
+        <v>-1.24532</v>
       </c>
       <c r="BR8">
-        <v>-1.38158</v>
+        <v>-25.39174</v>
       </c>
       <c r="BS8">
-        <v>-0.32119</v>
+        <v>-0.1182</v>
       </c>
       <c r="BT8">
-        <v>0.46622</v>
+        <v>0.15781</v>
       </c>
       <c r="BU8">
-        <v>0.86979</v>
+        <v>0.22619</v>
       </c>
       <c r="BV8">
-        <v>-0.86561</v>
+        <v>-0.43333</v>
       </c>
       <c r="BW8">
-        <v>0.95808</v>
+        <v>1.55402</v>
       </c>
       <c r="BX8">
-        <v>-0.19777</v>
+        <v>0.06219</v>
       </c>
       <c r="BY8">
-        <v>-1.20642</v>
+        <v>-0.9599800000000001</v>
       </c>
       <c r="BZ8">
-        <v>-1.3215</v>
+        <v>-13.17058</v>
       </c>
       <c r="CA8">
-        <v>-1.03601</v>
+        <v>-0.69665</v>
       </c>
       <c r="CB8">
         <v>29.82847</v>
@@ -3691,64 +3691,64 @@
         <v>1</v>
       </c>
       <c r="AC13">
-        <v>279594.00506</v>
+        <v>279509.89932</v>
       </c>
       <c r="AD13">
-        <v>264141.18949</v>
+        <v>264047.56183</v>
       </c>
       <c r="AE13">
-        <v>199962.41299</v>
+        <v>199868.35381</v>
       </c>
       <c r="AF13">
-        <v>49240.77218</v>
+        <v>11725.81354</v>
       </c>
       <c r="AG13">
-        <v>527912.75599</v>
+        <v>515802.03093</v>
       </c>
       <c r="AH13">
         <v>548278.28551</v>
       </c>
       <c r="AI13">
-        <v>144297.24356</v>
+        <v>144307.62327</v>
       </c>
       <c r="AJ13">
-        <v>27506.60504</v>
+        <v>28057.59224</v>
       </c>
       <c r="AK13">
-        <v>157752.55338</v>
+        <v>157886.55338</v>
       </c>
       <c r="AL13">
-        <v>206254.87338</v>
+        <v>206379.87338</v>
       </c>
       <c r="AM13">
-        <v>157752.55338</v>
+        <v>157877.55338</v>
       </c>
       <c r="AN13">
-        <v>-969.83</v>
+        <v>67.17</v>
       </c>
       <c r="AO13">
-        <v>224386.17662</v>
+        <v>225295.17662</v>
       </c>
       <c r="AP13">
         <v>341962.56</v>
       </c>
       <c r="AQ13">
-        <v>50000</v>
+        <v>50002</v>
       </c>
       <c r="AR13">
-        <v>18565.16</v>
+        <v>19114.16</v>
       </c>
       <c r="AS13">
-        <v>-0.43578</v>
+        <v>-0.43513</v>
       </c>
       <c r="AT13">
-        <v>-0.21915</v>
+        <v>-0.2184</v>
       </c>
       <c r="AU13">
-        <v>-0.21109</v>
+        <v>-0.21009</v>
       </c>
       <c r="AV13">
-        <v>-1.0197</v>
+        <v>-0.99427</v>
       </c>
       <c r="AW13">
         <v>107</v>
@@ -3757,13 +3757,13 @@
         <v>0.051</v>
       </c>
       <c r="AY13">
-        <v>0.71165</v>
+        <v>0.7323499999999999</v>
       </c>
       <c r="AZ13">
-        <v>0.57389</v>
+        <v>0.57469</v>
       </c>
       <c r="BA13">
-        <v>0.19358</v>
+        <v>0.21528</v>
       </c>
       <c r="BB13">
         <v>272.66333</v>
@@ -3772,28 +3772,28 @@
         <v>272.66333</v>
       </c>
       <c r="BD13">
-        <v>1025.41842</v>
+        <v>1025.10996</v>
       </c>
       <c r="BE13">
-        <v>968.74481</v>
+        <v>968.40143</v>
       </c>
       <c r="BF13">
-        <v>733.36745</v>
+        <v>733.02248</v>
       </c>
       <c r="BG13">
-        <v>180.59184</v>
+        <v>43.00473</v>
       </c>
       <c r="BH13">
-        <v>578.56167</v>
+        <v>579.05312</v>
       </c>
       <c r="BI13">
-        <v>756.44521</v>
+        <v>756.90365</v>
       </c>
       <c r="BJ13">
-        <v>578.56167</v>
+        <v>579.02011</v>
       </c>
       <c r="BK13">
-        <v>-3.55688</v>
+        <v>0.24635</v>
       </c>
       <c r="BL13">
         <v>0.5</v>
@@ -3802,40 +3802,40 @@
         <v>0.5</v>
       </c>
       <c r="BP13">
-        <v>-0.43578</v>
+        <v>-0.43513</v>
       </c>
       <c r="BQ13">
-        <v>-0.21915</v>
+        <v>-0.2184</v>
       </c>
       <c r="BR13">
-        <v>-0.21109</v>
+        <v>-0.21009</v>
       </c>
       <c r="BS13">
-        <v>-1.0197</v>
+        <v>-0.99427</v>
       </c>
       <c r="BT13">
-        <v>0.5586100000000001</v>
+        <v>2.39281</v>
       </c>
       <c r="BU13">
-        <v>-19.1427</v>
+        <v>284.56394</v>
       </c>
       <c r="BV13">
-        <v>35.26817</v>
+        <v>-117.92481</v>
       </c>
       <c r="BW13">
-        <v>10.16461</v>
+        <v>9.962009999999999</v>
       </c>
       <c r="BX13">
-        <v>8.49724</v>
+        <v>8.26019</v>
       </c>
       <c r="BY13">
-        <v>-0.16404</v>
+        <v>-0.17083</v>
       </c>
       <c r="BZ13">
-        <v>-0.32343</v>
+        <v>-0.32261</v>
       </c>
       <c r="CA13">
-        <v>17.55207</v>
+        <v>-59.04782</v>
       </c>
       <c r="CB13">
         <v>48.74916</v>
@@ -3850,7 +3850,7 @@
         <v>149</v>
       </c>
       <c r="CF13">
-        <v>-0.21109</v>
+        <v>-0.21009</v>
       </c>
       <c r="CG13">
         <v>-1</v>
@@ -3945,10 +3945,10 @@
         <v>21129.72941</v>
       </c>
       <c r="AF14">
-        <v>24730.58931</v>
+        <v>41664.29553</v>
       </c>
       <c r="AG14">
-        <v>9866.76244</v>
+        <v>15562.0728</v>
       </c>
       <c r="AH14">
         <v>32.54717</v>
@@ -3993,7 +3993,7 @@
         <v>1.08256</v>
       </c>
       <c r="AV14">
-        <v>1.63274</v>
+        <v>0.56271</v>
       </c>
       <c r="AW14">
         <v>104</v>
@@ -4002,13 +4002,13 @@
         <v>0.042</v>
       </c>
       <c r="AY14">
-        <v>0.39823</v>
+        <v>0.3731</v>
       </c>
       <c r="AZ14">
         <v>0.45798</v>
       </c>
       <c r="BA14">
-        <v>-0.15002</v>
+        <v>-0.22749</v>
       </c>
       <c r="BB14">
         <v>270.25</v>
@@ -4026,7 +4026,7 @@
         <v>78.18586000000001</v>
       </c>
       <c r="BG14">
-        <v>91.51004</v>
+        <v>154.16946</v>
       </c>
       <c r="BH14">
         <v>161.96744</v>
@@ -4056,16 +4056,16 @@
         <v>1.08256</v>
       </c>
       <c r="BS14">
-        <v>1.63274</v>
+        <v>0.56271</v>
       </c>
       <c r="BT14">
-        <v>0.35905</v>
+        <v>0.21312</v>
       </c>
       <c r="BU14">
         <v>0.2853</v>
       </c>
       <c r="BV14">
-        <v>0.20539</v>
+        <v>-0.33871</v>
       </c>
       <c r="BW14">
         <v>1.6793</v>
@@ -4080,7 +4080,7 @@
         <v>1.50902</v>
       </c>
       <c r="CA14">
-        <v>0.30429</v>
+        <v>0.03224</v>
       </c>
       <c r="CB14">
         <v>39.95085</v>
@@ -4190,10 +4190,10 @@
         <v>25378.07028</v>
       </c>
       <c r="AF15">
-        <v>12626.34182</v>
+        <v>34856.17126</v>
       </c>
       <c r="AG15">
-        <v>14521.25097</v>
+        <v>22680.27298</v>
       </c>
       <c r="AH15">
         <v>2492.50513</v>
@@ -4238,7 +4238,7 @@
         <v>-0.91194</v>
       </c>
       <c r="AV15">
-        <v>3.24838</v>
+        <v>0.53894</v>
       </c>
       <c r="AW15">
         <v>103</v>
@@ -4247,13 +4247,13 @@
         <v>0.039</v>
       </c>
       <c r="AY15">
-        <v>0.94741</v>
+        <v>0.60389</v>
       </c>
       <c r="AZ15">
         <v>0.96621</v>
       </c>
       <c r="BA15">
-        <v>-0.01984</v>
+        <v>-0.59998</v>
       </c>
       <c r="BB15">
         <v>152.33667</v>
@@ -4271,7 +4271,7 @@
         <v>166.592</v>
       </c>
       <c r="BG15">
-        <v>82.88446</v>
+        <v>228.81012</v>
       </c>
       <c r="BH15">
         <v>14.85887</v>
@@ -4301,16 +4301,16 @@
         <v>-0.91194</v>
       </c>
       <c r="BS15">
-        <v>3.24838</v>
+        <v>0.53894</v>
       </c>
       <c r="BT15">
-        <v>0.41782</v>
+        <v>0.15135</v>
       </c>
       <c r="BU15">
         <v>0.0951</v>
       </c>
       <c r="BV15">
-        <v>0.7724</v>
+        <v>0.37169</v>
       </c>
       <c r="BW15">
         <v>2.82336</v>
@@ -4325,7 +4325,7 @@
         <v>-0.87998</v>
       </c>
       <c r="CA15">
-        <v>-0.03522</v>
+        <v>-0.23557</v>
       </c>
       <c r="CB15">
         <v>35.31757</v>
@@ -4750,6 +4750,12 @@
       <c r="N18">
         <v>0</v>
       </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
       <c r="Q18">
         <v>0</v>
       </c>
@@ -4757,19 +4763,19 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.21466</v>
+        <v>-0.22598</v>
       </c>
       <c r="T18">
-        <v>0.21466</v>
+        <v>-0.22598</v>
       </c>
       <c r="U18">
-        <v>0.2</v>
+        <v>-0.22598</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AC18">
-        <v>-34298.00578</v>
+        <v>-33361.90225</v>
       </c>
       <c r="AD18">
         <v>-149495.39295</v>
@@ -4778,10 +4784,10 @@
         <v>-28576.2877</v>
       </c>
       <c r="AF18">
-        <v>-97003.70664999999</v>
+        <v>-217663.85665</v>
       </c>
       <c r="AG18">
-        <v>-265514.46565</v>
+        <v>-312144.90878</v>
       </c>
       <c r="AH18">
         <v>-58843.2852</v>
@@ -4817,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.40259</v>
+        <v>2.44194</v>
       </c>
       <c r="AT18">
         <v>0.82729</v>
@@ -4826,19 +4832,19 @@
         <v>2.88353</v>
       </c>
       <c r="AV18">
-        <v>0.34629</v>
+        <v>0.70867</v>
       </c>
       <c r="AX18">
         <v>0.03</v>
       </c>
       <c r="AY18">
-        <v>1.70369</v>
+        <v>1.12889</v>
       </c>
       <c r="AZ18">
         <v>7.37182</v>
       </c>
       <c r="BA18">
-        <v>-3.32698</v>
+        <v>-5.53018</v>
       </c>
       <c r="BL18">
         <v>1</v>
@@ -4912,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>10926.57528</v>
+        <v>11414.72825</v>
       </c>
       <c r="T19">
         <v>0.03934</v>
@@ -4936,73 +4942,73 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.16441</v>
+        <v>0.17175</v>
       </c>
       <c r="AB19">
         <v>1</v>
       </c>
       <c r="AC19">
-        <v>319751.57603</v>
+        <v>341410.44784</v>
       </c>
       <c r="AD19">
-        <v>145271.56428</v>
+        <v>165984.81062</v>
       </c>
       <c r="AE19">
-        <v>145271.56428</v>
+        <v>165984.81062</v>
       </c>
       <c r="AF19">
-        <v>140035.79865</v>
+        <v>160512.52273</v>
       </c>
       <c r="AG19">
-        <v>486400.65258</v>
+        <v>560225.58813</v>
       </c>
       <c r="AH19">
         <v>571553.72246</v>
       </c>
       <c r="AI19">
-        <v>203639.00279</v>
+        <v>203679.73084</v>
       </c>
       <c r="AK19">
-        <v>288818.87338</v>
+        <v>299275.87338</v>
       </c>
       <c r="AL19">
-        <v>203077.23647</v>
+        <v>213525.23647</v>
       </c>
       <c r="AM19">
-        <v>247836.57647</v>
+        <v>249922.57647</v>
       </c>
       <c r="AN19">
-        <v>241763.72</v>
+        <v>379304.72</v>
       </c>
       <c r="AO19">
-        <v>529026.22662</v>
+        <v>656116.22662</v>
       </c>
       <c r="AP19">
         <v>485771.47</v>
       </c>
       <c r="AQ19">
-        <v>101778</v>
+        <v>101780</v>
       </c>
       <c r="AS19">
-        <v>-0.09674000000000001</v>
+        <v>-0.12341</v>
       </c>
       <c r="AT19">
-        <v>0.39791</v>
+        <v>0.28641</v>
       </c>
       <c r="AU19">
-        <v>0.70602</v>
+        <v>0.5057</v>
       </c>
       <c r="AV19">
-        <v>0.72644</v>
+        <v>1.36308</v>
       </c>
       <c r="AY19">
-        <v>0.53145</v>
+        <v>0.5986900000000001</v>
       </c>
       <c r="AZ19">
-        <v>0.63791</v>
+        <v>0.67861</v>
       </c>
       <c r="BA19">
-        <v>-0.20031</v>
+        <v>-0.13348</v>
       </c>
       <c r="BB19">
         <v>1877.2</v>
@@ -5011,28 +5017,28 @@
         <v>1877.2</v>
       </c>
       <c r="BD19">
-        <v>170.33431</v>
+        <v>181.87218</v>
       </c>
       <c r="BE19">
-        <v>77.38737</v>
+        <v>88.42148</v>
       </c>
       <c r="BF19">
-        <v>77.38737</v>
+        <v>88.42148</v>
       </c>
       <c r="BG19">
-        <v>74.59823</v>
+        <v>85.50635</v>
       </c>
       <c r="BH19">
-        <v>153.85621</v>
+        <v>159.42674</v>
       </c>
       <c r="BI19">
-        <v>108.18093</v>
+        <v>113.74666</v>
       </c>
       <c r="BJ19">
-        <v>132.0246</v>
+        <v>133.13583</v>
       </c>
       <c r="BK19">
-        <v>128.78954</v>
+        <v>202.05877</v>
       </c>
       <c r="BL19">
         <v>0.5</v>
@@ -5041,19 +5047,19 @@
         <v>0.5</v>
       </c>
       <c r="BP19">
-        <v>-0.09674000000000001</v>
+        <v>-0.12341</v>
       </c>
       <c r="BQ19">
-        <v>0.39791</v>
+        <v>0.28641</v>
       </c>
       <c r="BR19">
-        <v>0.70602</v>
+        <v>0.5057</v>
       </c>
       <c r="BS19">
-        <v>0.72644</v>
+        <v>1.36308</v>
       </c>
       <c r="BZ19">
-        <v>0.30464</v>
+        <v>0.19114</v>
       </c>
       <c r="CB19">
         <v>35.40431</v>
@@ -5088,25 +5094,25 @@
         <v>13478.16109</v>
       </c>
       <c r="H20">
-        <v>66523.85652</v>
+        <v>67012.00949</v>
       </c>
       <c r="I20">
-        <v>66523.85652</v>
+        <v>67012.00949</v>
       </c>
       <c r="J20">
-        <v>80002.01762</v>
+        <v>80490.17058000001</v>
       </c>
       <c r="K20">
-        <v>66523.85652</v>
+        <v>67012.00949</v>
       </c>
       <c r="L20">
-        <v>66523.85652</v>
+        <v>67012.00949</v>
       </c>
       <c r="M20">
-        <v>66523.85652</v>
+        <v>67012.00949</v>
       </c>
       <c r="N20">
-        <v>80002.01762</v>
+        <v>80490.17058000001</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -5121,19 +5127,19 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0.00135</v>
+        <v>0.01184</v>
       </c>
       <c r="T20">
-        <v>0.00095</v>
+        <v>0.00829</v>
       </c>
       <c r="U20">
-        <v>0.00095</v>
+        <v>0.00829</v>
       </c>
       <c r="V20">
-        <v>0.00095</v>
+        <v>0.00829</v>
       </c>
       <c r="W20">
-        <v>0.20374</v>
+        <v>0.21109</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -5148,70 +5154,70 @@
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>319751.57603</v>
+        <v>341410.44784</v>
       </c>
       <c r="AD20">
-        <v>145271.56428</v>
+        <v>165984.81062</v>
       </c>
       <c r="AE20">
-        <v>227781.09321</v>
+        <v>231738.33974</v>
       </c>
       <c r="AF20">
-        <v>140035.79865</v>
+        <v>160512.52273</v>
       </c>
       <c r="AG20">
-        <v>486400.65258</v>
+        <v>560225.58813</v>
       </c>
       <c r="AH20">
         <v>571553.72246</v>
       </c>
       <c r="AI20">
-        <v>203639.00279</v>
+        <v>203679.73084</v>
       </c>
       <c r="AK20">
-        <v>288818.87338</v>
+        <v>299275.87338</v>
       </c>
       <c r="AL20">
-        <v>203077.23647</v>
+        <v>213525.23647</v>
       </c>
       <c r="AM20">
-        <v>247836.57647</v>
+        <v>249922.57647</v>
       </c>
       <c r="AN20">
-        <v>241763.72</v>
+        <v>379304.72</v>
       </c>
       <c r="AO20">
-        <v>529026.22662</v>
+        <v>656116.22662</v>
       </c>
       <c r="AP20">
         <v>485771.47</v>
       </c>
       <c r="AQ20">
-        <v>101778</v>
+        <v>101780</v>
       </c>
       <c r="AS20">
-        <v>-0.09674000000000001</v>
+        <v>-0.12341</v>
       </c>
       <c r="AT20">
-        <v>0.39791</v>
+        <v>0.28641</v>
       </c>
       <c r="AU20">
-        <v>0.08805</v>
+        <v>0.07847</v>
       </c>
       <c r="AV20">
-        <v>0.72644</v>
+        <v>1.36308</v>
       </c>
       <c r="AX20">
         <v>0.03</v>
       </c>
       <c r="AY20">
-        <v>0.53145</v>
+        <v>0.5986900000000001</v>
       </c>
       <c r="AZ20">
-        <v>0.63791</v>
+        <v>0.67861</v>
       </c>
       <c r="BA20">
-        <v>-0.20031</v>
+        <v>-0.13348</v>
       </c>
       <c r="BB20">
         <v>1877.2</v>
@@ -5220,28 +5226,28 @@
         <v>1877.2</v>
       </c>
       <c r="BD20">
-        <v>170.33431</v>
+        <v>181.87218</v>
       </c>
       <c r="BE20">
-        <v>77.38737</v>
+        <v>88.42148</v>
       </c>
       <c r="BF20">
-        <v>121.34088</v>
+        <v>123.44893</v>
       </c>
       <c r="BG20">
-        <v>74.59823</v>
+        <v>85.50635</v>
       </c>
       <c r="BH20">
-        <v>153.85621</v>
+        <v>159.42674</v>
       </c>
       <c r="BI20">
-        <v>108.18093</v>
+        <v>113.74666</v>
       </c>
       <c r="BJ20">
-        <v>132.0246</v>
+        <v>133.13583</v>
       </c>
       <c r="BK20">
-        <v>128.78954</v>
+        <v>202.05877</v>
       </c>
       <c r="BL20">
         <v>0.5</v>
@@ -5250,28 +5256,28 @@
         <v>0.5</v>
       </c>
       <c r="BP20">
-        <v>-0.09674000000000001</v>
+        <v>-0.12341</v>
       </c>
       <c r="BQ20">
-        <v>0.39791</v>
+        <v>0.28641</v>
       </c>
       <c r="BR20">
-        <v>0.08805</v>
+        <v>0.07847</v>
       </c>
       <c r="BS20">
-        <v>0.72644</v>
+        <v>1.36308</v>
       </c>
       <c r="BZ20">
-        <v>-0.00435</v>
+        <v>-0.02247</v>
       </c>
       <c r="CB20">
         <v>35.40431</v>
       </c>
       <c r="CC20">
-        <v>35.43781</v>
+        <v>35.69785</v>
       </c>
       <c r="CD20">
-        <v>42.61774</v>
+        <v>42.87778</v>
       </c>
     </row>
     <row r="21" spans="1:94">

--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="154">
   <si>
     <t>var_name</t>
   </si>
@@ -331,7 +331,7 @@
     <t>zichan</t>
   </si>
   <si>
-    <t>jiguan</t>
+    <t>dahebing</t>
   </si>
   <si>
     <t>tudi</t>
@@ -346,6 +346,12 @@
     <t>kegongsi</t>
   </si>
   <si>
+    <t>dahebing_minus</t>
+  </si>
+  <si>
+    <t>jiguan_plus</t>
+  </si>
+  <si>
     <t>special_elimination</t>
   </si>
   <si>
@@ -400,19 +406,25 @@
     <t>资产公司</t>
   </si>
   <si>
+    <t>京投大合并</t>
+  </si>
+  <si>
+    <t>土地事业部</t>
+  </si>
+  <si>
+    <t>多经事业部</t>
+  </si>
+  <si>
+    <t>北信公司</t>
+  </si>
+  <si>
+    <t>壳公司</t>
+  </si>
+  <si>
+    <t>减：京投大合并</t>
+  </si>
+  <si>
     <t>机关本部</t>
-  </si>
-  <si>
-    <t>土地事业部</t>
-  </si>
-  <si>
-    <t>多经事业部</t>
-  </si>
-  <si>
-    <t>北信公司</t>
-  </si>
-  <si>
-    <t>壳公司</t>
   </si>
   <si>
     <t>特殊功能类大合并抵消数</t>
@@ -821,7 +833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP24"/>
+  <dimension ref="A1:CP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1116,10 +1128,10 @@
         <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E2">
         <v>21843.97892</v>
@@ -1161,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>2567.97014</v>
+        <v>2731.34089</v>
       </c>
       <c r="S2">
         <v>-0.6817</v>
@@ -1188,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.11756</v>
+        <v>0.12504</v>
       </c>
       <c r="AB2">
         <v>1</v>
@@ -1266,7 +1278,7 @@
         <v>576</v>
       </c>
       <c r="BC2">
-        <v>581.76</v>
+        <v>576</v>
       </c>
       <c r="BD2">
         <v>248.55633</v>
@@ -1281,16 +1293,16 @@
         <v>1538.96253</v>
       </c>
       <c r="BH2">
-        <v>67.83034000000001</v>
+        <v>68.50865</v>
       </c>
       <c r="BI2">
-        <v>7.00712</v>
+        <v>7.07719</v>
       </c>
       <c r="BJ2">
-        <v>2.66271</v>
+        <v>2.68934</v>
       </c>
       <c r="BK2">
-        <v>1187.68049</v>
+        <v>1199.55729</v>
       </c>
       <c r="BL2">
         <v>0.5</v>
@@ -1299,16 +1311,16 @@
         <v>0.5</v>
       </c>
       <c r="BP2">
-        <v>-0.7271</v>
+        <v>-0.72437</v>
       </c>
       <c r="BQ2">
-        <v>-0.91878</v>
+        <v>-0.91797</v>
       </c>
       <c r="BR2">
-        <v>-0.91882</v>
+        <v>-0.91801</v>
       </c>
       <c r="BS2">
-        <v>-0.22826</v>
+        <v>-0.22054</v>
       </c>
       <c r="BT2">
         <v>0.027</v>
@@ -1329,7 +1341,7 @@
         <v>-0.78714</v>
       </c>
       <c r="BZ2">
-        <v>-0.47768</v>
+        <v>-0.47246</v>
       </c>
       <c r="CA2">
         <v>-0.72418</v>
@@ -1338,10 +1350,10 @@
         <v>37.92357</v>
       </c>
       <c r="CC2">
-        <v>11.95161</v>
+        <v>12.07113</v>
       </c>
       <c r="CD2">
-        <v>29.95033</v>
+        <v>30.24984</v>
       </c>
     </row>
     <row r="3" spans="1:94">
@@ -1349,16 +1361,19 @@
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E3">
         <v>21230.00011</v>
       </c>
       <c r="F3">
-        <v>-2030</v>
+        <v>-163.37076</v>
+      </c>
+      <c r="G3">
+        <v>163.37076</v>
       </c>
       <c r="H3">
         <v>19801.14674</v>
@@ -1367,7 +1382,7 @@
         <v>19801.14674</v>
       </c>
       <c r="J3">
-        <v>17771.14674</v>
+        <v>19637.77598</v>
       </c>
       <c r="K3">
         <v>19801.14674</v>
@@ -1379,7 +1394,7 @@
         <v>19801.14674</v>
       </c>
       <c r="N3">
-        <v>17771.14674</v>
+        <v>19637.77598</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1406,7 +1421,7 @@
         <v>-0.0673</v>
       </c>
       <c r="W3">
-        <v>-0.16292</v>
+        <v>-0.075</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1496,7 +1511,7 @@
         <v>901</v>
       </c>
       <c r="BC3">
-        <v>910.01</v>
+        <v>901</v>
       </c>
       <c r="BD3">
         <v>20.99971</v>
@@ -1511,16 +1526,16 @@
         <v>152.8816</v>
       </c>
       <c r="BH3">
-        <v>18.77464</v>
+        <v>18.96239</v>
       </c>
       <c r="BI3">
-        <v>12.53761</v>
+        <v>12.66299</v>
       </c>
       <c r="BJ3">
-        <v>6.91073</v>
+        <v>6.97983</v>
       </c>
       <c r="BK3">
-        <v>191.35736</v>
+        <v>193.27093</v>
       </c>
       <c r="BL3">
         <v>0.5</v>
@@ -1529,16 +1544,16 @@
         <v>0.5</v>
       </c>
       <c r="BP3">
-        <v>-0.10596</v>
+        <v>-0.09702</v>
       </c>
       <c r="BQ3">
-        <v>-0.24521</v>
+        <v>-0.23766</v>
       </c>
       <c r="BR3">
-        <v>-0.24631</v>
+        <v>-0.23877</v>
       </c>
       <c r="BS3">
-        <v>0.25167</v>
+        <v>0.26419</v>
       </c>
       <c r="BT3">
         <v>0.17766</v>
@@ -1559,7 +1574,7 @@
         <v>-0.23664</v>
       </c>
       <c r="BZ3">
-        <v>0.07285999999999999</v>
+        <v>0.08359</v>
       </c>
       <c r="CA3">
         <v>-0.08617</v>
@@ -1568,10 +1583,10 @@
         <v>23.56271</v>
       </c>
       <c r="CC3">
-        <v>21.75926</v>
+        <v>21.97686</v>
       </c>
       <c r="CD3">
-        <v>19.52852</v>
+        <v>21.79553</v>
       </c>
     </row>
     <row r="4" spans="1:94">
@@ -1579,10 +1594,10 @@
         <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E4">
         <v>3944</v>
@@ -1726,7 +1741,7 @@
         <v>79</v>
       </c>
       <c r="BC4">
-        <v>79.79000000000001</v>
+        <v>79</v>
       </c>
       <c r="BD4">
         <v>258.92918</v>
@@ -1741,16 +1756,16 @@
         <v>1294.26151</v>
       </c>
       <c r="BH4">
-        <v>208.88583</v>
+        <v>210.97468</v>
       </c>
       <c r="BI4">
-        <v>156.66124</v>
+        <v>158.22785</v>
       </c>
       <c r="BJ4">
-        <v>141.65309</v>
+        <v>143.06962</v>
       </c>
       <c r="BK4">
-        <v>1290.11154</v>
+        <v>1303.01266</v>
       </c>
       <c r="BL4">
         <v>0.5</v>
@@ -1759,16 +1774,16 @@
         <v>0.5</v>
       </c>
       <c r="BP4">
-        <v>-0.19327</v>
+        <v>-0.1852</v>
       </c>
       <c r="BQ4">
-        <v>-0.19474</v>
+        <v>-0.18669</v>
       </c>
       <c r="BR4">
-        <v>-0.19324</v>
+        <v>-0.18517</v>
       </c>
       <c r="BS4">
-        <v>-0.00321</v>
+        <v>0.00676</v>
       </c>
       <c r="BT4">
         <v>0.0456</v>
@@ -1789,7 +1804,7 @@
         <v>-0.40109</v>
       </c>
       <c r="BZ4">
-        <v>-0.09823999999999999</v>
+        <v>-0.08921999999999999</v>
       </c>
       <c r="CA4">
         <v>-0.37621</v>
@@ -1798,10 +1813,10 @@
         <v>49.92405</v>
       </c>
       <c r="CC4">
-        <v>42.17344</v>
+        <v>42.59518</v>
       </c>
       <c r="CD4">
-        <v>42.33116</v>
+        <v>42.75447</v>
       </c>
     </row>
     <row r="5" spans="1:94">
@@ -1809,10 +1824,10 @@
         <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E5">
         <v>2821.24228</v>
@@ -1956,7 +1971,7 @@
         <v>98</v>
       </c>
       <c r="BC5">
-        <v>98.98</v>
+        <v>98</v>
       </c>
       <c r="BD5">
         <v>16.53915</v>
@@ -1971,16 +1986,16 @@
         <v>102.41195</v>
       </c>
       <c r="BH5">
-        <v>21.1962</v>
+        <v>21.40816</v>
       </c>
       <c r="BI5">
-        <v>18.01374</v>
+        <v>18.19388</v>
       </c>
       <c r="BJ5">
-        <v>17.65003</v>
+        <v>17.82653</v>
       </c>
       <c r="BK5">
-        <v>133.59264</v>
+        <v>134.92857</v>
       </c>
       <c r="BL5">
         <v>0.5</v>
@@ -1989,16 +2004,16 @@
         <v>0.5</v>
       </c>
       <c r="BP5">
-        <v>0.28158</v>
+        <v>0.29439</v>
       </c>
       <c r="BQ5">
-        <v>0.44185</v>
+        <v>0.45627</v>
       </c>
       <c r="BR5">
-        <v>0.44157</v>
+        <v>0.45599</v>
       </c>
       <c r="BS5">
-        <v>0.30446</v>
+        <v>0.31751</v>
       </c>
       <c r="BT5">
         <v>0.37627</v>
@@ -2019,7 +2034,7 @@
         <v>-0.13439</v>
       </c>
       <c r="BZ5">
-        <v>0.29302</v>
+        <v>0.30595</v>
       </c>
       <c r="CA5">
         <v>-0.13469</v>
@@ -2028,10 +2043,10 @@
         <v>28.78819</v>
       </c>
       <c r="CC5">
-        <v>32.31897</v>
+        <v>32.64216</v>
       </c>
       <c r="CD5">
-        <v>32.40905</v>
+        <v>32.73314</v>
       </c>
     </row>
     <row r="6" spans="1:94">
@@ -2039,22 +2054,22 @@
         <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E6">
         <v>49839.22132</v>
       </c>
       <c r="F6">
-        <v>8462.4373</v>
+        <v>10329.06654</v>
       </c>
       <c r="G6">
-        <v>9945.04844</v>
+        <v>10108.41919</v>
       </c>
       <c r="H6">
         <v>33569.85942</v>
@@ -2063,7 +2078,7 @@
         <v>33569.85942</v>
       </c>
       <c r="J6">
-        <v>42032.29672</v>
+        <v>43898.92596</v>
       </c>
       <c r="K6">
         <v>33626.63314</v>
@@ -2075,7 +2090,7 @@
         <v>33318.0663</v>
       </c>
       <c r="N6">
-        <v>41780.5036</v>
+        <v>43647.13284</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2087,7 +2102,7 @@
         <v>251.79312</v>
       </c>
       <c r="R6">
-        <v>2819.76326</v>
+        <v>2983.13402</v>
       </c>
       <c r="T6">
         <v>-0.3253</v>
@@ -2099,7 +2114,7 @@
         <v>-0.33149</v>
       </c>
       <c r="W6">
-        <v>-0.16169</v>
+        <v>-0.12424</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -2111,7 +2126,7 @@
         <v>0.00505</v>
       </c>
       <c r="AA6">
-        <v>0.05658</v>
+        <v>0.05986</v>
       </c>
       <c r="AB6">
         <v>1</v>
@@ -2183,7 +2198,7 @@
         <v>1654</v>
       </c>
       <c r="BC6">
-        <v>1670.54</v>
+        <v>1654</v>
       </c>
       <c r="BD6">
         <v>111.34548</v>
@@ -2198,16 +2213,16 @@
         <v>687.10506</v>
       </c>
       <c r="BH6">
-        <v>45.08188</v>
+        <v>45.5327</v>
       </c>
       <c r="BI6">
-        <v>17.81987</v>
+        <v>17.99807</v>
       </c>
       <c r="BJ6">
-        <v>12.50338</v>
+        <v>12.62841</v>
       </c>
       <c r="BK6">
-        <v>587.38079</v>
+        <v>593.2546</v>
       </c>
       <c r="BL6">
         <v>0.5</v>
@@ -2216,28 +2231,28 @@
         <v>0.5</v>
       </c>
       <c r="BP6">
-        <v>-0.59512</v>
+        <v>-0.59107</v>
       </c>
       <c r="BQ6">
-        <v>-0.63725</v>
+        <v>-0.63363</v>
       </c>
       <c r="BR6">
-        <v>-0.51024</v>
+        <v>-0.50534</v>
       </c>
       <c r="BS6">
-        <v>-0.14514</v>
+        <v>-0.13659</v>
       </c>
       <c r="BZ6">
-        <v>-0.37013</v>
+        <v>-0.36383</v>
       </c>
       <c r="CB6">
         <v>30.13254</v>
       </c>
       <c r="CC6">
-        <v>19.94449</v>
+        <v>20.14393</v>
       </c>
       <c r="CD6">
-        <v>25.01018</v>
+        <v>26.38883</v>
       </c>
     </row>
     <row r="7" spans="1:94">
@@ -2245,22 +2260,22 @@
         <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E7">
         <v>49839.22132</v>
       </c>
       <c r="F7">
-        <v>8462.4373</v>
+        <v>10329.06654</v>
       </c>
       <c r="G7">
-        <v>9945.04844</v>
+        <v>10108.41919</v>
       </c>
       <c r="H7">
         <v>26192.78112</v>
@@ -2269,7 +2284,7 @@
         <v>26192.78112</v>
       </c>
       <c r="J7">
-        <v>44600.26685</v>
+        <v>46630.26685</v>
       </c>
       <c r="K7">
         <v>26192.78112</v>
@@ -2281,7 +2296,7 @@
         <v>26192.78112</v>
       </c>
       <c r="N7">
-        <v>44600.26685</v>
+        <v>46630.26685</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2308,7 +2323,7 @@
         <v>-0.47445</v>
       </c>
       <c r="W7">
-        <v>-0.10512</v>
+        <v>-0.06439</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -2389,7 +2404,7 @@
         <v>1654</v>
       </c>
       <c r="BC7">
-        <v>1670.54</v>
+        <v>1654</v>
       </c>
       <c r="BD7">
         <v>111.34548</v>
@@ -2404,16 +2419,16 @@
         <v>687.10506</v>
       </c>
       <c r="BH7">
-        <v>45.08188</v>
+        <v>45.5327</v>
       </c>
       <c r="BI7">
-        <v>17.81987</v>
+        <v>17.99807</v>
       </c>
       <c r="BJ7">
-        <v>12.50338</v>
+        <v>12.62841</v>
       </c>
       <c r="BK7">
-        <v>587.38079</v>
+        <v>593.2546</v>
       </c>
       <c r="BL7">
         <v>0.5</v>
@@ -2422,28 +2437,28 @@
         <v>0.5</v>
       </c>
       <c r="BP7">
-        <v>-0.59512</v>
+        <v>-0.59107</v>
       </c>
       <c r="BQ7">
-        <v>-0.63725</v>
+        <v>-0.63363</v>
       </c>
       <c r="BR7">
-        <v>-0.51024</v>
+        <v>-0.50534</v>
       </c>
       <c r="BS7">
-        <v>-0.14514</v>
+        <v>-0.13659</v>
       </c>
       <c r="BZ7">
-        <v>-0.37013</v>
+        <v>-0.36383</v>
       </c>
       <c r="CB7">
         <v>30.13254</v>
       </c>
       <c r="CC7">
-        <v>15.67923</v>
+        <v>15.83602</v>
       </c>
       <c r="CD7">
-        <v>26.69811</v>
+        <v>28.19242</v>
       </c>
     </row>
     <row r="8" spans="1:94">
@@ -2451,40 +2466,40 @@
         <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E8">
-        <v>21834.437</v>
+        <v>22234.52126</v>
       </c>
       <c r="G8">
-        <v>9785.1273</v>
+        <v>9785</v>
       </c>
       <c r="H8">
-        <v>22816.98667</v>
+        <v>23235.07472</v>
       </c>
       <c r="I8">
-        <v>22816.98667</v>
+        <v>23235.07472</v>
       </c>
       <c r="J8">
-        <v>22816.98667</v>
+        <v>23235.07472</v>
       </c>
       <c r="K8">
-        <v>22816.98667</v>
+        <v>23235.07472</v>
       </c>
       <c r="L8">
-        <v>22816.98667</v>
+        <v>23235.07472</v>
       </c>
       <c r="M8">
-        <v>22816.98667</v>
+        <v>23235.07472</v>
       </c>
       <c r="N8">
-        <v>22816.98667</v>
+        <v>23235.07472</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2496,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>11414.72825</v>
+        <v>10766.01704</v>
       </c>
       <c r="S8">
         <v>0.045</v>
@@ -2523,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.52279</v>
+        <v>0.4842</v>
       </c>
       <c r="AB8">
         <v>1</v>
@@ -2604,34 +2619,34 @@
         <v>-0.27096</v>
       </c>
       <c r="BB8">
-        <v>732</v>
+        <v>742.13</v>
       </c>
       <c r="BC8">
-        <v>732</v>
+        <v>742.13</v>
       </c>
       <c r="BD8">
-        <v>69.01696</v>
+        <v>68.07487999999999</v>
       </c>
       <c r="BE8">
-        <v>34.92029</v>
+        <v>34.44363</v>
       </c>
       <c r="BF8">
-        <v>0.39226</v>
+        <v>0.3869</v>
       </c>
       <c r="BG8">
-        <v>281.4331</v>
+        <v>277.59156</v>
       </c>
       <c r="BH8">
-        <v>3.49112</v>
+        <v>3.44347</v>
       </c>
       <c r="BI8">
-        <v>-8.566520000000001</v>
+        <v>-8.449579999999999</v>
       </c>
       <c r="BJ8">
-        <v>-9.567880000000001</v>
+        <v>-9.437279999999999</v>
       </c>
       <c r="BK8">
-        <v>248.16762</v>
+        <v>244.78016</v>
       </c>
       <c r="BL8">
         <v>0.5</v>
@@ -2676,13 +2691,13 @@
         <v>-0.69665</v>
       </c>
       <c r="CB8">
-        <v>29.82847</v>
+        <v>29.96041</v>
       </c>
       <c r="CC8">
-        <v>31.17075</v>
+        <v>31.30863</v>
       </c>
       <c r="CD8">
-        <v>31.17075</v>
+        <v>31.30863</v>
       </c>
     </row>
     <row r="9" spans="1:94">
@@ -2690,13 +2705,13 @@
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E9">
         <v>1738.473</v>
@@ -2926,13 +2941,13 @@
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E10">
         <v>2005.91978</v>
@@ -3162,13 +3177,13 @@
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E11">
         <v>6628.4</v>
@@ -3398,13 +3413,13 @@
         <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E12">
         <v>1727.24812</v>
@@ -3613,40 +3628,40 @@
         <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E13">
         <v>13292.10937</v>
       </c>
       <c r="G13">
-        <v>3693.0338</v>
+        <v>3298</v>
       </c>
       <c r="H13">
-        <v>13631.05815</v>
+        <v>13848.03778</v>
       </c>
       <c r="I13">
-        <v>13631.05815</v>
+        <v>13848.03778</v>
       </c>
       <c r="J13">
-        <v>13631.05815</v>
+        <v>13848.03778</v>
       </c>
       <c r="K13">
-        <v>13631.05815</v>
+        <v>13848.03778</v>
       </c>
       <c r="L13">
-        <v>13631.05815</v>
+        <v>13848.03778</v>
       </c>
       <c r="M13">
-        <v>13631.05815</v>
+        <v>13848.03778</v>
       </c>
       <c r="N13">
-        <v>13631.05815</v>
+        <v>13848.03778</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3661,19 +3676,19 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0255</v>
+        <v>0.04182</v>
       </c>
       <c r="T13">
-        <v>0.0255</v>
+        <v>0.04182</v>
       </c>
       <c r="U13">
-        <v>0.0255</v>
+        <v>0.04182</v>
       </c>
       <c r="V13">
-        <v>0.0255</v>
+        <v>0.04182</v>
       </c>
       <c r="W13">
-        <v>0.0255</v>
+        <v>0.04182</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -3691,64 +3706,64 @@
         <v>1</v>
       </c>
       <c r="AC13">
-        <v>279509.89932</v>
+        <v>334898.91613</v>
       </c>
       <c r="AD13">
-        <v>264047.56183</v>
+        <v>242267.85936</v>
       </c>
       <c r="AE13">
-        <v>199868.35381</v>
+        <v>242267.85936</v>
       </c>
       <c r="AF13">
-        <v>11725.81354</v>
+        <v>1018805.77712</v>
       </c>
       <c r="AG13">
-        <v>515802.03093</v>
+        <v>1256509.02213</v>
       </c>
       <c r="AH13">
-        <v>548278.28551</v>
+        <v>354185.32067</v>
       </c>
       <c r="AI13">
-        <v>144307.62327</v>
+        <v>210516.34131</v>
       </c>
       <c r="AJ13">
-        <v>28057.59224</v>
+        <v>240419.97007</v>
       </c>
       <c r="AK13">
-        <v>157886.55338</v>
+        <v>347018.62338</v>
       </c>
       <c r="AL13">
-        <v>206379.87338</v>
+        <v>245475.34647</v>
       </c>
       <c r="AM13">
-        <v>157877.55338</v>
+        <v>245475.34647</v>
       </c>
       <c r="AN13">
-        <v>67.17</v>
+        <v>1557065.34</v>
       </c>
       <c r="AO13">
-        <v>225295.17662</v>
+        <v>1798605.80662</v>
       </c>
       <c r="AP13">
-        <v>341962.56</v>
+        <v>500214.83</v>
       </c>
       <c r="AQ13">
-        <v>50002</v>
+        <v>104921.58</v>
       </c>
       <c r="AR13">
-        <v>19114.16</v>
+        <v>306927.31</v>
       </c>
       <c r="AS13">
-        <v>-0.43513</v>
+        <v>0.03619</v>
       </c>
       <c r="AT13">
-        <v>-0.2184</v>
+        <v>0.01324</v>
       </c>
       <c r="AU13">
-        <v>-0.21009</v>
+        <v>0.01324</v>
       </c>
       <c r="AV13">
-        <v>-0.99427</v>
+        <v>0.52832</v>
       </c>
       <c r="AW13">
         <v>107</v>
@@ -3757,13 +3772,13 @@
         <v>0.051</v>
       </c>
       <c r="AY13">
-        <v>0.7323499999999999</v>
+        <v>0.7935</v>
       </c>
       <c r="AZ13">
-        <v>0.57469</v>
+        <v>0.83184</v>
       </c>
       <c r="BA13">
-        <v>0.21528</v>
+        <v>-0.04832</v>
       </c>
       <c r="BB13">
         <v>272.66333</v>
@@ -3772,28 +3787,28 @@
         <v>272.66333</v>
       </c>
       <c r="BD13">
-        <v>1025.10996</v>
+        <v>1228.25065</v>
       </c>
       <c r="BE13">
-        <v>968.40143</v>
+        <v>888.52379</v>
       </c>
       <c r="BF13">
-        <v>733.02248</v>
+        <v>888.52379</v>
       </c>
       <c r="BG13">
-        <v>43.00473</v>
+        <v>3736.49718</v>
       </c>
       <c r="BH13">
-        <v>579.05312</v>
+        <v>1272.7</v>
       </c>
       <c r="BI13">
-        <v>756.90365</v>
+        <v>900.28734</v>
       </c>
       <c r="BJ13">
-        <v>579.02011</v>
+        <v>900.28734</v>
       </c>
       <c r="BK13">
-        <v>0.24635</v>
+        <v>5710.57839</v>
       </c>
       <c r="BL13">
         <v>0.5</v>
@@ -3802,58 +3817,58 @@
         <v>0.5</v>
       </c>
       <c r="BP13">
-        <v>-0.43513</v>
+        <v>0.03619</v>
       </c>
       <c r="BQ13">
-        <v>-0.2184</v>
+        <v>0.01324</v>
       </c>
       <c r="BR13">
-        <v>-0.21009</v>
+        <v>0.01324</v>
       </c>
       <c r="BS13">
-        <v>-0.99427</v>
+        <v>0.52832</v>
       </c>
       <c r="BT13">
-        <v>2.39281</v>
+        <v>0.23598</v>
       </c>
       <c r="BU13">
-        <v>284.56394</v>
+        <v>0.19712</v>
       </c>
       <c r="BV13">
-        <v>-117.92481</v>
+        <v>0.16469</v>
       </c>
       <c r="BW13">
-        <v>9.962009999999999</v>
+        <v>1.39297</v>
       </c>
       <c r="BX13">
-        <v>8.26019</v>
+        <v>1.13062</v>
       </c>
       <c r="BY13">
-        <v>-0.17083</v>
+        <v>-0.18834</v>
       </c>
       <c r="BZ13">
-        <v>-0.32261</v>
+        <v>0.02471</v>
       </c>
       <c r="CA13">
-        <v>-59.04782</v>
+        <v>-0.01183</v>
       </c>
       <c r="CB13">
         <v>48.74916</v>
       </c>
       <c r="CC13">
-        <v>49.99227</v>
+        <v>50.78805</v>
       </c>
       <c r="CD13">
-        <v>49.99227</v>
+        <v>50.78805</v>
       </c>
       <c r="CE13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="CF13">
-        <v>-0.21009</v>
+        <v>0.01324</v>
       </c>
       <c r="CG13">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:94">
@@ -3861,37 +3876,37 @@
         <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E14">
-        <v>10796.7181</v>
+        <v>11491.44461</v>
       </c>
       <c r="H14">
-        <v>11347.35073</v>
+        <v>12077.50828</v>
       </c>
       <c r="I14">
-        <v>11347.35073</v>
+        <v>12077.50828</v>
       </c>
       <c r="J14">
-        <v>11347.35073</v>
+        <v>12077.50828</v>
       </c>
       <c r="K14">
-        <v>11347.35073</v>
+        <v>12077.50828</v>
       </c>
       <c r="L14">
-        <v>11347.35073</v>
+        <v>12077.50828</v>
       </c>
       <c r="M14">
-        <v>11347.35073</v>
+        <v>12077.50828</v>
       </c>
       <c r="N14">
-        <v>11347.35073</v>
+        <v>12077.50828</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -4011,34 +4026,34 @@
         <v>-0.22749</v>
       </c>
       <c r="BB14">
-        <v>270.25</v>
+        <v>289.41</v>
       </c>
       <c r="BC14">
-        <v>270.25</v>
+        <v>289.41</v>
       </c>
       <c r="BD14">
-        <v>55.17561</v>
+        <v>51.52278</v>
       </c>
       <c r="BE14">
-        <v>43.57698</v>
+        <v>40.69202</v>
       </c>
       <c r="BF14">
-        <v>78.18586000000001</v>
+        <v>73.00967</v>
       </c>
       <c r="BG14">
-        <v>154.16946</v>
+        <v>143.96287</v>
       </c>
       <c r="BH14">
-        <v>161.96744</v>
+        <v>151.2446</v>
       </c>
       <c r="BI14">
-        <v>-4.62165</v>
+        <v>-4.31568</v>
       </c>
       <c r="BJ14">
-        <v>162.82664</v>
+        <v>152.04692</v>
       </c>
       <c r="BK14">
-        <v>240.92211</v>
+        <v>224.97218</v>
       </c>
       <c r="BL14">
         <v>0.5</v>
@@ -4083,16 +4098,16 @@
         <v>0.03224</v>
       </c>
       <c r="CB14">
-        <v>39.95085</v>
+        <v>39.70645</v>
       </c>
       <c r="CC14">
-        <v>41.98835</v>
+        <v>41.73148</v>
       </c>
       <c r="CD14">
-        <v>41.98835</v>
+        <v>41.73148</v>
       </c>
       <c r="CE14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="CF14">
         <v>1.08256</v>
@@ -4106,37 +4121,37 @@
         <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E15">
-        <v>5380.16084</v>
+        <v>4685.43434</v>
       </c>
       <c r="H15">
-        <v>5485.07397</v>
+        <v>4776.80031</v>
       </c>
       <c r="I15">
-        <v>5485.07397</v>
+        <v>4776.80031</v>
       </c>
       <c r="J15">
-        <v>5485.07397</v>
+        <v>4776.80031</v>
       </c>
       <c r="K15">
-        <v>5485.07397</v>
+        <v>4776.80031</v>
       </c>
       <c r="L15">
-        <v>5485.07397</v>
+        <v>4776.80031</v>
       </c>
       <c r="M15">
-        <v>5485.07397</v>
+        <v>4776.80031</v>
       </c>
       <c r="N15">
-        <v>5485.07397</v>
+        <v>4776.80031</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -4256,34 +4271,34 @@
         <v>-0.59998</v>
       </c>
       <c r="BB15">
-        <v>152.33667</v>
+        <v>133.17667</v>
       </c>
       <c r="BC15">
-        <v>152.33667</v>
+        <v>133.17667</v>
       </c>
       <c r="BD15">
-        <v>97.77578</v>
+        <v>111.84269</v>
       </c>
       <c r="BE15">
-        <v>74.22548</v>
+        <v>84.90423</v>
       </c>
       <c r="BF15">
-        <v>166.592</v>
+        <v>190.55943</v>
       </c>
       <c r="BG15">
-        <v>228.81012</v>
+        <v>261.72882</v>
       </c>
       <c r="BH15">
-        <v>14.85887</v>
+        <v>16.9966</v>
       </c>
       <c r="BI15">
-        <v>-8.3087</v>
+        <v>-9.50407</v>
       </c>
       <c r="BJ15">
-        <v>14.67079</v>
+        <v>16.78147</v>
       </c>
       <c r="BK15">
-        <v>352.12435</v>
+        <v>402.78415</v>
       </c>
       <c r="BL15">
         <v>0.5</v>
@@ -4328,16 +4343,16 @@
         <v>-0.23557</v>
       </c>
       <c r="CB15">
-        <v>35.31757</v>
+        <v>35.1821</v>
       </c>
       <c r="CC15">
-        <v>36.00626</v>
+        <v>35.86815</v>
       </c>
       <c r="CD15">
-        <v>36.00626</v>
+        <v>35.86815</v>
       </c>
       <c r="CE15" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="CF15">
         <v>-0.91194</v>
@@ -4351,13 +4366,13 @@
         <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E16">
         <v>3057.5</v>
@@ -4582,7 +4597,7 @@
         <v>32.14759</v>
       </c>
       <c r="CE16" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="CF16">
         <v>-0.04095</v>
@@ -4596,10 +4611,10 @@
         <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -4719,10 +4734,10 @@
         <v>0</v>
       </c>
       <c r="BW17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="BX17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="BZ17">
         <v>0</v>
@@ -4733,10 +4748,10 @@
         <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -4763,106 +4778,115 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-0.22598</v>
+        <v>0.00136</v>
       </c>
       <c r="T18">
-        <v>-0.22598</v>
+        <v>0.00095</v>
       </c>
       <c r="U18">
-        <v>-0.22598</v>
+        <v>0.00095</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AC18">
-        <v>-33361.90225</v>
+        <v>-334898.91613</v>
       </c>
       <c r="AD18">
-        <v>-149495.39295</v>
+        <v>-242267.85936</v>
       </c>
       <c r="AE18">
-        <v>-28576.2877</v>
+        <v>-242267.85936</v>
       </c>
       <c r="AF18">
-        <v>-217663.85665</v>
+        <v>-1018805.77712</v>
       </c>
       <c r="AG18">
-        <v>-312144.90878</v>
+        <v>-1256509.02213</v>
       </c>
       <c r="AH18">
-        <v>-58843.2852</v>
+        <v>-354185.32067</v>
       </c>
       <c r="AI18">
-        <v>-0</v>
+        <v>-210516.34131</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>-240419.97007</v>
       </c>
       <c r="AK18">
-        <v>48105.92</v>
+        <v>-347018.62338</v>
       </c>
       <c r="AL18">
-        <v>-25819.15691</v>
+        <v>-245475.34647</v>
       </c>
       <c r="AM18">
-        <v>53824.33309</v>
+        <v>-245475.34647</v>
       </c>
       <c r="AN18">
-        <v>-63412</v>
+        <v>-1557065.34</v>
       </c>
       <c r="AO18">
-        <v>-69155</v>
+        <v>-1798605.80662</v>
       </c>
       <c r="AP18">
-        <v>54031.01</v>
+        <v>-500214.83</v>
       </c>
       <c r="AQ18">
-        <v>-0</v>
+        <v>-104921.58</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>-306927.31</v>
       </c>
       <c r="AS18">
-        <v>2.44194</v>
+        <v>-0.03619</v>
       </c>
       <c r="AT18">
-        <v>0.82729</v>
+        <v>-0.01324</v>
       </c>
       <c r="AU18">
-        <v>2.88353</v>
+        <v>-0.01324</v>
       </c>
       <c r="AV18">
-        <v>0.70867</v>
+        <v>-0.52832</v>
       </c>
       <c r="AX18">
         <v>0.03</v>
       </c>
       <c r="AY18">
-        <v>1.12889</v>
+        <v>0.7935</v>
       </c>
       <c r="AZ18">
-        <v>7.37182</v>
+        <v>0.83184</v>
       </c>
       <c r="BA18">
-        <v>-5.53018</v>
+        <v>-0.04832</v>
       </c>
       <c r="BL18">
         <v>1</v>
       </c>
       <c r="BT18">
-        <v>-0</v>
+        <v>0.23598</v>
       </c>
       <c r="BU18">
-        <v>-0</v>
-      </c>
-      <c r="BW18" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX18" t="s">
-        <v>148</v>
+        <v>0.19712</v>
+      </c>
+      <c r="BV18">
+        <v>0.16469</v>
+      </c>
+      <c r="BW18">
+        <v>1.39297</v>
+      </c>
+      <c r="BX18">
+        <v>1.13062</v>
+      </c>
+      <c r="BY18">
+        <v>-0.18834</v>
       </c>
       <c r="BZ18">
         <v>0</v>
+      </c>
+      <c r="CA18">
+        <v>-0.01183</v>
       </c>
     </row>
     <row r="19" spans="1:94">
@@ -4870,43 +4894,22 @@
         <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19">
-        <v>66460.9662</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>13478.16109</v>
+        <v>145</v>
       </c>
       <c r="H19">
-        <v>69075.44233000001</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>69075.44233000001</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>69075.44233000001</v>
-      </c>
-      <c r="K19">
-        <v>69075.44233000001</v>
-      </c>
-      <c r="L19">
-        <v>69075.44233000001</v>
-      </c>
-      <c r="M19">
-        <v>69075.44233000001</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>69075.44233000001</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -4918,157 +4921,118 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>11414.72825</v>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>-0.00497</v>
       </c>
       <c r="T19">
-        <v>0.03934</v>
+        <v>-0.00497</v>
       </c>
       <c r="U19">
-        <v>0.03934</v>
-      </c>
-      <c r="V19">
-        <v>0.03934</v>
-      </c>
-      <c r="W19">
-        <v>0.03934</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
+        <v>-0.00497</v>
       </c>
       <c r="Z19">
         <v>0</v>
       </c>
-      <c r="AA19">
-        <v>0.17175</v>
-      </c>
-      <c r="AB19">
+      <c r="AC19">
+        <v>279509.89932</v>
+      </c>
+      <c r="AD19">
+        <v>264047.56183</v>
+      </c>
+      <c r="AE19">
+        <v>199868.35381</v>
+      </c>
+      <c r="AF19">
+        <v>11725.81354</v>
+      </c>
+      <c r="AG19">
+        <v>515802.03093</v>
+      </c>
+      <c r="AH19">
+        <v>548278.28551</v>
+      </c>
+      <c r="AI19">
+        <v>144307.62327</v>
+      </c>
+      <c r="AJ19">
+        <v>28057.59224</v>
+      </c>
+      <c r="AK19">
+        <v>157886.55338</v>
+      </c>
+      <c r="AL19">
+        <v>206379.87338</v>
+      </c>
+      <c r="AM19">
+        <v>157877.55338</v>
+      </c>
+      <c r="AN19">
+        <v>67.17</v>
+      </c>
+      <c r="AO19">
+        <v>225295.17662</v>
+      </c>
+      <c r="AP19">
+        <v>341962.56</v>
+      </c>
+      <c r="AQ19">
+        <v>50002</v>
+      </c>
+      <c r="AR19">
+        <v>19114.16</v>
+      </c>
+      <c r="AS19">
+        <v>-0.43513</v>
+      </c>
+      <c r="AT19">
+        <v>-0.2184</v>
+      </c>
+      <c r="AU19">
+        <v>-0.21009</v>
+      </c>
+      <c r="AV19">
+        <v>-0.99427</v>
+      </c>
+      <c r="AX19">
+        <v>0.03</v>
+      </c>
+      <c r="AY19">
+        <v>0.7323499999999999</v>
+      </c>
+      <c r="AZ19">
+        <v>0.57469</v>
+      </c>
+      <c r="BA19">
+        <v>0.21528</v>
+      </c>
+      <c r="BL19">
         <v>1</v>
       </c>
-      <c r="AC19">
-        <v>341410.44784</v>
-      </c>
-      <c r="AD19">
-        <v>165984.81062</v>
-      </c>
-      <c r="AE19">
-        <v>165984.81062</v>
-      </c>
-      <c r="AF19">
-        <v>160512.52273</v>
-      </c>
-      <c r="AG19">
-        <v>560225.58813</v>
-      </c>
-      <c r="AH19">
-        <v>571553.72246</v>
-      </c>
-      <c r="AI19">
-        <v>203679.73084</v>
-      </c>
-      <c r="AK19">
-        <v>299275.87338</v>
-      </c>
-      <c r="AL19">
-        <v>213525.23647</v>
-      </c>
-      <c r="AM19">
-        <v>249922.57647</v>
-      </c>
-      <c r="AN19">
-        <v>379304.72</v>
-      </c>
-      <c r="AO19">
-        <v>656116.22662</v>
-      </c>
-      <c r="AP19">
-        <v>485771.47</v>
-      </c>
-      <c r="AQ19">
-        <v>101780</v>
-      </c>
-      <c r="AS19">
-        <v>-0.12341</v>
-      </c>
-      <c r="AT19">
-        <v>0.28641</v>
-      </c>
-      <c r="AU19">
-        <v>0.5057</v>
-      </c>
-      <c r="AV19">
-        <v>1.36308</v>
-      </c>
-      <c r="AY19">
-        <v>0.5986900000000001</v>
-      </c>
-      <c r="AZ19">
-        <v>0.67861</v>
-      </c>
-      <c r="BA19">
-        <v>-0.13348</v>
-      </c>
-      <c r="BB19">
-        <v>1877.2</v>
-      </c>
-      <c r="BC19">
-        <v>1877.2</v>
-      </c>
-      <c r="BD19">
-        <v>181.87218</v>
-      </c>
-      <c r="BE19">
-        <v>88.42148</v>
-      </c>
-      <c r="BF19">
-        <v>88.42148</v>
-      </c>
-      <c r="BG19">
-        <v>85.50635</v>
-      </c>
-      <c r="BH19">
-        <v>159.42674</v>
-      </c>
-      <c r="BI19">
-        <v>113.74666</v>
-      </c>
-      <c r="BJ19">
-        <v>133.13583</v>
-      </c>
-      <c r="BK19">
-        <v>202.05877</v>
-      </c>
-      <c r="BL19">
-        <v>0.5</v>
-      </c>
-      <c r="BN19">
-        <v>0.5</v>
-      </c>
-      <c r="BP19">
-        <v>-0.12341</v>
-      </c>
-      <c r="BQ19">
-        <v>0.28641</v>
-      </c>
-      <c r="BR19">
-        <v>0.5057</v>
-      </c>
-      <c r="BS19">
-        <v>1.36308</v>
+      <c r="BT19">
+        <v>2.39281</v>
+      </c>
+      <c r="BU19">
+        <v>284.56394</v>
+      </c>
+      <c r="BV19">
+        <v>-117.92481</v>
+      </c>
+      <c r="BW19">
+        <v>9.962009999999999</v>
+      </c>
+      <c r="BX19">
+        <v>8.26019</v>
+      </c>
+      <c r="BY19">
+        <v>-0.17083</v>
       </c>
       <c r="BZ19">
-        <v>0.19114</v>
-      </c>
-      <c r="CB19">
-        <v>35.40431</v>
-      </c>
-      <c r="CC19">
-        <v>36.79706</v>
-      </c>
-      <c r="CD19">
-        <v>36.79706</v>
+        <v>0</v>
+      </c>
+      <c r="CA19">
+        <v>-59.04782</v>
       </c>
     </row>
     <row r="20" spans="1:94">
@@ -5076,43 +5040,22 @@
         <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20">
-        <v>66460.9662</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>13478.16109</v>
+        <v>145</v>
       </c>
       <c r="H20">
-        <v>67012.00949</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>67012.00949</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>80490.17058000001</v>
-      </c>
-      <c r="K20">
-        <v>67012.00949</v>
-      </c>
-      <c r="L20">
-        <v>67012.00949</v>
-      </c>
-      <c r="M20">
-        <v>67012.00949</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>80490.17058000001</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -5127,157 +5070,106 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0.01184</v>
+        <v>-0.22598</v>
       </c>
       <c r="T20">
-        <v>0.00829</v>
+        <v>-0.22598</v>
       </c>
       <c r="U20">
-        <v>0.00829</v>
-      </c>
-      <c r="V20">
-        <v>0.00829</v>
-      </c>
-      <c r="W20">
-        <v>0.21109</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
+        <v>-0.22598</v>
       </c>
       <c r="Z20">
         <v>0</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
       <c r="AC20">
-        <v>341410.44784</v>
+        <v>-33361.90225</v>
       </c>
       <c r="AD20">
-        <v>165984.81062</v>
+        <v>-149495.39295</v>
       </c>
       <c r="AE20">
-        <v>231738.33974</v>
+        <v>-28576.2877</v>
       </c>
       <c r="AF20">
-        <v>160512.52273</v>
+        <v>-217663.85665</v>
       </c>
       <c r="AG20">
-        <v>560225.58813</v>
+        <v>-312144.90878</v>
       </c>
       <c r="AH20">
-        <v>571553.72246</v>
+        <v>-58843.2852</v>
       </c>
       <c r="AI20">
-        <v>203679.73084</v>
+        <v>-0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
       </c>
       <c r="AK20">
-        <v>299275.87338</v>
+        <v>48105.92</v>
       </c>
       <c r="AL20">
-        <v>213525.23647</v>
+        <v>-25819.15691</v>
       </c>
       <c r="AM20">
-        <v>249922.57647</v>
+        <v>53824.33309</v>
       </c>
       <c r="AN20">
-        <v>379304.72</v>
+        <v>-63412</v>
       </c>
       <c r="AO20">
-        <v>656116.22662</v>
+        <v>-69155</v>
       </c>
       <c r="AP20">
-        <v>485771.47</v>
+        <v>54031.01</v>
       </c>
       <c r="AQ20">
-        <v>101780</v>
+        <v>-0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
       </c>
       <c r="AS20">
-        <v>-0.12341</v>
+        <v>2.44194</v>
       </c>
       <c r="AT20">
-        <v>0.28641</v>
+        <v>0.82729</v>
       </c>
       <c r="AU20">
-        <v>0.07847</v>
+        <v>2.88353</v>
       </c>
       <c r="AV20">
-        <v>1.36308</v>
+        <v>0.70867</v>
       </c>
       <c r="AX20">
         <v>0.03</v>
       </c>
       <c r="AY20">
-        <v>0.5986900000000001</v>
+        <v>1.12889</v>
       </c>
       <c r="AZ20">
-        <v>0.67861</v>
+        <v>7.37182</v>
       </c>
       <c r="BA20">
-        <v>-0.13348</v>
-      </c>
-      <c r="BB20">
-        <v>1877.2</v>
-      </c>
-      <c r="BC20">
-        <v>1877.2</v>
-      </c>
-      <c r="BD20">
-        <v>181.87218</v>
-      </c>
-      <c r="BE20">
-        <v>88.42148</v>
-      </c>
-      <c r="BF20">
-        <v>123.44893</v>
-      </c>
-      <c r="BG20">
-        <v>85.50635</v>
-      </c>
-      <c r="BH20">
-        <v>159.42674</v>
-      </c>
-      <c r="BI20">
-        <v>113.74666</v>
-      </c>
-      <c r="BJ20">
-        <v>133.13583</v>
-      </c>
-      <c r="BK20">
-        <v>202.05877</v>
+        <v>-5.53018</v>
       </c>
       <c r="BL20">
-        <v>0.5</v>
-      </c>
-      <c r="BN20">
-        <v>0.5</v>
-      </c>
-      <c r="BP20">
-        <v>-0.12341</v>
-      </c>
-      <c r="BQ20">
-        <v>0.28641</v>
-      </c>
-      <c r="BR20">
-        <v>0.07847</v>
-      </c>
-      <c r="BS20">
-        <v>1.36308</v>
+        <v>1</v>
+      </c>
+      <c r="BT20">
+        <v>-0</v>
+      </c>
+      <c r="BU20">
+        <v>-0</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>151</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>152</v>
       </c>
       <c r="BZ20">
-        <v>-0.02247</v>
-      </c>
-      <c r="CB20">
-        <v>35.40431</v>
-      </c>
-      <c r="CC20">
-        <v>35.69785</v>
-      </c>
-      <c r="CD20">
-        <v>42.87778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:94">
@@ -5285,34 +5177,43 @@
         <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="D21" t="s">
+        <v>147</v>
       </c>
       <c r="E21">
-        <v>27607.5</v>
+        <v>66861.05047</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>13083</v>
       </c>
       <c r="H21">
-        <v>27932.23549</v>
+        <v>69732.3939</v>
       </c>
       <c r="I21">
-        <v>27932.23549</v>
+        <v>69732.3939</v>
       </c>
       <c r="J21">
-        <v>27932.23549</v>
+        <v>69732.3939</v>
       </c>
       <c r="K21">
-        <v>27932.23549</v>
+        <v>69732.3939</v>
       </c>
       <c r="L21">
-        <v>27932.23549</v>
+        <v>69732.3939</v>
       </c>
       <c r="M21">
-        <v>27932.23549</v>
+        <v>69732.3939</v>
       </c>
       <c r="N21">
-        <v>27932.23549</v>
+        <v>69732.3939</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -5324,22 +5225,19 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0.0168</v>
+        <v>10766.01704</v>
       </c>
       <c r="T21">
-        <v>0.01176</v>
+        <v>0.04294</v>
       </c>
       <c r="U21">
-        <v>0.01176</v>
+        <v>0.04294</v>
       </c>
       <c r="V21">
-        <v>0.01176</v>
+        <v>0.04294</v>
       </c>
       <c r="W21">
-        <v>0.01176</v>
+        <v>0.04294</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -5351,193 +5249,133 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>0.16102</v>
       </c>
       <c r="AB21">
         <v>1</v>
       </c>
       <c r="AC21">
-        <v>16226.29492</v>
+        <v>341410.44784</v>
       </c>
       <c r="AD21">
-        <v>13687.54885</v>
+        <v>165984.81062</v>
       </c>
       <c r="AE21">
-        <v>13687.54885</v>
+        <v>165984.81062</v>
       </c>
       <c r="AF21">
-        <v>132680.0634</v>
+        <v>160512.52273</v>
       </c>
       <c r="AG21">
-        <v>116948.37727</v>
+        <v>560225.58813</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>571553.72246</v>
       </c>
       <c r="AI21">
-        <v>489.62179</v>
-      </c>
-      <c r="AJ21">
-        <v>39103.28938</v>
+        <v>203679.73084</v>
       </c>
       <c r="AK21">
-        <v>8531</v>
+        <v>299275.87338</v>
       </c>
       <c r="AL21">
-        <v>7196</v>
+        <v>213525.23647</v>
       </c>
       <c r="AM21">
-        <v>3669.96</v>
+        <v>249922.57647</v>
       </c>
       <c r="AN21">
-        <v>126396</v>
+        <v>379304.72</v>
       </c>
       <c r="AO21">
-        <v>118073</v>
+        <v>656116.22662</v>
       </c>
       <c r="AP21">
-        <v>159</v>
+        <v>485771.47</v>
       </c>
       <c r="AQ21">
-        <v>49</v>
-      </c>
-      <c r="AR21">
-        <v>55667</v>
+        <v>101780</v>
       </c>
       <c r="AS21">
-        <v>-0.47425</v>
+        <v>-0.12341</v>
       </c>
       <c r="AT21">
-        <v>-0.47427</v>
+        <v>0.28641</v>
       </c>
       <c r="AU21">
-        <v>-0.73188</v>
+        <v>0.5057</v>
       </c>
       <c r="AV21">
-        <v>-0.04736</v>
-      </c>
-      <c r="AW21">
-        <v>104</v>
-      </c>
-      <c r="AX21">
-        <v>0.042</v>
+        <v>1.36308</v>
       </c>
       <c r="AY21">
-        <v>0.88143</v>
+        <v>0.5986900000000001</v>
       </c>
       <c r="AZ21">
-        <v>0.93415</v>
+        <v>0.67861</v>
       </c>
       <c r="BA21">
-        <v>-0.05981</v>
+        <v>-0.13348</v>
       </c>
       <c r="BB21">
-        <v>2199</v>
+        <v>1887.33</v>
       </c>
       <c r="BC21">
-        <v>2199</v>
+        <v>1887.33</v>
       </c>
       <c r="BD21">
-        <v>7.37894</v>
+        <v>180.896</v>
       </c>
       <c r="BE21">
-        <v>6.22444</v>
+        <v>87.94689</v>
       </c>
       <c r="BF21">
-        <v>6.22444</v>
+        <v>87.94689</v>
       </c>
       <c r="BG21">
-        <v>60.33655</v>
+        <v>85.04741</v>
       </c>
       <c r="BH21">
-        <v>3.87949</v>
+        <v>158.57104</v>
       </c>
       <c r="BI21">
-        <v>3.2724</v>
+        <v>113.13614</v>
       </c>
       <c r="BJ21">
-        <v>1.66892</v>
+        <v>132.42124</v>
       </c>
       <c r="BK21">
-        <v>57.47885</v>
+        <v>200.97424</v>
       </c>
       <c r="BL21">
         <v>0.5</v>
       </c>
-      <c r="BO21">
+      <c r="BN21">
         <v>0.5</v>
       </c>
       <c r="BP21">
-        <v>-0.47425</v>
+        <v>-0.12341</v>
       </c>
       <c r="BQ21">
-        <v>-0.47427</v>
+        <v>0.28641</v>
       </c>
       <c r="BR21">
-        <v>-0.73188</v>
+        <v>0.5057</v>
       </c>
       <c r="BS21">
-        <v>-0.04736</v>
-      </c>
-      <c r="BT21">
-        <v>0.29472</v>
-      </c>
-      <c r="BU21">
-        <v>0.44042</v>
-      </c>
-      <c r="BV21">
-        <v>-0.49437</v>
-      </c>
-      <c r="BW21">
-        <v>0.41496</v>
-      </c>
-      <c r="BX21">
-        <v>0.15325</v>
-      </c>
-      <c r="BY21">
-        <v>-0.63069</v>
+        <v>1.36308</v>
       </c>
       <c r="BZ21">
-        <v>-0.26081</v>
-      </c>
-      <c r="CA21">
-        <v>-0.56253</v>
+        <v>0.19114</v>
       </c>
       <c r="CB21">
-        <v>12.55457</v>
+        <v>35.42626</v>
       </c>
       <c r="CC21">
-        <v>12.70224</v>
+        <v>36.94764</v>
       </c>
       <c r="CD21">
-        <v>12.70224</v>
-      </c>
-      <c r="CH21">
-        <v>100</v>
-      </c>
-      <c r="CI21">
-        <v>100</v>
-      </c>
-      <c r="CJ21">
-        <v>37.95</v>
-      </c>
-      <c r="CK21">
-        <v>103</v>
-      </c>
-      <c r="CL21">
-        <v>103</v>
-      </c>
-      <c r="CM21">
-        <v>40</v>
-      </c>
-      <c r="CN21">
-        <v>0.03</v>
-      </c>
-      <c r="CO21">
-        <v>-0.03</v>
-      </c>
-      <c r="CP21">
-        <v>0.05402</v>
+        <v>36.94764</v>
       </c>
     </row>
     <row r="22" spans="1:94">
@@ -5545,22 +5383,43 @@
         <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="D22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22">
+        <v>66861.05047</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>13083</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>67415.41095</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>67415.41095</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>80498.41095</v>
+      </c>
+      <c r="K22">
+        <v>67415.41095</v>
+      </c>
+      <c r="L22">
+        <v>67415.41095</v>
+      </c>
+      <c r="M22">
+        <v>67415.41095</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>80498.41095</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -5574,80 +5433,158 @@
       <c r="R22">
         <v>0</v>
       </c>
+      <c r="S22">
+        <v>0.01184</v>
+      </c>
+      <c r="T22">
+        <v>0.00829</v>
+      </c>
+      <c r="U22">
+        <v>0.00829</v>
+      </c>
+      <c r="V22">
+        <v>0.00829</v>
+      </c>
+      <c r="W22">
+        <v>0.20397</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
       <c r="Z22">
         <v>0</v>
       </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
       <c r="AC22">
-        <v>0</v>
+        <v>341410.44784</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>165984.81062</v>
       </c>
       <c r="AE22">
-        <v>-7051.47018</v>
+        <v>231738.33974</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>160512.52273</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>560225.58813</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>571553.72246</v>
       </c>
       <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
+        <v>203679.73084</v>
       </c>
       <c r="AK22">
-        <v>-1888</v>
+        <v>299275.87338</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>213525.23647</v>
       </c>
       <c r="AM22">
-        <v>-960.96</v>
+        <v>249922.57647</v>
       </c>
       <c r="AN22">
-        <v>-27908</v>
+        <v>379304.72</v>
       </c>
       <c r="AO22">
-        <v>-26020</v>
+        <v>656116.22662</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>485771.47</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>0</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>147</v>
+        <v>101780</v>
+      </c>
+      <c r="AS22">
+        <v>-0.12341</v>
+      </c>
+      <c r="AT22">
+        <v>0.28641</v>
       </c>
       <c r="AU22">
-        <v>0.86372</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>147</v>
+        <v>0.07847</v>
+      </c>
+      <c r="AV22">
+        <v>1.36308</v>
+      </c>
+      <c r="AX22">
+        <v>0.03</v>
+      </c>
+      <c r="AY22">
+        <v>0.5986900000000001</v>
       </c>
       <c r="AZ22">
-        <v>0.93235</v>
+        <v>0.67861</v>
+      </c>
+      <c r="BA22">
+        <v>-0.13348</v>
+      </c>
+      <c r="BB22">
+        <v>1887.33</v>
+      </c>
+      <c r="BC22">
+        <v>1887.33</v>
+      </c>
+      <c r="BD22">
+        <v>180.896</v>
+      </c>
+      <c r="BE22">
+        <v>87.94689</v>
+      </c>
+      <c r="BF22">
+        <v>122.78634</v>
+      </c>
+      <c r="BG22">
+        <v>85.04741</v>
+      </c>
+      <c r="BH22">
+        <v>158.57104</v>
+      </c>
+      <c r="BI22">
+        <v>113.13614</v>
+      </c>
+      <c r="BJ22">
+        <v>132.42124</v>
+      </c>
+      <c r="BK22">
+        <v>200.97424</v>
       </c>
       <c r="BL22">
-        <v>1</v>
-      </c>
-      <c r="BU22">
-        <v>-0</v>
-      </c>
-      <c r="BX22" t="s">
-        <v>147</v>
+        <v>0.5</v>
+      </c>
+      <c r="BN22">
+        <v>0.5</v>
+      </c>
+      <c r="BP22">
+        <v>-0.12341</v>
+      </c>
+      <c r="BQ22">
+        <v>0.28641</v>
+      </c>
+      <c r="BR22">
+        <v>0.07847</v>
+      </c>
+      <c r="BS22">
+        <v>1.36308</v>
       </c>
       <c r="BZ22">
-        <v>0</v>
+        <v>-0.02247</v>
+      </c>
+      <c r="CB22">
+        <v>35.42626</v>
+      </c>
+      <c r="CC22">
+        <v>35.71999</v>
+      </c>
+      <c r="CD22">
+        <v>42.65201</v>
       </c>
     </row>
     <row r="23" spans="1:94">
@@ -5655,23 +5592,14 @@
         <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E23">
         <v>27607.5</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
       <c r="H23">
         <v>27932.23549</v>
       </c>
@@ -5705,6 +5633,9 @@
       <c r="R23">
         <v>0</v>
       </c>
+      <c r="S23">
+        <v>0.0168</v>
+      </c>
       <c r="T23">
         <v>0.01176</v>
       </c>
@@ -5739,7 +5670,7 @@
         <v>13687.54885</v>
       </c>
       <c r="AE23">
-        <v>6636.07867</v>
+        <v>13687.54885</v>
       </c>
       <c r="AF23">
         <v>132680.0634</v>
@@ -5753,20 +5684,23 @@
       <c r="AI23">
         <v>489.62179</v>
       </c>
+      <c r="AJ23">
+        <v>39103.28938</v>
+      </c>
       <c r="AK23">
-        <v>6643</v>
+        <v>8531</v>
       </c>
       <c r="AL23">
         <v>7196</v>
       </c>
       <c r="AM23">
-        <v>2709</v>
+        <v>3669.96</v>
       </c>
       <c r="AN23">
-        <v>98488</v>
+        <v>126396</v>
       </c>
       <c r="AO23">
-        <v>92053</v>
+        <v>118073</v>
       </c>
       <c r="AP23">
         <v>159</v>
@@ -5774,26 +5708,35 @@
       <c r="AQ23">
         <v>49</v>
       </c>
+      <c r="AR23">
+        <v>55667</v>
+      </c>
       <c r="AS23">
-        <v>-0.5906</v>
+        <v>-0.47425</v>
       </c>
       <c r="AT23">
         <v>-0.47427</v>
       </c>
       <c r="AU23">
-        <v>-0.59178</v>
+        <v>-0.73188</v>
       </c>
       <c r="AV23">
-        <v>-0.2577</v>
+        <v>-0.04736</v>
+      </c>
+      <c r="AW23">
+        <v>104</v>
+      </c>
+      <c r="AX23">
+        <v>0.042</v>
       </c>
       <c r="AY23">
         <v>0.88143</v>
       </c>
       <c r="AZ23">
-        <v>0.93466</v>
+        <v>0.93415</v>
       </c>
       <c r="BA23">
-        <v>-0.06039</v>
+        <v>-0.05981</v>
       </c>
       <c r="BB23">
         <v>2199</v>
@@ -5808,22 +5751,22 @@
         <v>6.22444</v>
       </c>
       <c r="BF23">
-        <v>3.01777</v>
+        <v>6.22444</v>
       </c>
       <c r="BG23">
         <v>60.33655</v>
       </c>
       <c r="BH23">
-        <v>3.02092</v>
+        <v>3.87949</v>
       </c>
       <c r="BI23">
         <v>3.2724</v>
       </c>
       <c r="BJ23">
-        <v>1.23192</v>
+        <v>1.66892</v>
       </c>
       <c r="BK23">
-        <v>44.78763</v>
+        <v>57.47885</v>
       </c>
       <c r="BL23">
         <v>0.5</v>
@@ -5832,19 +5775,40 @@
         <v>0.5</v>
       </c>
       <c r="BP23">
-        <v>-0.5906</v>
+        <v>-0.47425</v>
       </c>
       <c r="BQ23">
         <v>-0.47427</v>
       </c>
       <c r="BR23">
-        <v>-0.59178</v>
+        <v>-0.73188</v>
       </c>
       <c r="BS23">
-        <v>-0.2577</v>
+        <v>-0.04736</v>
+      </c>
+      <c r="BT23">
+        <v>0.29472</v>
+      </c>
+      <c r="BU23">
+        <v>0.44042</v>
+      </c>
+      <c r="BV23">
+        <v>-0.49437</v>
+      </c>
+      <c r="BW23">
+        <v>0.41496</v>
+      </c>
+      <c r="BX23">
+        <v>0.15325</v>
+      </c>
+      <c r="BY23">
+        <v>-0.63069</v>
       </c>
       <c r="BZ23">
-        <v>-0.42415</v>
+        <v>-0.26081</v>
+      </c>
+      <c r="CA23">
+        <v>-0.56253</v>
       </c>
       <c r="CB23">
         <v>12.55457</v>
@@ -5854,6 +5818,33 @@
       </c>
       <c r="CD23">
         <v>12.70224</v>
+      </c>
+      <c r="CH23">
+        <v>100</v>
+      </c>
+      <c r="CI23">
+        <v>100</v>
+      </c>
+      <c r="CJ23">
+        <v>37.95</v>
+      </c>
+      <c r="CK23">
+        <v>103</v>
+      </c>
+      <c r="CL23">
+        <v>103</v>
+      </c>
+      <c r="CM23">
+        <v>40</v>
+      </c>
+      <c r="CN23">
+        <v>0.03</v>
+      </c>
+      <c r="CO23">
+        <v>-0.03</v>
+      </c>
+      <c r="CP23">
+        <v>0.05402</v>
       </c>
     </row>
     <row r="24" spans="1:94">
@@ -5861,231 +5852,547 @@
         <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>-7051.47018</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>-1888</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>-960.96</v>
+      </c>
+      <c r="AN24">
+        <v>-27908</v>
+      </c>
+      <c r="AO24">
+        <v>-26020</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU24">
+        <v>0.86372</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ24">
+        <v>0.93235</v>
+      </c>
+      <c r="BL24">
+        <v>1</v>
+      </c>
+      <c r="BU24">
+        <v>-0</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>151</v>
+      </c>
+      <c r="BZ24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:94">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
         <v>142</v>
       </c>
-      <c r="D24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24">
+      <c r="C25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25">
         <v>27607.5</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>27932.23549</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>27932.23549</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>27932.23549</v>
       </c>
-      <c r="K24">
+      <c r="K25">
         <v>27932.23549</v>
       </c>
-      <c r="L24">
+      <c r="L25">
         <v>27932.23549</v>
       </c>
-      <c r="M24">
+      <c r="M25">
         <v>27932.23549</v>
       </c>
-      <c r="N24">
+      <c r="N25">
         <v>27932.23549</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0.01176</v>
+      </c>
+      <c r="U25">
+        <v>0.01176</v>
+      </c>
+      <c r="V25">
+        <v>0.01176</v>
+      </c>
+      <c r="W25">
+        <v>0.01176</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>16226.29492</v>
+      </c>
+      <c r="AD25">
+        <v>13687.54885</v>
+      </c>
+      <c r="AE25">
+        <v>6636.07867</v>
+      </c>
+      <c r="AF25">
+        <v>132680.0634</v>
+      </c>
+      <c r="AG25">
+        <v>116948.37727</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>489.62179</v>
+      </c>
+      <c r="AK25">
+        <v>6643</v>
+      </c>
+      <c r="AL25">
+        <v>7196</v>
+      </c>
+      <c r="AM25">
+        <v>2709</v>
+      </c>
+      <c r="AN25">
+        <v>98488</v>
+      </c>
+      <c r="AO25">
+        <v>92053</v>
+      </c>
+      <c r="AP25">
+        <v>159</v>
+      </c>
+      <c r="AQ25">
+        <v>49</v>
+      </c>
+      <c r="AS25">
+        <v>-0.5906</v>
+      </c>
+      <c r="AT25">
+        <v>-0.47427</v>
+      </c>
+      <c r="AU25">
+        <v>-0.59178</v>
+      </c>
+      <c r="AV25">
+        <v>-0.2577</v>
+      </c>
+      <c r="AY25">
+        <v>0.88143</v>
+      </c>
+      <c r="AZ25">
+        <v>0.93466</v>
+      </c>
+      <c r="BA25">
+        <v>-0.06039</v>
+      </c>
+      <c r="BB25">
+        <v>2199</v>
+      </c>
+      <c r="BC25">
+        <v>2199</v>
+      </c>
+      <c r="BD25">
+        <v>7.37894</v>
+      </c>
+      <c r="BE25">
+        <v>6.22444</v>
+      </c>
+      <c r="BF25">
+        <v>3.01777</v>
+      </c>
+      <c r="BG25">
+        <v>60.33655</v>
+      </c>
+      <c r="BH25">
+        <v>3.02092</v>
+      </c>
+      <c r="BI25">
+        <v>3.2724</v>
+      </c>
+      <c r="BJ25">
+        <v>1.23192</v>
+      </c>
+      <c r="BK25">
+        <v>44.78763</v>
+      </c>
+      <c r="BL25">
+        <v>0.5</v>
+      </c>
+      <c r="BO25">
+        <v>0.5</v>
+      </c>
+      <c r="BP25">
+        <v>-0.5906</v>
+      </c>
+      <c r="BQ25">
+        <v>-0.47427</v>
+      </c>
+      <c r="BR25">
+        <v>-0.59178</v>
+      </c>
+      <c r="BS25">
+        <v>-0.2577</v>
+      </c>
+      <c r="BZ25">
+        <v>-0.42415</v>
+      </c>
+      <c r="CB25">
+        <v>12.55457</v>
+      </c>
+      <c r="CC25">
+        <v>12.70224</v>
+      </c>
+      <c r="CD25">
+        <v>12.70224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:94">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26">
+        <v>27607.5</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>27932.23549</v>
+      </c>
+      <c r="I26">
+        <v>27932.23549</v>
+      </c>
+      <c r="J26">
+        <v>27932.23549</v>
+      </c>
+      <c r="K26">
+        <v>27932.23549</v>
+      </c>
+      <c r="L26">
+        <v>27932.23549</v>
+      </c>
+      <c r="M26">
+        <v>27932.23549</v>
+      </c>
+      <c r="N26">
+        <v>27932.23549</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>0.0168</v>
       </c>
-      <c r="T24">
+      <c r="T26">
         <v>0.01176</v>
       </c>
-      <c r="U24">
+      <c r="U26">
         <v>0.01176</v>
       </c>
-      <c r="V24">
+      <c r="V26">
         <v>0.01176</v>
       </c>
-      <c r="W24">
+      <c r="W26">
         <v>0.01176</v>
       </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
         <v>16226.29492</v>
       </c>
-      <c r="AD24">
+      <c r="AD26">
         <v>13687.54885</v>
       </c>
-      <c r="AE24">
+      <c r="AE26">
         <v>6636.07867</v>
       </c>
-      <c r="AF24">
+      <c r="AF26">
         <v>132680.0634</v>
       </c>
-      <c r="AG24">
+      <c r="AG26">
         <v>116948.37727</v>
       </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
         <v>489.62179</v>
       </c>
-      <c r="AK24">
+      <c r="AK26">
         <v>6643</v>
       </c>
-      <c r="AL24">
+      <c r="AL26">
         <v>7196</v>
       </c>
-      <c r="AM24">
+      <c r="AM26">
         <v>2709</v>
       </c>
-      <c r="AN24">
+      <c r="AN26">
         <v>98488</v>
       </c>
-      <c r="AO24">
+      <c r="AO26">
         <v>92053</v>
       </c>
-      <c r="AP24">
+      <c r="AP26">
         <v>159</v>
       </c>
-      <c r="AQ24">
+      <c r="AQ26">
         <v>49</v>
       </c>
-      <c r="AS24">
+      <c r="AS26">
         <v>-0.5906</v>
       </c>
-      <c r="AT24">
+      <c r="AT26">
         <v>-0.47427</v>
       </c>
-      <c r="AU24">
+      <c r="AU26">
         <v>-0.59178</v>
       </c>
-      <c r="AV24">
+      <c r="AV26">
         <v>-0.2577</v>
       </c>
-      <c r="AY24">
+      <c r="AY26">
         <v>0.88143</v>
       </c>
-      <c r="AZ24">
+      <c r="AZ26">
         <v>0.93466</v>
       </c>
-      <c r="BA24">
+      <c r="BA26">
         <v>-0.06039</v>
       </c>
-      <c r="BB24">
+      <c r="BB26">
         <v>2199</v>
       </c>
-      <c r="BC24">
+      <c r="BC26">
         <v>2199</v>
       </c>
-      <c r="BD24">
+      <c r="BD26">
         <v>7.37894</v>
       </c>
-      <c r="BE24">
+      <c r="BE26">
         <v>6.22444</v>
       </c>
-      <c r="BF24">
+      <c r="BF26">
         <v>3.01777</v>
       </c>
-      <c r="BG24">
+      <c r="BG26">
         <v>60.33655</v>
       </c>
-      <c r="BH24">
+      <c r="BH26">
         <v>3.02092</v>
       </c>
-      <c r="BI24">
+      <c r="BI26">
         <v>3.2724</v>
       </c>
-      <c r="BJ24">
+      <c r="BJ26">
         <v>1.23192</v>
       </c>
-      <c r="BK24">
+      <c r="BK26">
         <v>44.78763</v>
       </c>
-      <c r="BL24">
+      <c r="BL26">
         <v>0.5</v>
       </c>
-      <c r="BO24">
+      <c r="BO26">
         <v>0.5</v>
       </c>
-      <c r="BP24">
+      <c r="BP26">
         <v>-0.5906</v>
       </c>
-      <c r="BQ24">
+      <c r="BQ26">
         <v>-0.47427</v>
       </c>
-      <c r="BR24">
+      <c r="BR26">
         <v>-0.59178</v>
       </c>
-      <c r="BS24">
+      <c r="BS26">
         <v>-0.2577</v>
       </c>
-      <c r="BZ24">
+      <c r="BZ26">
         <v>-0.42415</v>
       </c>
-      <c r="CB24">
+      <c r="CB26">
         <v>12.55457</v>
       </c>
-      <c r="CC24">
+      <c r="CC26">
         <v>12.70224</v>
       </c>
-      <c r="CD24">
+      <c r="CD26">
         <v>12.70224</v>
       </c>
-      <c r="CH24">
+      <c r="CH26">
         <v>100</v>
       </c>
-      <c r="CI24">
+      <c r="CI26">
         <v>100</v>
       </c>
-      <c r="CJ24">
+      <c r="CJ26">
         <v>37.95</v>
       </c>
-      <c r="CK24">
+      <c r="CK26">
         <v>103</v>
       </c>
-      <c r="CL24">
+      <c r="CL26">
         <v>103</v>
       </c>
-      <c r="CM24">
+      <c r="CM26">
         <v>40</v>
       </c>
-      <c r="CN24">
+      <c r="CN26">
         <v>0.03</v>
       </c>
-      <c r="CO24">
+      <c r="CO26">
         <v>-0.03</v>
       </c>
-      <c r="CP24">
+      <c r="CP26">
         <v>0.05402</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -2152,6 +2152,9 @@
       <c r="AI6">
         <v>6424.59047</v>
       </c>
+      <c r="AJ6">
+        <v>56844.54313</v>
+      </c>
       <c r="AK6">
         <v>75311.09</v>
       </c>
@@ -2173,6 +2176,9 @@
       <c r="AQ6">
         <v>3092.58</v>
       </c>
+      <c r="AR6">
+        <v>71928.83</v>
+      </c>
       <c r="AS6">
         <v>-0.59107</v>
       </c>
@@ -2242,8 +2248,29 @@
       <c r="BS6">
         <v>-0.13659</v>
       </c>
+      <c r="BT6">
+        <v>0.05002</v>
+      </c>
+      <c r="BU6">
+        <v>0.0733</v>
+      </c>
+      <c r="BV6">
+        <v>-0.46554</v>
+      </c>
+      <c r="BW6">
+        <v>3.23981</v>
+      </c>
+      <c r="BX6">
+        <v>1.04702</v>
+      </c>
+      <c r="BY6">
+        <v>-0.67683</v>
+      </c>
       <c r="BZ6">
         <v>-0.36383</v>
+      </c>
+      <c r="CA6">
+        <v>-0.57118</v>
       </c>
       <c r="CB6">
         <v>30.13254</v>
@@ -2358,6 +2385,9 @@
       <c r="AI7">
         <v>6424.59047</v>
       </c>
+      <c r="AJ7">
+        <v>56844.54313</v>
+      </c>
       <c r="AK7">
         <v>75311.09</v>
       </c>
@@ -2379,6 +2409,9 @@
       <c r="AQ7">
         <v>3092.58</v>
       </c>
+      <c r="AR7">
+        <v>71928.83</v>
+      </c>
       <c r="AS7">
         <v>-0.59107</v>
       </c>
@@ -2448,8 +2481,29 @@
       <c r="BS7">
         <v>-0.13659</v>
       </c>
+      <c r="BT7">
+        <v>0.05002</v>
+      </c>
+      <c r="BU7">
+        <v>0.0733</v>
+      </c>
+      <c r="BV7">
+        <v>-0.46554</v>
+      </c>
+      <c r="BW7">
+        <v>3.23981</v>
+      </c>
+      <c r="BX7">
+        <v>1.04702</v>
+      </c>
+      <c r="BY7">
+        <v>-0.67683</v>
+      </c>
       <c r="BZ7">
         <v>-0.36383</v>
+      </c>
+      <c r="CA7">
+        <v>-0.57118</v>
       </c>
       <c r="CB7">
         <v>30.13254</v>
@@ -5261,7 +5315,7 @@
         <v>165984.81062</v>
       </c>
       <c r="AE21">
-        <v>165984.81062</v>
+        <v>231738.33974</v>
       </c>
       <c r="AF21">
         <v>160512.52273</v>
@@ -5275,6 +5329,9 @@
       <c r="AI21">
         <v>203679.73084</v>
       </c>
+      <c r="AJ21">
+        <v>96116.1109</v>
+      </c>
       <c r="AK21">
         <v>299275.87338</v>
       </c>
@@ -5296,6 +5353,9 @@
       <c r="AQ21">
         <v>101780</v>
       </c>
+      <c r="AR21">
+        <v>109916.65</v>
+      </c>
       <c r="AS21">
         <v>-0.12341</v>
       </c>
@@ -5303,7 +5363,7 @@
         <v>0.28641</v>
       </c>
       <c r="AU21">
-        <v>0.5057</v>
+        <v>0.07847</v>
       </c>
       <c r="AV21">
         <v>1.36308</v>
@@ -5330,7 +5390,7 @@
         <v>87.94689</v>
       </c>
       <c r="BF21">
-        <v>87.94689</v>
+        <v>122.78634</v>
       </c>
       <c r="BG21">
         <v>85.04741</v>
@@ -5360,13 +5420,34 @@
         <v>0.28641</v>
       </c>
       <c r="BR21">
-        <v>0.5057</v>
+        <v>0.07847</v>
       </c>
       <c r="BS21">
         <v>1.36308</v>
       </c>
+      <c r="BT21">
+        <v>0.59881</v>
+      </c>
+      <c r="BU21">
+        <v>0.28978</v>
+      </c>
+      <c r="BV21">
+        <v>0.51606</v>
+      </c>
+      <c r="BW21">
+        <v>3.55206</v>
+      </c>
+      <c r="BX21">
+        <v>2.72275</v>
+      </c>
+      <c r="BY21">
+        <v>-0.23347</v>
+      </c>
       <c r="BZ21">
-        <v>0.19114</v>
+        <v>-0.02247</v>
+      </c>
+      <c r="CA21">
+        <v>0.1413</v>
       </c>
       <c r="CB21">
         <v>35.42626</v>
@@ -5481,6 +5562,9 @@
       <c r="AI22">
         <v>203679.73084</v>
       </c>
+      <c r="AJ22">
+        <v>96116.1109</v>
+      </c>
       <c r="AK22">
         <v>299275.87338</v>
       </c>
@@ -5502,6 +5586,9 @@
       <c r="AQ22">
         <v>101780</v>
       </c>
+      <c r="AR22">
+        <v>109916.65</v>
+      </c>
       <c r="AS22">
         <v>-0.12341</v>
       </c>
@@ -5574,8 +5661,29 @@
       <c r="BS22">
         <v>1.36308</v>
       </c>
+      <c r="BT22">
+        <v>0.59881</v>
+      </c>
+      <c r="BU22">
+        <v>0.28978</v>
+      </c>
+      <c r="BV22">
+        <v>0.51606</v>
+      </c>
+      <c r="BW22">
+        <v>3.55206</v>
+      </c>
+      <c r="BX22">
+        <v>2.72275</v>
+      </c>
+      <c r="BY22">
+        <v>-0.23347</v>
+      </c>
       <c r="BZ22">
         <v>-0.02247</v>
+      </c>
+      <c r="CA22">
+        <v>0.1413</v>
       </c>
       <c r="CB22">
         <v>35.42626</v>
@@ -6060,6 +6168,9 @@
       <c r="AI25">
         <v>489.62179</v>
       </c>
+      <c r="AJ25">
+        <v>39103.28938</v>
+      </c>
       <c r="AK25">
         <v>6643</v>
       </c>
@@ -6081,6 +6192,9 @@
       <c r="AQ25">
         <v>49</v>
       </c>
+      <c r="AR25">
+        <v>55667</v>
+      </c>
       <c r="AS25">
         <v>-0.5906</v>
       </c>
@@ -6150,8 +6264,29 @@
       <c r="BS25">
         <v>-0.2577</v>
       </c>
+      <c r="BT25">
+        <v>0.29472</v>
+      </c>
+      <c r="BU25">
+        <v>0.5652199999999999</v>
+      </c>
+      <c r="BV25">
+        <v>-0.91782</v>
+      </c>
+      <c r="BW25">
+        <v>0.41496</v>
+      </c>
+      <c r="BX25">
+        <v>0.11933</v>
+      </c>
+      <c r="BY25">
+        <v>-0.7124200000000001</v>
+      </c>
       <c r="BZ25">
         <v>-0.42415</v>
+      </c>
+      <c r="CA25">
+        <v>-0.81512</v>
       </c>
       <c r="CB25">
         <v>12.55457</v>
@@ -6266,6 +6401,9 @@
       <c r="AI26">
         <v>489.62179</v>
       </c>
+      <c r="AJ26">
+        <v>39103.28938</v>
+      </c>
       <c r="AK26">
         <v>6643</v>
       </c>
@@ -6287,6 +6425,9 @@
       <c r="AQ26">
         <v>49</v>
       </c>
+      <c r="AR26">
+        <v>55667</v>
+      </c>
       <c r="AS26">
         <v>-0.5906</v>
       </c>
@@ -6356,8 +6497,29 @@
       <c r="BS26">
         <v>-0.2577</v>
       </c>
+      <c r="BT26">
+        <v>0.29472</v>
+      </c>
+      <c r="BU26">
+        <v>0.5652199999999999</v>
+      </c>
+      <c r="BV26">
+        <v>-0.91782</v>
+      </c>
+      <c r="BW26">
+        <v>0.41496</v>
+      </c>
+      <c r="BX26">
+        <v>0.11933</v>
+      </c>
+      <c r="BY26">
+        <v>-0.7124200000000001</v>
+      </c>
       <c r="BZ26">
         <v>-0.42415</v>
+      </c>
+      <c r="CA26">
+        <v>-0.81512</v>
       </c>
       <c r="CB26">
         <v>12.55457</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="155">
   <si>
     <t>var_name</t>
   </si>
@@ -97,7 +97,10 @@
     <t>扣减/上年度工资总额（最终）</t>
   </si>
   <si>
-    <t>板块微调系数</t>
+    <t>板块微调系数（递延）</t>
+  </si>
+  <si>
+    <t>板块微调系数（总包）</t>
   </si>
   <si>
     <t>上年度利润总额（万元）</t>
@@ -833,13 +836,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP26"/>
+  <dimension ref="A1:CQ26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:94">
+    <row r="1" spans="1:95">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1122,16 +1125,19 @@
       <c r="CP1" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="2" spans="1:94">
+    <row r="2" spans="1:95">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E2">
         <v>21843.97892</v>
@@ -1206,165 +1212,168 @@
         <v>1</v>
       </c>
       <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
         <v>143168.44334</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>49692.82738</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>18893.61183</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>886442.41662</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>745684.17467</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>3328.99457</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>188.52961</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>23933.71212</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>39460.98</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>4076.46</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1549.06</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>690945</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>663653.1899999999</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>13079</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>43.17</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>30990.56</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>-0.72437</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>-0.91797</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>-0.91801</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>-0.22054</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>0.84121</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>0.9605</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>-0.14181</v>
-      </c>
-      <c r="BB2">
-        <v>576</v>
       </c>
       <c r="BC2">
         <v>576</v>
       </c>
       <c r="BD2">
+        <v>576</v>
+      </c>
+      <c r="BE2">
         <v>248.55633</v>
       </c>
-      <c r="BE2">
+      <c r="BF2">
         <v>86.27227000000001</v>
       </c>
-      <c r="BF2">
+      <c r="BG2">
         <v>32.80141</v>
       </c>
-      <c r="BG2">
+      <c r="BH2">
         <v>1538.96253</v>
       </c>
-      <c r="BH2">
+      <c r="BI2">
         <v>68.50865</v>
       </c>
-      <c r="BI2">
+      <c r="BJ2">
         <v>7.07719</v>
       </c>
-      <c r="BJ2">
+      <c r="BK2">
         <v>2.68934</v>
       </c>
-      <c r="BK2">
+      <c r="BL2">
         <v>1199.55729</v>
       </c>
-      <c r="BL2">
+      <c r="BM2">
         <v>0.5</v>
       </c>
-      <c r="BO2">
+      <c r="BP2">
         <v>0.5</v>
       </c>
-      <c r="BP2">
+      <c r="BQ2">
         <v>-0.72437</v>
       </c>
-      <c r="BQ2">
+      <c r="BR2">
         <v>-0.91797</v>
       </c>
-      <c r="BR2">
+      <c r="BS2">
         <v>-0.91801</v>
       </c>
-      <c r="BS2">
+      <c r="BT2">
         <v>-0.22054</v>
       </c>
-      <c r="BT2">
+      <c r="BU2">
         <v>0.027</v>
       </c>
-      <c r="BU2">
+      <c r="BV2">
         <v>0.04485</v>
       </c>
-      <c r="BV2">
+      <c r="BW2">
         <v>-0.66122</v>
       </c>
-      <c r="BW2">
+      <c r="BX2">
         <v>5.98187</v>
       </c>
-      <c r="BX2">
+      <c r="BY2">
         <v>1.27332</v>
       </c>
-      <c r="BY2">
+      <c r="BZ2">
         <v>-0.78714</v>
       </c>
-      <c r="BZ2">
+      <c r="CA2">
         <v>-0.47246</v>
       </c>
-      <c r="CA2">
+      <c r="CB2">
         <v>-0.72418</v>
       </c>
-      <c r="CB2">
+      <c r="CC2">
         <v>37.92357</v>
       </c>
-      <c r="CC2">
+      <c r="CD2">
         <v>12.07113</v>
       </c>
-      <c r="CD2">
+      <c r="CE2">
         <v>30.24984</v>
       </c>
     </row>
-    <row r="3" spans="1:94">
+    <row r="3" spans="1:95">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E3">
         <v>21230.00011</v>
@@ -1439,165 +1448,168 @@
         <v>1</v>
       </c>
       <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
         <v>18920.73966</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>14966.2841</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>8261.459999999999</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>137746.32534</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>117459.15994</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-9429.282999999999</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>2375.78189</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>24472.09499</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>17085.11</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>11409.35</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>6288.83</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>174137.11</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>159196.45</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>862.36</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>2549.41</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>28948.27</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>-0.09702</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>-0.23766</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>-0.23877</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>0.26419</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <v>0.85272</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>0.9142</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>-0.0721</v>
-      </c>
-      <c r="BB3">
-        <v>901</v>
       </c>
       <c r="BC3">
         <v>901</v>
       </c>
       <c r="BD3">
+        <v>901</v>
+      </c>
+      <c r="BE3">
         <v>20.99971</v>
       </c>
-      <c r="BE3">
+      <c r="BF3">
         <v>16.61075</v>
       </c>
-      <c r="BF3">
+      <c r="BG3">
         <v>9.16921</v>
       </c>
-      <c r="BG3">
+      <c r="BH3">
         <v>152.8816</v>
       </c>
-      <c r="BH3">
+      <c r="BI3">
         <v>18.96239</v>
       </c>
-      <c r="BI3">
+      <c r="BJ3">
         <v>12.66299</v>
       </c>
-      <c r="BJ3">
+      <c r="BK3">
         <v>6.97983</v>
       </c>
-      <c r="BK3">
+      <c r="BL3">
         <v>193.27093</v>
       </c>
-      <c r="BL3">
+      <c r="BM3">
         <v>0.5</v>
       </c>
-      <c r="BO3">
+      <c r="BP3">
         <v>0.5</v>
       </c>
-      <c r="BP3">
+      <c r="BQ3">
         <v>-0.09702</v>
       </c>
-      <c r="BQ3">
+      <c r="BR3">
         <v>-0.23766</v>
       </c>
-      <c r="BR3">
+      <c r="BS3">
         <v>-0.23877</v>
       </c>
-      <c r="BS3">
+      <c r="BT3">
         <v>0.26419</v>
       </c>
-      <c r="BT3">
+      <c r="BU3">
         <v>0.17766</v>
       </c>
-      <c r="BU3">
+      <c r="BV3">
         <v>0.16624</v>
       </c>
-      <c r="BV3">
+      <c r="BW3">
         <v>0.06429</v>
       </c>
-      <c r="BW3">
+      <c r="BX3">
         <v>0.77316</v>
       </c>
-      <c r="BX3">
+      <c r="BY3">
         <v>0.59019</v>
       </c>
-      <c r="BY3">
+      <c r="BZ3">
         <v>-0.23664</v>
       </c>
-      <c r="BZ3">
+      <c r="CA3">
         <v>0.08359</v>
       </c>
-      <c r="CA3">
+      <c r="CB3">
         <v>-0.08617</v>
       </c>
-      <c r="CB3">
+      <c r="CC3">
         <v>23.56271</v>
       </c>
-      <c r="CC3">
+      <c r="CD3">
         <v>21.97686</v>
       </c>
-      <c r="CD3">
+      <c r="CE3">
         <v>21.79553</v>
       </c>
     </row>
-    <row r="4" spans="1:94">
+    <row r="4" spans="1:95">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E4">
         <v>3944</v>
@@ -1669,165 +1681,168 @@
         <v>1</v>
       </c>
       <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
         <v>20455.40531</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>15369.23546</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>13871</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>102246.65952</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>75260.64234000001</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>7741.53268</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>3802.90723</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>4662.36954</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>16667</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>12500</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>11302.5</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>102938</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>72227</v>
       </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
       <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
         <v>500</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>6343</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>-0.1852</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <v>-0.18669</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>-0.18517</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>0.00676</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>0.73607</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>0.70166</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>0.04675</v>
-      </c>
-      <c r="BB4">
-        <v>79</v>
       </c>
       <c r="BC4">
         <v>79</v>
       </c>
       <c r="BD4">
+        <v>79</v>
+      </c>
+      <c r="BE4">
         <v>258.92918</v>
       </c>
-      <c r="BE4">
+      <c r="BF4">
         <v>194.54728</v>
       </c>
-      <c r="BF4">
+      <c r="BG4">
         <v>175.58228</v>
       </c>
-      <c r="BG4">
+      <c r="BH4">
         <v>1294.26151</v>
       </c>
-      <c r="BH4">
+      <c r="BI4">
         <v>210.97468</v>
       </c>
-      <c r="BI4">
+      <c r="BJ4">
         <v>158.22785</v>
       </c>
-      <c r="BJ4">
+      <c r="BK4">
         <v>143.06962</v>
       </c>
-      <c r="BK4">
+      <c r="BL4">
         <v>1303.01266</v>
       </c>
-      <c r="BL4">
+      <c r="BM4">
         <v>0.5</v>
       </c>
-      <c r="BO4">
+      <c r="BP4">
         <v>0.5</v>
       </c>
-      <c r="BP4">
+      <c r="BQ4">
         <v>-0.1852</v>
       </c>
-      <c r="BQ4">
+      <c r="BR4">
         <v>-0.18669</v>
       </c>
-      <c r="BR4">
+      <c r="BS4">
         <v>-0.18517</v>
       </c>
-      <c r="BS4">
+      <c r="BT4">
         <v>0.00676</v>
       </c>
-      <c r="BT4">
+      <c r="BU4">
         <v>0.0456</v>
       </c>
-      <c r="BU4">
+      <c r="BV4">
         <v>0.06162</v>
       </c>
-      <c r="BV4">
+      <c r="BW4">
         <v>-0.35133</v>
       </c>
-      <c r="BW4">
+      <c r="BX4">
         <v>4.38734</v>
       </c>
-      <c r="BX4">
+      <c r="BY4">
         <v>2.62762</v>
       </c>
-      <c r="BY4">
+      <c r="BZ4">
         <v>-0.40109</v>
       </c>
-      <c r="BZ4">
+      <c r="CA4">
         <v>-0.08921999999999999</v>
       </c>
-      <c r="CA4">
+      <c r="CB4">
         <v>-0.37621</v>
       </c>
-      <c r="CB4">
+      <c r="CC4">
         <v>49.92405</v>
       </c>
-      <c r="CC4">
+      <c r="CD4">
         <v>42.59518</v>
       </c>
-      <c r="CD4">
+      <c r="CE4">
         <v>42.75447</v>
       </c>
     </row>
-    <row r="5" spans="1:94">
+    <row r="5" spans="1:95">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5">
         <v>2821.24228</v>
@@ -1899,168 +1914,171 @@
         <v>1</v>
       </c>
       <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
         <v>1620.83713</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>1224.35928</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1199.87209</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>10036.37117</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>9098.94326</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>737.4291899999999</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>57.37174</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>3776.36647</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>2098</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1783</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>1747</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>13223</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>11488</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>343</v>
       </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
       <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>5647</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>0.29439</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <v>0.45627</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>0.45599</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <v>0.31751</v>
       </c>
-      <c r="AY5">
+      <c r="AZ5">
         <v>0.9066</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>0.86879</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <v>0.0417</v>
-      </c>
-      <c r="BB5">
-        <v>98</v>
       </c>
       <c r="BC5">
         <v>98</v>
       </c>
       <c r="BD5">
+        <v>98</v>
+      </c>
+      <c r="BE5">
         <v>16.53915</v>
       </c>
-      <c r="BE5">
+      <c r="BF5">
         <v>12.49346</v>
       </c>
-      <c r="BF5">
+      <c r="BG5">
         <v>12.24359</v>
       </c>
-      <c r="BG5">
+      <c r="BH5">
         <v>102.41195</v>
       </c>
-      <c r="BH5">
+      <c r="BI5">
         <v>21.40816</v>
       </c>
-      <c r="BI5">
+      <c r="BJ5">
         <v>18.19388</v>
       </c>
-      <c r="BJ5">
+      <c r="BK5">
         <v>17.82653</v>
       </c>
-      <c r="BK5">
+      <c r="BL5">
         <v>134.92857</v>
       </c>
-      <c r="BL5">
+      <c r="BM5">
         <v>0.5</v>
       </c>
-      <c r="BO5">
+      <c r="BP5">
         <v>0.5</v>
       </c>
-      <c r="BP5">
+      <c r="BQ5">
         <v>0.29439</v>
       </c>
-      <c r="BQ5">
+      <c r="BR5">
         <v>0.45627</v>
       </c>
-      <c r="BR5">
+      <c r="BS5">
         <v>0.45599</v>
       </c>
-      <c r="BS5">
+      <c r="BT5">
         <v>0.31751</v>
       </c>
-      <c r="BT5">
+      <c r="BU5">
         <v>0.37627</v>
       </c>
-      <c r="BU5">
+      <c r="BV5">
         <v>0.42706</v>
       </c>
-      <c r="BV5">
+      <c r="BW5">
         <v>-0.13499</v>
       </c>
-      <c r="BW5">
+      <c r="BX5">
         <v>0.42921</v>
       </c>
-      <c r="BX5">
+      <c r="BY5">
         <v>0.37152</v>
       </c>
-      <c r="BY5">
+      <c r="BZ5">
         <v>-0.13439</v>
       </c>
-      <c r="BZ5">
+      <c r="CA5">
         <v>0.30595</v>
       </c>
-      <c r="CA5">
+      <c r="CB5">
         <v>-0.13469</v>
       </c>
-      <c r="CB5">
+      <c r="CC5">
         <v>28.78819</v>
       </c>
-      <c r="CC5">
+      <c r="CD5">
         <v>32.64216</v>
       </c>
-      <c r="CD5">
+      <c r="CE5">
         <v>32.73314</v>
       </c>
     </row>
-    <row r="6" spans="1:94">
+    <row r="6" spans="1:95">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E6">
         <v>49839.22132</v>
@@ -2132,168 +2150,171 @@
         <v>1</v>
       </c>
       <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
         <v>184165.42544</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>81252.70621</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>42225.94392</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>1136471.77266</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>947502.92021</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>2378.67344</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>6424.59047</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>56844.54313</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>75311.09</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>29768.81</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>20887.39</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>981243.11</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>906564.64</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>14284.36</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>3092.58</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>71928.83</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>-0.59107</v>
       </c>
-      <c r="AT6">
+      <c r="AU6">
         <v>-0.63363</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>-0.50534</v>
       </c>
-      <c r="AV6">
+      <c r="AW6">
         <v>-0.13659</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <v>0.83372</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <v>0.92389</v>
       </c>
-      <c r="BA6">
+      <c r="BB6">
         <v>-0.10815</v>
-      </c>
-      <c r="BB6">
-        <v>1654</v>
       </c>
       <c r="BC6">
         <v>1654</v>
       </c>
       <c r="BD6">
+        <v>1654</v>
+      </c>
+      <c r="BE6">
         <v>111.34548</v>
       </c>
-      <c r="BE6">
+      <c r="BF6">
         <v>49.12497</v>
       </c>
-      <c r="BF6">
+      <c r="BG6">
         <v>25.52959</v>
       </c>
-      <c r="BG6">
+      <c r="BH6">
         <v>687.10506</v>
       </c>
-      <c r="BH6">
+      <c r="BI6">
         <v>45.5327</v>
       </c>
-      <c r="BI6">
+      <c r="BJ6">
         <v>17.99807</v>
       </c>
-      <c r="BJ6">
+      <c r="BK6">
         <v>12.62841</v>
       </c>
-      <c r="BK6">
+      <c r="BL6">
         <v>593.2546</v>
       </c>
-      <c r="BL6">
+      <c r="BM6">
         <v>0.5</v>
       </c>
-      <c r="BO6">
+      <c r="BP6">
         <v>0.5</v>
       </c>
-      <c r="BP6">
+      <c r="BQ6">
         <v>-0.59107</v>
       </c>
-      <c r="BQ6">
+      <c r="BR6">
         <v>-0.63363</v>
       </c>
-      <c r="BR6">
+      <c r="BS6">
         <v>-0.50534</v>
       </c>
-      <c r="BS6">
+      <c r="BT6">
         <v>-0.13659</v>
       </c>
-      <c r="BT6">
+      <c r="BU6">
         <v>0.05002</v>
       </c>
-      <c r="BU6">
+      <c r="BV6">
         <v>0.0733</v>
       </c>
-      <c r="BV6">
+      <c r="BW6">
         <v>-0.46554</v>
       </c>
-      <c r="BW6">
+      <c r="BX6">
         <v>3.23981</v>
       </c>
-      <c r="BX6">
+      <c r="BY6">
         <v>1.04702</v>
       </c>
-      <c r="BY6">
+      <c r="BZ6">
         <v>-0.67683</v>
       </c>
-      <c r="BZ6">
+      <c r="CA6">
         <v>-0.36383</v>
       </c>
-      <c r="CA6">
+      <c r="CB6">
         <v>-0.57118</v>
       </c>
-      <c r="CB6">
+      <c r="CC6">
         <v>30.13254</v>
       </c>
-      <c r="CC6">
+      <c r="CD6">
         <v>20.14393</v>
       </c>
-      <c r="CD6">
+      <c r="CE6">
         <v>26.38883</v>
       </c>
     </row>
-    <row r="7" spans="1:94">
+    <row r="7" spans="1:95">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E7">
         <v>49839.22132</v>
@@ -2364,169 +2385,169 @@
       <c r="AA7">
         <v>0</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>184165.42544</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>81252.70621</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>42225.94392</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1136471.77266</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>947502.92021</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>2378.67344</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>6424.59047</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>56844.54313</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>75311.09</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>29768.81</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>20887.39</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>981243.11</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>906564.64</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>14284.36</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>3092.58</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>71928.83</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>-0.59107</v>
       </c>
-      <c r="AT7">
+      <c r="AU7">
         <v>-0.63363</v>
       </c>
-      <c r="AU7">
+      <c r="AV7">
         <v>-0.50534</v>
       </c>
-      <c r="AV7">
+      <c r="AW7">
         <v>-0.13659</v>
       </c>
-      <c r="AY7">
+      <c r="AZ7">
         <v>0.83372</v>
       </c>
-      <c r="AZ7">
+      <c r="BA7">
         <v>0.92389</v>
       </c>
-      <c r="BA7">
+      <c r="BB7">
         <v>-0.10815</v>
-      </c>
-      <c r="BB7">
-        <v>1654</v>
       </c>
       <c r="BC7">
         <v>1654</v>
       </c>
       <c r="BD7">
+        <v>1654</v>
+      </c>
+      <c r="BE7">
         <v>111.34548</v>
       </c>
-      <c r="BE7">
+      <c r="BF7">
         <v>49.12497</v>
       </c>
-      <c r="BF7">
+      <c r="BG7">
         <v>25.52959</v>
       </c>
-      <c r="BG7">
+      <c r="BH7">
         <v>687.10506</v>
       </c>
-      <c r="BH7">
+      <c r="BI7">
         <v>45.5327</v>
       </c>
-      <c r="BI7">
+      <c r="BJ7">
         <v>17.99807</v>
       </c>
-      <c r="BJ7">
+      <c r="BK7">
         <v>12.62841</v>
       </c>
-      <c r="BK7">
+      <c r="BL7">
         <v>593.2546</v>
       </c>
-      <c r="BL7">
+      <c r="BM7">
         <v>0.5</v>
       </c>
-      <c r="BO7">
+      <c r="BP7">
         <v>0.5</v>
       </c>
-      <c r="BP7">
+      <c r="BQ7">
         <v>-0.59107</v>
       </c>
-      <c r="BQ7">
+      <c r="BR7">
         <v>-0.63363</v>
       </c>
-      <c r="BR7">
+      <c r="BS7">
         <v>-0.50534</v>
       </c>
-      <c r="BS7">
+      <c r="BT7">
         <v>-0.13659</v>
       </c>
-      <c r="BT7">
+      <c r="BU7">
         <v>0.05002</v>
       </c>
-      <c r="BU7">
+      <c r="BV7">
         <v>0.0733</v>
       </c>
-      <c r="BV7">
+      <c r="BW7">
         <v>-0.46554</v>
       </c>
-      <c r="BW7">
+      <c r="BX7">
         <v>3.23981</v>
       </c>
-      <c r="BX7">
+      <c r="BY7">
         <v>1.04702</v>
       </c>
-      <c r="BY7">
+      <c r="BZ7">
         <v>-0.67683</v>
       </c>
-      <c r="BZ7">
+      <c r="CA7">
         <v>-0.36383</v>
       </c>
-      <c r="CA7">
+      <c r="CB7">
         <v>-0.57118</v>
       </c>
-      <c r="CB7">
+      <c r="CC7">
         <v>30.13254</v>
       </c>
-      <c r="CC7">
+      <c r="CD7">
         <v>15.83602</v>
       </c>
-      <c r="CD7">
+      <c r="CE7">
         <v>28.19242</v>
       </c>
     </row>
-    <row r="8" spans="1:94">
+    <row r="8" spans="1:95">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E8">
         <v>22234.52126</v>
@@ -2598,174 +2619,177 @@
         <v>1</v>
       </c>
       <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
         <v>50520.4144</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>25561.64905</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>287.13364</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>206009.02667</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>176658.72749</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>19009.96135</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>2442.1352</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>32509.50645</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>2555.5</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>-6270.69</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>-7003.69</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>181658.7</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>180226.2</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>575</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>348</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>41089</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>-0.94942</v>
       </c>
-      <c r="AT8">
+      <c r="AU8">
         <v>-1.24532</v>
       </c>
-      <c r="AU8">
+      <c r="AV8">
         <v>-25.39174</v>
       </c>
-      <c r="AV8">
+      <c r="AW8">
         <v>-0.1182</v>
       </c>
-      <c r="AW8">
+      <c r="AX8">
         <v>105</v>
       </c>
-      <c r="AX8">
+      <c r="AY8">
         <v>0.045</v>
       </c>
-      <c r="AY8">
+      <c r="AZ8">
         <v>0.77665</v>
       </c>
-      <c r="AZ8">
+      <c r="BA8">
         <v>0.9871</v>
       </c>
-      <c r="BA8">
+      <c r="BB8">
         <v>-0.27096</v>
-      </c>
-      <c r="BB8">
-        <v>742.13</v>
       </c>
       <c r="BC8">
         <v>742.13</v>
       </c>
       <c r="BD8">
+        <v>742.13</v>
+      </c>
+      <c r="BE8">
         <v>68.07487999999999</v>
       </c>
-      <c r="BE8">
+      <c r="BF8">
         <v>34.44363</v>
       </c>
-      <c r="BF8">
+      <c r="BG8">
         <v>0.3869</v>
       </c>
-      <c r="BG8">
+      <c r="BH8">
         <v>277.59156</v>
       </c>
-      <c r="BH8">
+      <c r="BI8">
         <v>3.44347</v>
       </c>
-      <c r="BI8">
+      <c r="BJ8">
         <v>-8.449579999999999</v>
       </c>
-      <c r="BJ8">
+      <c r="BK8">
         <v>-9.437279999999999</v>
       </c>
-      <c r="BK8">
+      <c r="BL8">
         <v>244.78016</v>
       </c>
-      <c r="BL8">
+      <c r="BM8">
         <v>0.5</v>
       </c>
-      <c r="BN8">
+      <c r="BO8">
         <v>0.5</v>
       </c>
-      <c r="BP8">
+      <c r="BQ8">
         <v>-0.94942</v>
       </c>
-      <c r="BQ8">
+      <c r="BR8">
         <v>-1.24532</v>
       </c>
-      <c r="BR8">
+      <c r="BS8">
         <v>-25.39174</v>
       </c>
-      <c r="BS8">
+      <c r="BT8">
         <v>-0.1182</v>
       </c>
-      <c r="BT8">
+      <c r="BU8">
         <v>0.15781</v>
       </c>
-      <c r="BU8">
+      <c r="BV8">
         <v>0.22619</v>
       </c>
-      <c r="BV8">
+      <c r="BW8">
         <v>-0.43333</v>
       </c>
-      <c r="BW8">
+      <c r="BX8">
         <v>1.55402</v>
       </c>
-      <c r="BX8">
+      <c r="BY8">
         <v>0.06219</v>
       </c>
-      <c r="BY8">
+      <c r="BZ8">
         <v>-0.9599800000000001</v>
       </c>
-      <c r="BZ8">
+      <c r="CA8">
         <v>-13.17058</v>
       </c>
-      <c r="CA8">
+      <c r="CB8">
         <v>-0.69665</v>
       </c>
-      <c r="CB8">
+      <c r="CC8">
         <v>29.96041</v>
-      </c>
-      <c r="CC8">
-        <v>31.30863</v>
       </c>
       <c r="CD8">
         <v>31.30863</v>
       </c>
+      <c r="CE8">
+        <v>31.30863</v>
+      </c>
     </row>
-    <row r="9" spans="1:94">
+    <row r="9" spans="1:95">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E9">
         <v>1738.473</v>
@@ -2834,31 +2858,31 @@
         <v>1</v>
       </c>
       <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
         <v>3.3775</v>
-      </c>
-      <c r="AD9">
-        <v>2.53313</v>
       </c>
       <c r="AE9">
         <v>2.53313</v>
       </c>
       <c r="AF9">
-        <v>317.23616</v>
+        <v>2.53313</v>
       </c>
       <c r="AG9">
         <v>317.23616</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>317.23616</v>
       </c>
       <c r="AI9">
         <v>0</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
         <v>2540.08345</v>
-      </c>
-      <c r="AK9">
-        <v>13.93</v>
       </c>
       <c r="AL9">
         <v>13.93</v>
@@ -2867,67 +2891,67 @@
         <v>13.93</v>
       </c>
       <c r="AN9">
+        <v>13.93</v>
+      </c>
+      <c r="AO9">
         <v>30033.83</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>30019.9</v>
       </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
       <c r="AQ9">
         <v>0</v>
       </c>
       <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
         <v>5913.53</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>3.12435</v>
-      </c>
-      <c r="AT9">
-        <v>4.49913</v>
       </c>
       <c r="AU9">
         <v>4.49913</v>
       </c>
       <c r="AV9">
+        <v>4.49913</v>
+      </c>
+      <c r="AW9">
         <v>93.67341</v>
       </c>
-      <c r="AW9">
+      <c r="AX9">
         <v>104</v>
       </c>
-      <c r="AX9">
+      <c r="AY9">
         <v>0.042</v>
       </c>
-      <c r="AY9">
+      <c r="AZ9">
         <v>1</v>
       </c>
-      <c r="AZ9">
+      <c r="BA9">
         <v>0.99954</v>
       </c>
-      <c r="BA9">
+      <c r="BB9">
         <v>0.00046</v>
-      </c>
-      <c r="BB9">
-        <v>54.95</v>
       </c>
       <c r="BC9">
         <v>54.95</v>
       </c>
       <c r="BD9">
+        <v>54.95</v>
+      </c>
+      <c r="BE9">
         <v>0.06146</v>
-      </c>
-      <c r="BE9">
-        <v>0.0461</v>
       </c>
       <c r="BF9">
         <v>0.0461</v>
       </c>
       <c r="BG9">
+        <v>0.0461</v>
+      </c>
+      <c r="BH9">
         <v>5.77318</v>
-      </c>
-      <c r="BH9">
-        <v>0.2535</v>
       </c>
       <c r="BI9">
         <v>0.2535</v>
@@ -2936,72 +2960,75 @@
         <v>0.2535</v>
       </c>
       <c r="BK9">
+        <v>0.2535</v>
+      </c>
+      <c r="BL9">
         <v>546.56652</v>
       </c>
-      <c r="BL9">
+      <c r="BM9">
         <v>0.5</v>
       </c>
-      <c r="BN9">
+      <c r="BO9">
         <v>0.5</v>
       </c>
-      <c r="BP9">
+      <c r="BQ9">
         <v>3.12435</v>
-      </c>
-      <c r="BQ9">
-        <v>4.49913</v>
       </c>
       <c r="BR9">
         <v>4.49913</v>
       </c>
       <c r="BS9">
+        <v>4.49913</v>
+      </c>
+      <c r="BT9">
         <v>93.67341</v>
       </c>
-      <c r="BT9">
+      <c r="BU9">
         <v>8.006919999999999</v>
       </c>
-      <c r="BU9">
+      <c r="BV9">
         <v>0.1969</v>
       </c>
-      <c r="BV9">
+      <c r="BW9">
         <v>0.97541</v>
       </c>
-      <c r="BW9">
+      <c r="BX9">
         <v>0.00133</v>
       </c>
-      <c r="BX9">
+      <c r="BY9">
         <v>0.00236</v>
       </c>
-      <c r="BY9">
+      <c r="BZ9">
         <v>0.77156</v>
       </c>
-      <c r="BZ9">
+      <c r="CA9">
         <v>3.81174</v>
       </c>
-      <c r="CA9">
+      <c r="CB9">
         <v>0.87349</v>
       </c>
-      <c r="CB9">
+      <c r="CC9">
         <v>31.63736</v>
-      </c>
-      <c r="CC9">
-        <v>32.96613</v>
       </c>
       <c r="CD9">
         <v>32.96613</v>
       </c>
+      <c r="CE9">
+        <v>32.96613</v>
+      </c>
     </row>
-    <row r="10" spans="1:94">
+    <row r="10" spans="1:95">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E10">
         <v>2005.91978</v>
@@ -3070,31 +3097,31 @@
         <v>1</v>
       </c>
       <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
         <v>-4031.55981</v>
-      </c>
-      <c r="AD10">
-        <v>-4044.18827</v>
       </c>
       <c r="AE10">
         <v>-4044.18827</v>
       </c>
       <c r="AF10">
+        <v>-4044.18827</v>
+      </c>
+      <c r="AG10">
         <v>324.51673</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>4356.07654</v>
       </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
       <c r="AI10">
         <v>0</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
         <v>2669.47693</v>
-      </c>
-      <c r="AK10">
-        <v>-22353.49</v>
       </c>
       <c r="AL10">
         <v>-22353.49</v>
@@ -3103,67 +3130,67 @@
         <v>-22353.49</v>
       </c>
       <c r="AN10">
+        <v>-22353.49</v>
+      </c>
+      <c r="AO10">
         <v>6282.89</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>28636.38</v>
       </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
       <c r="AQ10">
         <v>0</v>
       </c>
       <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>2790.38</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <v>-4.54463</v>
-      </c>
-      <c r="AT10">
-        <v>-4.52731</v>
       </c>
       <c r="AU10">
         <v>-4.52731</v>
       </c>
       <c r="AV10">
+        <v>-4.52731</v>
+      </c>
+      <c r="AW10">
         <v>18.36076</v>
       </c>
-      <c r="AW10">
+      <c r="AX10">
         <v>105</v>
       </c>
-      <c r="AX10">
+      <c r="AY10">
         <v>0.045</v>
       </c>
-      <c r="AY10">
+      <c r="AZ10">
         <v>13.42327</v>
       </c>
-      <c r="AZ10">
+      <c r="BA10">
         <v>4.55784</v>
       </c>
-      <c r="BA10">
+      <c r="BB10">
         <v>0.66045</v>
-      </c>
-      <c r="BB10">
-        <v>51</v>
       </c>
       <c r="BC10">
         <v>51</v>
       </c>
       <c r="BD10">
+        <v>51</v>
+      </c>
+      <c r="BE10">
         <v>-79.05019</v>
-      </c>
-      <c r="BE10">
-        <v>-79.29781</v>
       </c>
       <c r="BF10">
         <v>-79.29781</v>
       </c>
       <c r="BG10">
+        <v>-79.29781</v>
+      </c>
+      <c r="BH10">
         <v>6.36307</v>
-      </c>
-      <c r="BH10">
-        <v>-438.30373</v>
       </c>
       <c r="BI10">
         <v>-438.30373</v>
@@ -3172,72 +3199,75 @@
         <v>-438.30373</v>
       </c>
       <c r="BK10">
+        <v>-438.30373</v>
+      </c>
+      <c r="BL10">
         <v>123.19392</v>
       </c>
-      <c r="BL10">
+      <c r="BM10">
         <v>0.5</v>
       </c>
-      <c r="BN10">
+      <c r="BO10">
         <v>0.5</v>
       </c>
-      <c r="BP10">
+      <c r="BQ10">
         <v>-4.54463</v>
-      </c>
-      <c r="BQ10">
-        <v>-4.52731</v>
       </c>
       <c r="BR10">
         <v>-4.52731</v>
       </c>
       <c r="BS10">
+        <v>-4.52731</v>
+      </c>
+      <c r="BT10">
         <v>18.36076</v>
       </c>
-      <c r="BT10">
+      <c r="BU10">
         <v>8.22601</v>
       </c>
-      <c r="BU10">
+      <c r="BV10">
         <v>0.44412</v>
       </c>
-      <c r="BV10">
+      <c r="BW10">
         <v>0.94601</v>
       </c>
-      <c r="BW10">
+      <c r="BX10">
         <v>-1.51024</v>
       </c>
-      <c r="BX10">
+      <c r="BY10">
         <v>-8.010910000000001</v>
       </c>
-      <c r="BY10">
+      <c r="BZ10">
         <v>-4.30439</v>
       </c>
-      <c r="BZ10">
+      <c r="CA10">
         <v>-4.53597</v>
       </c>
-      <c r="CA10">
+      <c r="CB10">
         <v>-1.67919</v>
       </c>
-      <c r="CB10">
+      <c r="CC10">
         <v>39.33176</v>
-      </c>
-      <c r="CC10">
-        <v>41.10169</v>
       </c>
       <c r="CD10">
         <v>41.10169</v>
       </c>
+      <c r="CE10">
+        <v>41.10169</v>
+      </c>
     </row>
-    <row r="11" spans="1:94">
+    <row r="11" spans="1:95">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E11">
         <v>6628.4</v>
@@ -3306,32 +3336,32 @@
         <v>1</v>
       </c>
       <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
         <v>20.84264</v>
-      </c>
-      <c r="AD11">
-        <v>0.1982</v>
       </c>
       <c r="AE11">
         <v>0.1982</v>
       </c>
       <c r="AF11">
+        <v>0.1982</v>
+      </c>
+      <c r="AG11">
         <v>29567.45911</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>29569.31481</v>
       </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
       <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <v>19.25593</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>9724.85886</v>
       </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
       <c r="AL11">
         <v>0</v>
       </c>
@@ -3339,22 +3369,22 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>32460.9</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>32460.9</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>32460.9</v>
       </c>
       <c r="AQ11">
         <v>0</v>
       </c>
       <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
         <v>9738.389999999999</v>
-      </c>
-      <c r="AS11">
-        <v>-1</v>
       </c>
       <c r="AT11">
         <v>-1</v>
@@ -3363,44 +3393,44 @@
         <v>-1</v>
       </c>
       <c r="AV11">
+        <v>-1</v>
+      </c>
+      <c r="AW11">
         <v>0.09786</v>
       </c>
-      <c r="AW11">
+      <c r="AX11">
         <v>105</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <v>0.045</v>
       </c>
-      <c r="AY11">
+      <c r="AZ11">
         <v>0.99941</v>
       </c>
-      <c r="AZ11">
+      <c r="BA11">
         <v>1</v>
       </c>
-      <c r="BA11">
+      <c r="BB11">
         <v>-0.00059</v>
-      </c>
-      <c r="BB11">
-        <v>195</v>
       </c>
       <c r="BC11">
         <v>195</v>
       </c>
       <c r="BD11">
+        <v>195</v>
+      </c>
+      <c r="BE11">
         <v>0.10689</v>
-      </c>
-      <c r="BE11">
-        <v>0.00102</v>
       </c>
       <c r="BF11">
         <v>0.00102</v>
       </c>
       <c r="BG11">
+        <v>0.00102</v>
+      </c>
+      <c r="BH11">
         <v>151.628</v>
       </c>
-      <c r="BH11">
-        <v>0</v>
-      </c>
       <c r="BI11">
         <v>0</v>
       </c>
@@ -3408,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
         <v>166.46615</v>
       </c>
-      <c r="BL11">
+      <c r="BM11">
         <v>0.5</v>
       </c>
-      <c r="BN11">
+      <c r="BO11">
         <v>0.5</v>
-      </c>
-      <c r="BP11">
-        <v>-1</v>
       </c>
       <c r="BQ11">
         <v>-1</v>
@@ -3426,54 +3456,57 @@
         <v>-1</v>
       </c>
       <c r="BS11">
+        <v>-1</v>
+      </c>
+      <c r="BT11">
         <v>0.09786</v>
       </c>
-      <c r="BT11">
+      <c r="BU11">
         <v>0.3289</v>
       </c>
-      <c r="BU11">
+      <c r="BV11">
         <v>0.3</v>
       </c>
-      <c r="BV11">
+      <c r="BW11">
         <v>0.08787</v>
       </c>
-      <c r="BW11">
+      <c r="BX11">
         <v>0.00214</v>
       </c>
-      <c r="BX11">
-        <v>0</v>
-      </c>
       <c r="BY11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BZ11">
         <v>-1</v>
       </c>
       <c r="CA11">
+        <v>-1</v>
+      </c>
+      <c r="CB11">
         <v>-0.45607</v>
       </c>
-      <c r="CB11">
+      <c r="CC11">
         <v>33.99179</v>
-      </c>
-      <c r="CC11">
-        <v>35.52143</v>
       </c>
       <c r="CD11">
         <v>35.52143</v>
       </c>
+      <c r="CE11">
+        <v>35.52143</v>
+      </c>
     </row>
-    <row r="12" spans="1:94">
+    <row r="12" spans="1:95">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E12">
         <v>1727.24812</v>
@@ -3542,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -3551,23 +3584,23 @@
         <v>0</v>
       </c>
       <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
         <v>3156.59217</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>3952.1832</v>
       </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
       <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>761.91937</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>2479.80665</v>
       </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
       <c r="AL12">
         <v>0</v>
       </c>
@@ -3575,46 +3608,46 @@
         <v>0</v>
       </c>
       <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
         <v>7129.94</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>8128.94</v>
       </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
       <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
         <v>999</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <v>2539.25</v>
       </c>
-      <c r="AV12">
+      <c r="AW12">
         <v>1.25875</v>
       </c>
-      <c r="AW12">
+      <c r="AX12">
         <v>106</v>
       </c>
-      <c r="AX12">
+      <c r="AY12">
         <v>0.048</v>
       </c>
-      <c r="AY12">
+      <c r="AZ12">
         <v>1.00859</v>
       </c>
-      <c r="AZ12">
+      <c r="BA12">
         <v>1</v>
       </c>
-      <c r="BA12">
+      <c r="BB12">
         <v>0.00852</v>
-      </c>
-      <c r="BB12">
-        <v>51</v>
       </c>
       <c r="BC12">
         <v>51</v>
       </c>
       <c r="BD12">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="BE12">
         <v>0</v>
@@ -3623,11 +3656,11 @@
         <v>0</v>
       </c>
       <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
         <v>61.89396</v>
       </c>
-      <c r="BH12">
-        <v>0</v>
-      </c>
       <c r="BI12">
         <v>0</v>
       </c>
@@ -3635,60 +3668,63 @@
         <v>0</v>
       </c>
       <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
         <v>139.80275</v>
       </c>
-      <c r="BL12">
+      <c r="BM12">
         <v>0.5</v>
       </c>
-      <c r="BN12">
+      <c r="BO12">
         <v>0.5</v>
       </c>
-      <c r="BS12">
+      <c r="BT12">
         <v>1.25875</v>
       </c>
-      <c r="BT12">
+      <c r="BU12">
         <v>0.7856</v>
       </c>
-      <c r="BU12">
+      <c r="BV12">
         <v>0.35614</v>
       </c>
-      <c r="BV12">
+      <c r="BW12">
         <v>0.54666</v>
       </c>
-      <c r="BW12">
-        <v>0</v>
-      </c>
       <c r="BX12">
         <v>0</v>
       </c>
-      <c r="BZ12">
+      <c r="BY12">
         <v>0</v>
       </c>
       <c r="CA12">
+        <v>0</v>
+      </c>
+      <c r="CB12">
         <v>0.54666</v>
       </c>
-      <c r="CB12">
+      <c r="CC12">
         <v>33.86761</v>
-      </c>
-      <c r="CC12">
-        <v>35.49326</v>
       </c>
       <c r="CD12">
         <v>35.49326</v>
       </c>
+      <c r="CE12">
+        <v>35.49326</v>
+      </c>
     </row>
-    <row r="13" spans="1:94">
+    <row r="13" spans="1:95">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E13">
         <v>13292.10937</v>
@@ -3760,183 +3796,186 @@
         <v>1</v>
       </c>
       <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
         <v>334898.91613</v>
-      </c>
-      <c r="AD13">
-        <v>242267.85936</v>
       </c>
       <c r="AE13">
         <v>242267.85936</v>
       </c>
       <c r="AF13">
+        <v>242267.85936</v>
+      </c>
+      <c r="AG13">
         <v>1018805.77712</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>1256509.02213</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>354185.32067</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>210516.34131</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>240419.97007</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>347018.62338</v>
-      </c>
-      <c r="AL13">
-        <v>245475.34647</v>
       </c>
       <c r="AM13">
         <v>245475.34647</v>
       </c>
       <c r="AN13">
+        <v>245475.34647</v>
+      </c>
+      <c r="AO13">
         <v>1557065.34</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>1798605.80662</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>500214.83</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>104921.58</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <v>306927.31</v>
       </c>
-      <c r="AS13">
+      <c r="AT13">
         <v>0.03619</v>
-      </c>
-      <c r="AT13">
-        <v>0.01324</v>
       </c>
       <c r="AU13">
         <v>0.01324</v>
       </c>
       <c r="AV13">
+        <v>0.01324</v>
+      </c>
+      <c r="AW13">
         <v>0.52832</v>
       </c>
-      <c r="AW13">
+      <c r="AX13">
         <v>107</v>
       </c>
-      <c r="AX13">
+      <c r="AY13">
         <v>0.051</v>
       </c>
-      <c r="AY13">
+      <c r="AZ13">
         <v>0.7935</v>
       </c>
-      <c r="AZ13">
+      <c r="BA13">
         <v>0.83184</v>
       </c>
-      <c r="BA13">
+      <c r="BB13">
         <v>-0.04832</v>
-      </c>
-      <c r="BB13">
-        <v>272.66333</v>
       </c>
       <c r="BC13">
         <v>272.66333</v>
       </c>
       <c r="BD13">
+        <v>272.66333</v>
+      </c>
+      <c r="BE13">
         <v>1228.25065</v>
-      </c>
-      <c r="BE13">
-        <v>888.52379</v>
       </c>
       <c r="BF13">
         <v>888.52379</v>
       </c>
       <c r="BG13">
+        <v>888.52379</v>
+      </c>
+      <c r="BH13">
         <v>3736.49718</v>
       </c>
-      <c r="BH13">
+      <c r="BI13">
         <v>1272.7</v>
-      </c>
-      <c r="BI13">
-        <v>900.28734</v>
       </c>
       <c r="BJ13">
         <v>900.28734</v>
       </c>
       <c r="BK13">
+        <v>900.28734</v>
+      </c>
+      <c r="BL13">
         <v>5710.57839</v>
       </c>
-      <c r="BL13">
+      <c r="BM13">
         <v>0.5</v>
       </c>
-      <c r="BN13">
+      <c r="BO13">
         <v>0.5</v>
       </c>
-      <c r="BP13">
+      <c r="BQ13">
         <v>0.03619</v>
-      </c>
-      <c r="BQ13">
-        <v>0.01324</v>
       </c>
       <c r="BR13">
         <v>0.01324</v>
       </c>
       <c r="BS13">
+        <v>0.01324</v>
+      </c>
+      <c r="BT13">
         <v>0.52832</v>
       </c>
-      <c r="BT13">
+      <c r="BU13">
         <v>0.23598</v>
       </c>
-      <c r="BU13">
+      <c r="BV13">
         <v>0.19712</v>
       </c>
-      <c r="BV13">
+      <c r="BW13">
         <v>0.16469</v>
       </c>
-      <c r="BW13">
+      <c r="BX13">
         <v>1.39297</v>
       </c>
-      <c r="BX13">
+      <c r="BY13">
         <v>1.13062</v>
       </c>
-      <c r="BY13">
+      <c r="BZ13">
         <v>-0.18834</v>
       </c>
-      <c r="BZ13">
+      <c r="CA13">
         <v>0.02471</v>
       </c>
-      <c r="CA13">
+      <c r="CB13">
         <v>-0.01183</v>
       </c>
-      <c r="CB13">
+      <c r="CC13">
         <v>48.74916</v>
-      </c>
-      <c r="CC13">
-        <v>50.78805</v>
       </c>
       <c r="CD13">
         <v>50.78805</v>
       </c>
-      <c r="CE13" t="s">
-        <v>153</v>
-      </c>
-      <c r="CF13">
+      <c r="CE13">
+        <v>50.78805</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>154</v>
+      </c>
+      <c r="CG13">
         <v>0.01324</v>
       </c>
-      <c r="CG13">
+      <c r="CH13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:94">
+    <row r="14" spans="1:95">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E14">
         <v>11491.44461</v>
@@ -4005,183 +4044,186 @@
         <v>1</v>
       </c>
       <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
         <v>14911.20859</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>11776.67807</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>21129.72941</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>41664.29553</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>15562.0728</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>32.54717</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>13.24162</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>8879.418100000001</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>43771.7</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-1249</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>44003.9</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>65109.2</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>29818.5</v>
       </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
       <c r="AQ14">
         <v>0</v>
       </c>
       <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
         <v>18575.84</v>
       </c>
-      <c r="AS14">
+      <c r="AT14">
         <v>1.93549</v>
       </c>
-      <c r="AT14">
+      <c r="AU14">
         <v>-1.10606</v>
       </c>
-      <c r="AU14">
+      <c r="AV14">
         <v>1.08256</v>
       </c>
-      <c r="AV14">
+      <c r="AW14">
         <v>0.56271</v>
       </c>
-      <c r="AW14">
+      <c r="AX14">
         <v>104</v>
       </c>
-      <c r="AX14">
+      <c r="AY14">
         <v>0.042</v>
       </c>
-      <c r="AY14">
+      <c r="AZ14">
         <v>0.3731</v>
       </c>
-      <c r="AZ14">
+      <c r="BA14">
         <v>0.45798</v>
       </c>
-      <c r="BA14">
+      <c r="BB14">
         <v>-0.22749</v>
-      </c>
-      <c r="BB14">
-        <v>289.41</v>
       </c>
       <c r="BC14">
         <v>289.41</v>
       </c>
       <c r="BD14">
+        <v>289.41</v>
+      </c>
+      <c r="BE14">
         <v>51.52278</v>
       </c>
-      <c r="BE14">
+      <c r="BF14">
         <v>40.69202</v>
       </c>
-      <c r="BF14">
+      <c r="BG14">
         <v>73.00967</v>
       </c>
-      <c r="BG14">
+      <c r="BH14">
         <v>143.96287</v>
       </c>
-      <c r="BH14">
+      <c r="BI14">
         <v>151.2446</v>
       </c>
-      <c r="BI14">
+      <c r="BJ14">
         <v>-4.31568</v>
       </c>
-      <c r="BJ14">
+      <c r="BK14">
         <v>152.04692</v>
       </c>
-      <c r="BK14">
+      <c r="BL14">
         <v>224.97218</v>
       </c>
-      <c r="BL14">
+      <c r="BM14">
         <v>0.5</v>
       </c>
-      <c r="BN14">
+      <c r="BO14">
         <v>0.5</v>
       </c>
-      <c r="BP14">
+      <c r="BQ14">
         <v>1.93549</v>
       </c>
-      <c r="BQ14">
+      <c r="BR14">
         <v>-1.10606</v>
       </c>
-      <c r="BR14">
+      <c r="BS14">
         <v>1.08256</v>
       </c>
-      <c r="BS14">
+      <c r="BT14">
         <v>0.56271</v>
       </c>
-      <c r="BT14">
+      <c r="BU14">
         <v>0.21312</v>
       </c>
-      <c r="BU14">
+      <c r="BV14">
         <v>0.2853</v>
       </c>
-      <c r="BV14">
+      <c r="BW14">
         <v>-0.33871</v>
       </c>
-      <c r="BW14">
+      <c r="BX14">
         <v>1.6793</v>
       </c>
-      <c r="BX14">
+      <c r="BY14">
         <v>2.35638</v>
       </c>
-      <c r="BY14">
+      <c r="BZ14">
         <v>0.40319</v>
       </c>
-      <c r="BZ14">
+      <c r="CA14">
         <v>1.50902</v>
       </c>
-      <c r="CA14">
+      <c r="CB14">
         <v>0.03224</v>
       </c>
-      <c r="CB14">
+      <c r="CC14">
         <v>39.70645</v>
-      </c>
-      <c r="CC14">
-        <v>41.73148</v>
       </c>
       <c r="CD14">
         <v>41.73148</v>
       </c>
-      <c r="CE14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CF14">
+      <c r="CE14">
+        <v>41.73148</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>154</v>
+      </c>
+      <c r="CG14">
         <v>1.08256</v>
       </c>
-      <c r="CG14">
+      <c r="CH14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:94">
+    <row r="15" spans="1:95">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E15">
         <v>4685.43434</v>
@@ -4250,183 +4292,186 @@
         <v>1</v>
       </c>
       <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
         <v>14894.8362</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>11307.26285</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>25378.07028</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>34856.17126</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>22680.27298</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>2492.50513</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>208.44061</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>5275.57829</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>2263.55</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-1265.72</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>2234.9</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>53641.45</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <v>54060.9</v>
       </c>
-      <c r="AP15">
+      <c r="AQ15">
         <v>2310</v>
       </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
       <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
         <v>5101.1</v>
       </c>
-      <c r="AS15">
+      <c r="AT15">
         <v>-0.84803</v>
       </c>
-      <c r="AT15">
+      <c r="AU15">
         <v>-1.11194</v>
       </c>
-      <c r="AU15">
+      <c r="AV15">
         <v>-0.91194</v>
       </c>
-      <c r="AV15">
+      <c r="AW15">
         <v>0.53894</v>
       </c>
-      <c r="AW15">
+      <c r="AX15">
         <v>103</v>
       </c>
-      <c r="AX15">
+      <c r="AY15">
         <v>0.039</v>
       </c>
-      <c r="AY15">
+      <c r="AZ15">
         <v>0.60389</v>
       </c>
-      <c r="AZ15">
+      <c r="BA15">
         <v>0.96621</v>
       </c>
-      <c r="BA15">
+      <c r="BB15">
         <v>-0.59998</v>
-      </c>
-      <c r="BB15">
-        <v>133.17667</v>
       </c>
       <c r="BC15">
         <v>133.17667</v>
       </c>
       <c r="BD15">
+        <v>133.17667</v>
+      </c>
+      <c r="BE15">
         <v>111.84269</v>
       </c>
-      <c r="BE15">
+      <c r="BF15">
         <v>84.90423</v>
       </c>
-      <c r="BF15">
+      <c r="BG15">
         <v>190.55943</v>
       </c>
-      <c r="BG15">
+      <c r="BH15">
         <v>261.72882</v>
       </c>
-      <c r="BH15">
+      <c r="BI15">
         <v>16.9966</v>
       </c>
-      <c r="BI15">
+      <c r="BJ15">
         <v>-9.50407</v>
       </c>
-      <c r="BJ15">
+      <c r="BK15">
         <v>16.78147</v>
       </c>
-      <c r="BK15">
+      <c r="BL15">
         <v>402.78415</v>
       </c>
-      <c r="BL15">
+      <c r="BM15">
         <v>0.5</v>
       </c>
-      <c r="BN15">
+      <c r="BO15">
         <v>0.5</v>
       </c>
-      <c r="BP15">
+      <c r="BQ15">
         <v>-0.84803</v>
       </c>
-      <c r="BQ15">
+      <c r="BR15">
         <v>-1.11194</v>
       </c>
-      <c r="BR15">
+      <c r="BS15">
         <v>-0.91194</v>
       </c>
-      <c r="BS15">
+      <c r="BT15">
         <v>0.53894</v>
       </c>
-      <c r="BT15">
+      <c r="BU15">
         <v>0.15135</v>
       </c>
-      <c r="BU15">
+      <c r="BV15">
         <v>0.0951</v>
       </c>
-      <c r="BV15">
+      <c r="BW15">
         <v>0.37169</v>
       </c>
-      <c r="BW15">
+      <c r="BX15">
         <v>2.82336</v>
       </c>
-      <c r="BX15">
+      <c r="BY15">
         <v>0.44374</v>
       </c>
-      <c r="BY15">
+      <c r="BZ15">
         <v>-0.84283</v>
       </c>
-      <c r="BZ15">
+      <c r="CA15">
         <v>-0.87998</v>
       </c>
-      <c r="CA15">
+      <c r="CB15">
         <v>-0.23557</v>
       </c>
-      <c r="CB15">
+      <c r="CC15">
         <v>35.1821</v>
-      </c>
-      <c r="CC15">
-        <v>35.86815</v>
       </c>
       <c r="CD15">
         <v>35.86815</v>
       </c>
-      <c r="CE15" t="s">
-        <v>153</v>
-      </c>
-      <c r="CF15">
+      <c r="CE15">
+        <v>35.86815</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>154</v>
+      </c>
+      <c r="CG15">
         <v>-0.91194</v>
       </c>
-      <c r="CG15">
+      <c r="CH15">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:94">
+    <row r="16" spans="1:95">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E16">
         <v>3057.5</v>
@@ -4495,180 +4540,183 @@
         <v>1</v>
       </c>
       <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
         <v>8357.242700000001</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>7399.8872</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>3950.55944</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>27061.56093</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>21434.01337</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1990.00297</v>
       </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
         <v>3979.78993</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>7496</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>6372</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>3788.79</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>35090</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <v>29394</v>
       </c>
-      <c r="AP16">
+      <c r="AQ16">
         <v>1800</v>
       </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
       <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
         <v>5055</v>
       </c>
-      <c r="AS16">
+      <c r="AT16">
         <v>-0.10305</v>
       </c>
-      <c r="AT16">
+      <c r="AU16">
         <v>-0.13891</v>
       </c>
-      <c r="AU16">
+      <c r="AV16">
         <v>-0.04095</v>
       </c>
-      <c r="AV16">
+      <c r="AW16">
         <v>0.29667</v>
       </c>
-      <c r="AW16">
+      <c r="AX16">
         <v>103</v>
       </c>
-      <c r="AX16">
+      <c r="AY16">
         <v>0.039</v>
       </c>
-      <c r="AY16">
+      <c r="AZ16">
         <v>0.7377899999999999</v>
       </c>
-      <c r="AZ16">
+      <c r="BA16">
         <v>0.7968</v>
       </c>
-      <c r="BA16">
+      <c r="BB16">
         <v>-0.07998</v>
-      </c>
-      <c r="BB16">
-        <v>98</v>
       </c>
       <c r="BC16">
         <v>98</v>
       </c>
       <c r="BD16">
+        <v>98</v>
+      </c>
+      <c r="BE16">
         <v>85.27799</v>
       </c>
-      <c r="BE16">
+      <c r="BF16">
         <v>75.50905</v>
       </c>
-      <c r="BF16">
+      <c r="BG16">
         <v>40.31183</v>
       </c>
-      <c r="BG16">
+      <c r="BH16">
         <v>276.13838</v>
       </c>
-      <c r="BH16">
+      <c r="BI16">
         <v>76.4898</v>
       </c>
-      <c r="BI16">
+      <c r="BJ16">
         <v>65.02041</v>
       </c>
-      <c r="BJ16">
+      <c r="BK16">
         <v>38.66112</v>
       </c>
-      <c r="BK16">
+      <c r="BL16">
         <v>358.06122</v>
       </c>
-      <c r="BL16">
+      <c r="BM16">
         <v>0.5</v>
       </c>
-      <c r="BN16">
+      <c r="BO16">
         <v>0.5</v>
       </c>
-      <c r="BP16">
+      <c r="BQ16">
         <v>-0.10305</v>
       </c>
-      <c r="BQ16">
+      <c r="BR16">
         <v>-0.13891</v>
       </c>
-      <c r="BR16">
+      <c r="BS16">
         <v>-0.04095</v>
       </c>
-      <c r="BS16">
+      <c r="BT16">
         <v>0.29667</v>
       </c>
-      <c r="BT16">
+      <c r="BU16">
         <v>0.14706</v>
       </c>
-      <c r="BU16">
+      <c r="BV16">
         <v>0.14406</v>
       </c>
-      <c r="BV16">
+      <c r="BW16">
         <v>0.02044</v>
       </c>
-      <c r="BW16">
+      <c r="BX16">
         <v>2.09992</v>
       </c>
-      <c r="BX16">
+      <c r="BY16">
         <v>1.48289</v>
       </c>
-      <c r="BY16">
+      <c r="BZ16">
         <v>-0.29384</v>
       </c>
-      <c r="BZ16">
+      <c r="CA16">
         <v>-0.07199999999999999</v>
       </c>
-      <c r="CA16">
+      <c r="CB16">
         <v>-0.1367</v>
       </c>
-      <c r="CB16">
+      <c r="CC16">
         <v>31.19898</v>
-      </c>
-      <c r="CC16">
-        <v>32.14759</v>
       </c>
       <c r="CD16">
         <v>32.14759</v>
       </c>
-      <c r="CE16" t="s">
-        <v>153</v>
-      </c>
-      <c r="CF16">
+      <c r="CE16">
+        <v>32.14759</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>154</v>
+      </c>
+      <c r="CG16">
         <v>-0.04095</v>
       </c>
-      <c r="CG16">
+      <c r="CH16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:94">
+    <row r="17" spans="1:95">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -4706,106 +4754,112 @@
       <c r="Z17">
         <v>0</v>
       </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
       <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
         <v>10586.08854</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-571.37848</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>13742.23782</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>23493.70728</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>82038.56862999999</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>58593.70552</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>55927.11484</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
         <v>59536.21</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>57717.49</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>17536.35</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>31242.64</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>107230.33</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
         <v>85092.89999999999</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>50431</v>
       </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
       <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
         <v>4.624</v>
       </c>
-      <c r="AT17">
+      <c r="AU17">
         <v>102.01446</v>
       </c>
-      <c r="AU17">
+      <c r="AV17">
         <v>0.27609</v>
       </c>
-      <c r="AV17">
+      <c r="AW17">
         <v>0.32983</v>
       </c>
-      <c r="AX17">
+      <c r="AY17">
         <v>0.03</v>
       </c>
-      <c r="AY17">
+      <c r="AZ17">
         <v>0.5944199999999999</v>
       </c>
-      <c r="AZ17">
+      <c r="BA17">
         <v>0.643</v>
       </c>
-      <c r="BA17">
+      <c r="BB17">
         <v>-0.08172</v>
       </c>
-      <c r="BL17">
+      <c r="BM17">
         <v>1</v>
       </c>
-      <c r="BT17">
-        <v>0</v>
-      </c>
       <c r="BU17">
         <v>0</v>
       </c>
-      <c r="BW17" t="s">
-        <v>152</v>
+      <c r="BV17">
+        <v>0</v>
       </c>
       <c r="BX17" t="s">
-        <v>152</v>
-      </c>
-      <c r="BZ17">
+        <v>153</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>153</v>
+      </c>
+      <c r="CA17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:94">
+    <row r="18" spans="1:95">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -4843,115 +4897,121 @@
       <c r="Z18">
         <v>0</v>
       </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
       <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
         <v>-334898.91613</v>
-      </c>
-      <c r="AD18">
-        <v>-242267.85936</v>
       </c>
       <c r="AE18">
         <v>-242267.85936</v>
       </c>
       <c r="AF18">
+        <v>-242267.85936</v>
+      </c>
+      <c r="AG18">
         <v>-1018805.77712</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-1256509.02213</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>-354185.32067</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>-210516.34131</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>-240419.97007</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>-347018.62338</v>
-      </c>
-      <c r="AL18">
-        <v>-245475.34647</v>
       </c>
       <c r="AM18">
         <v>-245475.34647</v>
       </c>
       <c r="AN18">
+        <v>-245475.34647</v>
+      </c>
+      <c r="AO18">
         <v>-1557065.34</v>
       </c>
-      <c r="AO18">
+      <c r="AP18">
         <v>-1798605.80662</v>
       </c>
-      <c r="AP18">
+      <c r="AQ18">
         <v>-500214.83</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <v>-104921.58</v>
       </c>
-      <c r="AR18">
+      <c r="AS18">
         <v>-306927.31</v>
       </c>
-      <c r="AS18">
+      <c r="AT18">
         <v>-0.03619</v>
-      </c>
-      <c r="AT18">
-        <v>-0.01324</v>
       </c>
       <c r="AU18">
         <v>-0.01324</v>
       </c>
       <c r="AV18">
+        <v>-0.01324</v>
+      </c>
+      <c r="AW18">
         <v>-0.52832</v>
       </c>
-      <c r="AX18">
+      <c r="AY18">
         <v>0.03</v>
       </c>
-      <c r="AY18">
+      <c r="AZ18">
         <v>0.7935</v>
       </c>
-      <c r="AZ18">
+      <c r="BA18">
         <v>0.83184</v>
       </c>
-      <c r="BA18">
+      <c r="BB18">
         <v>-0.04832</v>
       </c>
-      <c r="BL18">
+      <c r="BM18">
         <v>1</v>
       </c>
-      <c r="BT18">
+      <c r="BU18">
         <v>0.23598</v>
       </c>
-      <c r="BU18">
+      <c r="BV18">
         <v>0.19712</v>
       </c>
-      <c r="BV18">
+      <c r="BW18">
         <v>0.16469</v>
       </c>
-      <c r="BW18">
+      <c r="BX18">
         <v>1.39297</v>
       </c>
-      <c r="BX18">
+      <c r="BY18">
         <v>1.13062</v>
       </c>
-      <c r="BY18">
+      <c r="BZ18">
         <v>-0.18834</v>
       </c>
-      <c r="BZ18">
-        <v>0</v>
-      </c>
       <c r="CA18">
+        <v>0</v>
+      </c>
+      <c r="CB18">
         <v>-0.01183</v>
       </c>
     </row>
-    <row r="19" spans="1:94">
+    <row r="19" spans="1:95">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -4989,115 +5049,121 @@
       <c r="Z19">
         <v>0</v>
       </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
       <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
         <v>279509.89932</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>264047.56183</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>199868.35381</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>11725.81354</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>515802.03093</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>548278.28551</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>144307.62327</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>28057.59224</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>157886.55338</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>206379.87338</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>157877.55338</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>67.17</v>
       </c>
-      <c r="AO19">
+      <c r="AP19">
         <v>225295.17662</v>
       </c>
-      <c r="AP19">
+      <c r="AQ19">
         <v>341962.56</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <v>50002</v>
       </c>
-      <c r="AR19">
+      <c r="AS19">
         <v>19114.16</v>
       </c>
-      <c r="AS19">
+      <c r="AT19">
         <v>-0.43513</v>
       </c>
-      <c r="AT19">
+      <c r="AU19">
         <v>-0.2184</v>
       </c>
-      <c r="AU19">
+      <c r="AV19">
         <v>-0.21009</v>
       </c>
-      <c r="AV19">
+      <c r="AW19">
         <v>-0.99427</v>
       </c>
-      <c r="AX19">
+      <c r="AY19">
         <v>0.03</v>
       </c>
-      <c r="AY19">
+      <c r="AZ19">
         <v>0.7323499999999999</v>
       </c>
-      <c r="AZ19">
+      <c r="BA19">
         <v>0.57469</v>
       </c>
-      <c r="BA19">
+      <c r="BB19">
         <v>0.21528</v>
       </c>
-      <c r="BL19">
+      <c r="BM19">
         <v>1</v>
       </c>
-      <c r="BT19">
+      <c r="BU19">
         <v>2.39281</v>
       </c>
-      <c r="BU19">
+      <c r="BV19">
         <v>284.56394</v>
       </c>
-      <c r="BV19">
+      <c r="BW19">
         <v>-117.92481</v>
       </c>
-      <c r="BW19">
+      <c r="BX19">
         <v>9.962009999999999</v>
       </c>
-      <c r="BX19">
+      <c r="BY19">
         <v>8.26019</v>
       </c>
-      <c r="BY19">
+      <c r="BZ19">
         <v>-0.17083</v>
       </c>
-      <c r="BZ19">
-        <v>0</v>
-      </c>
       <c r="CA19">
+        <v>0</v>
+      </c>
+      <c r="CB19">
         <v>-59.04782</v>
       </c>
     </row>
-    <row r="20" spans="1:94">
+    <row r="20" spans="1:95">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -5135,109 +5201,115 @@
       <c r="Z20">
         <v>0</v>
       </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
       <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
         <v>-33361.90225</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-149495.39295</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-28576.2877</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>-217663.85665</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-312144.90878</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-58843.2852</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>-0</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
         <v>48105.92</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>-25819.15691</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>53824.33309</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-63412</v>
       </c>
-      <c r="AO20">
+      <c r="AP20">
         <v>-69155</v>
       </c>
-      <c r="AP20">
+      <c r="AQ20">
         <v>54031.01</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>-0</v>
       </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
       <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
         <v>2.44194</v>
       </c>
-      <c r="AT20">
+      <c r="AU20">
         <v>0.82729</v>
       </c>
-      <c r="AU20">
+      <c r="AV20">
         <v>2.88353</v>
       </c>
-      <c r="AV20">
+      <c r="AW20">
         <v>0.70867</v>
       </c>
-      <c r="AX20">
+      <c r="AY20">
         <v>0.03</v>
       </c>
-      <c r="AY20">
+      <c r="AZ20">
         <v>1.12889</v>
       </c>
-      <c r="AZ20">
+      <c r="BA20">
         <v>7.37182</v>
       </c>
-      <c r="BA20">
+      <c r="BB20">
         <v>-5.53018</v>
       </c>
-      <c r="BL20">
+      <c r="BM20">
         <v>1</v>
-      </c>
-      <c r="BT20">
-        <v>-0</v>
       </c>
       <c r="BU20">
         <v>-0</v>
       </c>
-      <c r="BW20" t="s">
-        <v>151</v>
+      <c r="BV20">
+        <v>-0</v>
       </c>
       <c r="BX20" t="s">
         <v>152</v>
       </c>
-      <c r="BZ20">
+      <c r="BY20" t="s">
+        <v>153</v>
+      </c>
+      <c r="CA20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:94">
+    <row r="21" spans="1:95">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E21">
         <v>66861.05047</v>
@@ -5309,168 +5381,171 @@
         <v>1</v>
       </c>
       <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
         <v>341410.44784</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>165984.81062</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>231738.33974</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>160512.52273</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>560225.58813</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>571553.72246</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>203679.73084</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>96116.1109</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>299275.87338</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>213525.23647</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>249922.57647</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>379304.72</v>
       </c>
-      <c r="AO21">
+      <c r="AP21">
         <v>656116.22662</v>
       </c>
-      <c r="AP21">
+      <c r="AQ21">
         <v>485771.47</v>
       </c>
-      <c r="AQ21">
+      <c r="AR21">
         <v>101780</v>
       </c>
-      <c r="AR21">
+      <c r="AS21">
         <v>109916.65</v>
       </c>
-      <c r="AS21">
+      <c r="AT21">
         <v>-0.12341</v>
       </c>
-      <c r="AT21">
+      <c r="AU21">
         <v>0.28641</v>
       </c>
-      <c r="AU21">
+      <c r="AV21">
         <v>0.07847</v>
       </c>
-      <c r="AV21">
+      <c r="AW21">
         <v>1.36308</v>
       </c>
-      <c r="AY21">
+      <c r="AZ21">
         <v>0.5986900000000001</v>
       </c>
-      <c r="AZ21">
+      <c r="BA21">
         <v>0.67861</v>
       </c>
-      <c r="BA21">
+      <c r="BB21">
         <v>-0.13348</v>
-      </c>
-      <c r="BB21">
-        <v>1887.33</v>
       </c>
       <c r="BC21">
         <v>1887.33</v>
       </c>
       <c r="BD21">
+        <v>1887.33</v>
+      </c>
+      <c r="BE21">
         <v>180.896</v>
       </c>
-      <c r="BE21">
+      <c r="BF21">
         <v>87.94689</v>
       </c>
-      <c r="BF21">
+      <c r="BG21">
         <v>122.78634</v>
       </c>
-      <c r="BG21">
+      <c r="BH21">
         <v>85.04741</v>
       </c>
-      <c r="BH21">
+      <c r="BI21">
         <v>158.57104</v>
       </c>
-      <c r="BI21">
+      <c r="BJ21">
         <v>113.13614</v>
       </c>
-      <c r="BJ21">
+      <c r="BK21">
         <v>132.42124</v>
       </c>
-      <c r="BK21">
+      <c r="BL21">
         <v>200.97424</v>
       </c>
-      <c r="BL21">
+      <c r="BM21">
         <v>0.5</v>
       </c>
-      <c r="BN21">
+      <c r="BO21">
         <v>0.5</v>
       </c>
-      <c r="BP21">
+      <c r="BQ21">
         <v>-0.12341</v>
       </c>
-      <c r="BQ21">
+      <c r="BR21">
         <v>0.28641</v>
       </c>
-      <c r="BR21">
+      <c r="BS21">
         <v>0.07847</v>
       </c>
-      <c r="BS21">
+      <c r="BT21">
         <v>1.36308</v>
       </c>
-      <c r="BT21">
+      <c r="BU21">
         <v>0.59881</v>
       </c>
-      <c r="BU21">
+      <c r="BV21">
         <v>0.28978</v>
       </c>
-      <c r="BV21">
+      <c r="BW21">
         <v>0.51606</v>
       </c>
-      <c r="BW21">
+      <c r="BX21">
         <v>3.55206</v>
       </c>
-      <c r="BX21">
+      <c r="BY21">
         <v>2.72275</v>
       </c>
-      <c r="BY21">
+      <c r="BZ21">
         <v>-0.23347</v>
       </c>
-      <c r="BZ21">
+      <c r="CA21">
         <v>-0.02247</v>
       </c>
-      <c r="CA21">
+      <c r="CB21">
         <v>0.1413</v>
       </c>
-      <c r="CB21">
+      <c r="CC21">
         <v>35.42626</v>
-      </c>
-      <c r="CC21">
-        <v>36.94764</v>
       </c>
       <c r="CD21">
         <v>36.94764</v>
       </c>
+      <c r="CE21">
+        <v>36.94764</v>
+      </c>
     </row>
-    <row r="22" spans="1:94">
+    <row r="22" spans="1:95">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E22">
         <v>66861.05047</v>
@@ -5541,169 +5616,169 @@
       <c r="AA22">
         <v>0</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>341410.44784</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>165984.81062</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>231738.33974</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>160512.52273</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>560225.58813</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>571553.72246</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>203679.73084</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>96116.1109</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>299275.87338</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>213525.23647</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>249922.57647</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>379304.72</v>
       </c>
-      <c r="AO22">
+      <c r="AP22">
         <v>656116.22662</v>
       </c>
-      <c r="AP22">
+      <c r="AQ22">
         <v>485771.47</v>
       </c>
-      <c r="AQ22">
+      <c r="AR22">
         <v>101780</v>
       </c>
-      <c r="AR22">
+      <c r="AS22">
         <v>109916.65</v>
       </c>
-      <c r="AS22">
+      <c r="AT22">
         <v>-0.12341</v>
       </c>
-      <c r="AT22">
+      <c r="AU22">
         <v>0.28641</v>
       </c>
-      <c r="AU22">
+      <c r="AV22">
         <v>0.07847</v>
       </c>
-      <c r="AV22">
+      <c r="AW22">
         <v>1.36308</v>
       </c>
-      <c r="AX22">
+      <c r="AY22">
         <v>0.03</v>
       </c>
-      <c r="AY22">
+      <c r="AZ22">
         <v>0.5986900000000001</v>
       </c>
-      <c r="AZ22">
+      <c r="BA22">
         <v>0.67861</v>
       </c>
-      <c r="BA22">
+      <c r="BB22">
         <v>-0.13348</v>
-      </c>
-      <c r="BB22">
-        <v>1887.33</v>
       </c>
       <c r="BC22">
         <v>1887.33</v>
       </c>
       <c r="BD22">
+        <v>1887.33</v>
+      </c>
+      <c r="BE22">
         <v>180.896</v>
       </c>
-      <c r="BE22">
+      <c r="BF22">
         <v>87.94689</v>
       </c>
-      <c r="BF22">
+      <c r="BG22">
         <v>122.78634</v>
       </c>
-      <c r="BG22">
+      <c r="BH22">
         <v>85.04741</v>
       </c>
-      <c r="BH22">
+      <c r="BI22">
         <v>158.57104</v>
       </c>
-      <c r="BI22">
+      <c r="BJ22">
         <v>113.13614</v>
       </c>
-      <c r="BJ22">
+      <c r="BK22">
         <v>132.42124</v>
       </c>
-      <c r="BK22">
+      <c r="BL22">
         <v>200.97424</v>
       </c>
-      <c r="BL22">
+      <c r="BM22">
         <v>0.5</v>
       </c>
-      <c r="BN22">
+      <c r="BO22">
         <v>0.5</v>
       </c>
-      <c r="BP22">
+      <c r="BQ22">
         <v>-0.12341</v>
       </c>
-      <c r="BQ22">
+      <c r="BR22">
         <v>0.28641</v>
       </c>
-      <c r="BR22">
+      <c r="BS22">
         <v>0.07847</v>
       </c>
-      <c r="BS22">
+      <c r="BT22">
         <v>1.36308</v>
       </c>
-      <c r="BT22">
+      <c r="BU22">
         <v>0.59881</v>
       </c>
-      <c r="BU22">
+      <c r="BV22">
         <v>0.28978</v>
       </c>
-      <c r="BV22">
+      <c r="BW22">
         <v>0.51606</v>
       </c>
-      <c r="BW22">
+      <c r="BX22">
         <v>3.55206</v>
       </c>
-      <c r="BX22">
+      <c r="BY22">
         <v>2.72275</v>
       </c>
-      <c r="BY22">
+      <c r="BZ22">
         <v>-0.23347</v>
       </c>
-      <c r="BZ22">
+      <c r="CA22">
         <v>-0.02247</v>
       </c>
-      <c r="CA22">
+      <c r="CB22">
         <v>0.1413</v>
       </c>
-      <c r="CB22">
+      <c r="CC22">
         <v>35.42626</v>
       </c>
-      <c r="CC22">
+      <c r="CD22">
         <v>35.71999</v>
       </c>
-      <c r="CD22">
+      <c r="CE22">
         <v>42.65201</v>
       </c>
     </row>
-    <row r="23" spans="1:94">
+    <row r="23" spans="1:95">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E23">
         <v>27607.5</v>
@@ -5772,198 +5847,201 @@
         <v>1</v>
       </c>
       <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
         <v>16226.29492</v>
-      </c>
-      <c r="AD23">
-        <v>13687.54885</v>
       </c>
       <c r="AE23">
         <v>13687.54885</v>
       </c>
       <c r="AF23">
+        <v>13687.54885</v>
+      </c>
+      <c r="AG23">
         <v>132680.0634</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>116948.37727</v>
       </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
       <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
         <v>489.62179</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>39103.28938</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>8531</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>7196</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>3669.96</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>126396</v>
       </c>
-      <c r="AO23">
+      <c r="AP23">
         <v>118073</v>
       </c>
-      <c r="AP23">
+      <c r="AQ23">
         <v>159</v>
       </c>
-      <c r="AQ23">
+      <c r="AR23">
         <v>49</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <v>55667</v>
       </c>
-      <c r="AS23">
+      <c r="AT23">
         <v>-0.47425</v>
       </c>
-      <c r="AT23">
+      <c r="AU23">
         <v>-0.47427</v>
       </c>
-      <c r="AU23">
+      <c r="AV23">
         <v>-0.73188</v>
       </c>
-      <c r="AV23">
+      <c r="AW23">
         <v>-0.04736</v>
       </c>
-      <c r="AW23">
+      <c r="AX23">
         <v>104</v>
       </c>
-      <c r="AX23">
+      <c r="AY23">
         <v>0.042</v>
       </c>
-      <c r="AY23">
+      <c r="AZ23">
         <v>0.88143</v>
       </c>
-      <c r="AZ23">
+      <c r="BA23">
         <v>0.93415</v>
       </c>
-      <c r="BA23">
+      <c r="BB23">
         <v>-0.05981</v>
-      </c>
-      <c r="BB23">
-        <v>2199</v>
       </c>
       <c r="BC23">
         <v>2199</v>
       </c>
       <c r="BD23">
+        <v>2199</v>
+      </c>
+      <c r="BE23">
         <v>7.37894</v>
-      </c>
-      <c r="BE23">
-        <v>6.22444</v>
       </c>
       <c r="BF23">
         <v>6.22444</v>
       </c>
       <c r="BG23">
+        <v>6.22444</v>
+      </c>
+      <c r="BH23">
         <v>60.33655</v>
       </c>
-      <c r="BH23">
+      <c r="BI23">
         <v>3.87949</v>
       </c>
-      <c r="BI23">
+      <c r="BJ23">
         <v>3.2724</v>
       </c>
-      <c r="BJ23">
+      <c r="BK23">
         <v>1.66892</v>
       </c>
-      <c r="BK23">
+      <c r="BL23">
         <v>57.47885</v>
       </c>
-      <c r="BL23">
+      <c r="BM23">
         <v>0.5</v>
       </c>
-      <c r="BO23">
+      <c r="BP23">
         <v>0.5</v>
       </c>
-      <c r="BP23">
+      <c r="BQ23">
         <v>-0.47425</v>
       </c>
-      <c r="BQ23">
+      <c r="BR23">
         <v>-0.47427</v>
       </c>
-      <c r="BR23">
+      <c r="BS23">
         <v>-0.73188</v>
       </c>
-      <c r="BS23">
+      <c r="BT23">
         <v>-0.04736</v>
       </c>
-      <c r="BT23">
+      <c r="BU23">
         <v>0.29472</v>
       </c>
-      <c r="BU23">
+      <c r="BV23">
         <v>0.44042</v>
       </c>
-      <c r="BV23">
+      <c r="BW23">
         <v>-0.49437</v>
       </c>
-      <c r="BW23">
+      <c r="BX23">
         <v>0.41496</v>
       </c>
-      <c r="BX23">
+      <c r="BY23">
         <v>0.15325</v>
       </c>
-      <c r="BY23">
+      <c r="BZ23">
         <v>-0.63069</v>
       </c>
-      <c r="BZ23">
+      <c r="CA23">
         <v>-0.26081</v>
       </c>
-      <c r="CA23">
+      <c r="CB23">
         <v>-0.56253</v>
       </c>
-      <c r="CB23">
+      <c r="CC23">
         <v>12.55457</v>
-      </c>
-      <c r="CC23">
-        <v>12.70224</v>
       </c>
       <c r="CD23">
         <v>12.70224</v>
       </c>
-      <c r="CH23">
-        <v>100</v>
+      <c r="CE23">
+        <v>12.70224</v>
       </c>
       <c r="CI23">
         <v>100</v>
       </c>
       <c r="CJ23">
+        <v>100</v>
+      </c>
+      <c r="CK23">
         <v>37.95</v>
-      </c>
-      <c r="CK23">
-        <v>103</v>
       </c>
       <c r="CL23">
         <v>103</v>
       </c>
       <c r="CM23">
+        <v>103</v>
+      </c>
+      <c r="CN23">
         <v>40</v>
       </c>
-      <c r="CN23">
+      <c r="CO23">
         <v>0.03</v>
       </c>
-      <c r="CO23">
+      <c r="CP23">
         <v>-0.03</v>
       </c>
-      <c r="CP23">
+      <c r="CQ23">
         <v>0.05402</v>
       </c>
     </row>
-    <row r="24" spans="1:94">
+    <row r="24" spans="1:95">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -5992,18 +6070,21 @@
       <c r="Z24">
         <v>0</v>
       </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24">
         <v>0</v>
       </c>
       <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
         <v>-7051.47018</v>
       </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
       <c r="AG24">
         <v>0</v>
       </c>
@@ -6017,66 +6098,69 @@
         <v>0</v>
       </c>
       <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
         <v>-1888</v>
       </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
         <v>-960.96</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>-27908</v>
       </c>
-      <c r="AO24">
+      <c r="AP24">
         <v>-26020</v>
       </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
       <c r="AQ24">
         <v>0</v>
       </c>
       <c r="AR24">
         <v>0</v>
       </c>
-      <c r="AS24" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU24">
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV24">
         <v>0.86372</v>
       </c>
-      <c r="AV24" t="s">
-        <v>151</v>
-      </c>
-      <c r="AZ24">
+      <c r="AW24" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA24">
         <v>0.93235</v>
       </c>
-      <c r="BL24">
+      <c r="BM24">
         <v>1</v>
       </c>
-      <c r="BU24">
+      <c r="BV24">
         <v>-0</v>
       </c>
-      <c r="BX24" t="s">
-        <v>151</v>
-      </c>
-      <c r="BZ24">
+      <c r="BY24" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:94">
+    <row r="25" spans="1:95">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E25">
         <v>27607.5</v>
@@ -6148,168 +6232,171 @@
         <v>1</v>
       </c>
       <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
         <v>16226.29492</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>13687.54885</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>6636.07867</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>132680.0634</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>116948.37727</v>
       </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
       <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
         <v>489.62179</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>39103.28938</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>6643</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>7196</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>2709</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>98488</v>
       </c>
-      <c r="AO25">
+      <c r="AP25">
         <v>92053</v>
       </c>
-      <c r="AP25">
+      <c r="AQ25">
         <v>159</v>
       </c>
-      <c r="AQ25">
+      <c r="AR25">
         <v>49</v>
       </c>
-      <c r="AR25">
+      <c r="AS25">
         <v>55667</v>
       </c>
-      <c r="AS25">
+      <c r="AT25">
         <v>-0.5906</v>
       </c>
-      <c r="AT25">
+      <c r="AU25">
         <v>-0.47427</v>
       </c>
-      <c r="AU25">
+      <c r="AV25">
         <v>-0.59178</v>
       </c>
-      <c r="AV25">
+      <c r="AW25">
         <v>-0.2577</v>
       </c>
-      <c r="AY25">
+      <c r="AZ25">
         <v>0.88143</v>
       </c>
-      <c r="AZ25">
+      <c r="BA25">
         <v>0.93466</v>
       </c>
-      <c r="BA25">
+      <c r="BB25">
         <v>-0.06039</v>
-      </c>
-      <c r="BB25">
-        <v>2199</v>
       </c>
       <c r="BC25">
         <v>2199</v>
       </c>
       <c r="BD25">
+        <v>2199</v>
+      </c>
+      <c r="BE25">
         <v>7.37894</v>
       </c>
-      <c r="BE25">
+      <c r="BF25">
         <v>6.22444</v>
       </c>
-      <c r="BF25">
+      <c r="BG25">
         <v>3.01777</v>
       </c>
-      <c r="BG25">
+      <c r="BH25">
         <v>60.33655</v>
       </c>
-      <c r="BH25">
+      <c r="BI25">
         <v>3.02092</v>
       </c>
-      <c r="BI25">
+      <c r="BJ25">
         <v>3.2724</v>
       </c>
-      <c r="BJ25">
+      <c r="BK25">
         <v>1.23192</v>
       </c>
-      <c r="BK25">
+      <c r="BL25">
         <v>44.78763</v>
       </c>
-      <c r="BL25">
+      <c r="BM25">
         <v>0.5</v>
       </c>
-      <c r="BO25">
+      <c r="BP25">
         <v>0.5</v>
       </c>
-      <c r="BP25">
+      <c r="BQ25">
         <v>-0.5906</v>
       </c>
-      <c r="BQ25">
+      <c r="BR25">
         <v>-0.47427</v>
       </c>
-      <c r="BR25">
+      <c r="BS25">
         <v>-0.59178</v>
       </c>
-      <c r="BS25">
+      <c r="BT25">
         <v>-0.2577</v>
       </c>
-      <c r="BT25">
+      <c r="BU25">
         <v>0.29472</v>
       </c>
-      <c r="BU25">
+      <c r="BV25">
         <v>0.5652199999999999</v>
       </c>
-      <c r="BV25">
+      <c r="BW25">
         <v>-0.91782</v>
       </c>
-      <c r="BW25">
+      <c r="BX25">
         <v>0.41496</v>
       </c>
-      <c r="BX25">
+      <c r="BY25">
         <v>0.11933</v>
       </c>
-      <c r="BY25">
+      <c r="BZ25">
         <v>-0.7124200000000001</v>
       </c>
-      <c r="BZ25">
+      <c r="CA25">
         <v>-0.42415</v>
       </c>
-      <c r="CA25">
+      <c r="CB25">
         <v>-0.81512</v>
       </c>
-      <c r="CB25">
+      <c r="CC25">
         <v>12.55457</v>
-      </c>
-      <c r="CC25">
-        <v>12.70224</v>
       </c>
       <c r="CD25">
         <v>12.70224</v>
       </c>
+      <c r="CE25">
+        <v>12.70224</v>
+      </c>
     </row>
-    <row r="26" spans="1:94">
+    <row r="26" spans="1:95">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E26">
         <v>27607.5</v>
@@ -6380,181 +6467,181 @@
       <c r="AA26">
         <v>0</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>16226.29492</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>13687.54885</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>6636.07867</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>132680.0634</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>116948.37727</v>
       </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
       <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
         <v>489.62179</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>39103.28938</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>6643</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>7196</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>2709</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>98488</v>
       </c>
-      <c r="AO26">
+      <c r="AP26">
         <v>92053</v>
       </c>
-      <c r="AP26">
+      <c r="AQ26">
         <v>159</v>
       </c>
-      <c r="AQ26">
+      <c r="AR26">
         <v>49</v>
       </c>
-      <c r="AR26">
+      <c r="AS26">
         <v>55667</v>
       </c>
-      <c r="AS26">
+      <c r="AT26">
         <v>-0.5906</v>
       </c>
-      <c r="AT26">
+      <c r="AU26">
         <v>-0.47427</v>
       </c>
-      <c r="AU26">
+      <c r="AV26">
         <v>-0.59178</v>
       </c>
-      <c r="AV26">
+      <c r="AW26">
         <v>-0.2577</v>
       </c>
-      <c r="AY26">
+      <c r="AZ26">
         <v>0.88143</v>
       </c>
-      <c r="AZ26">
+      <c r="BA26">
         <v>0.93466</v>
       </c>
-      <c r="BA26">
+      <c r="BB26">
         <v>-0.06039</v>
-      </c>
-      <c r="BB26">
-        <v>2199</v>
       </c>
       <c r="BC26">
         <v>2199</v>
       </c>
       <c r="BD26">
+        <v>2199</v>
+      </c>
+      <c r="BE26">
         <v>7.37894</v>
       </c>
-      <c r="BE26">
+      <c r="BF26">
         <v>6.22444</v>
       </c>
-      <c r="BF26">
+      <c r="BG26">
         <v>3.01777</v>
       </c>
-      <c r="BG26">
+      <c r="BH26">
         <v>60.33655</v>
       </c>
-      <c r="BH26">
+      <c r="BI26">
         <v>3.02092</v>
       </c>
-      <c r="BI26">
+      <c r="BJ26">
         <v>3.2724</v>
       </c>
-      <c r="BJ26">
+      <c r="BK26">
         <v>1.23192</v>
       </c>
-      <c r="BK26">
+      <c r="BL26">
         <v>44.78763</v>
       </c>
-      <c r="BL26">
+      <c r="BM26">
         <v>0.5</v>
       </c>
-      <c r="BO26">
+      <c r="BP26">
         <v>0.5</v>
       </c>
-      <c r="BP26">
+      <c r="BQ26">
         <v>-0.5906</v>
       </c>
-      <c r="BQ26">
+      <c r="BR26">
         <v>-0.47427</v>
       </c>
-      <c r="BR26">
+      <c r="BS26">
         <v>-0.59178</v>
       </c>
-      <c r="BS26">
+      <c r="BT26">
         <v>-0.2577</v>
       </c>
-      <c r="BT26">
+      <c r="BU26">
         <v>0.29472</v>
       </c>
-      <c r="BU26">
+      <c r="BV26">
         <v>0.5652199999999999</v>
       </c>
-      <c r="BV26">
+      <c r="BW26">
         <v>-0.91782</v>
       </c>
-      <c r="BW26">
+      <c r="BX26">
         <v>0.41496</v>
       </c>
-      <c r="BX26">
+      <c r="BY26">
         <v>0.11933</v>
       </c>
-      <c r="BY26">
+      <c r="BZ26">
         <v>-0.7124200000000001</v>
       </c>
-      <c r="BZ26">
+      <c r="CA26">
         <v>-0.42415</v>
       </c>
-      <c r="CA26">
+      <c r="CB26">
         <v>-0.81512</v>
       </c>
-      <c r="CB26">
+      <c r="CC26">
         <v>12.55457</v>
-      </c>
-      <c r="CC26">
-        <v>12.70224</v>
       </c>
       <c r="CD26">
         <v>12.70224</v>
       </c>
-      <c r="CH26">
-        <v>100</v>
+      <c r="CE26">
+        <v>12.70224</v>
       </c>
       <c r="CI26">
         <v>100</v>
       </c>
       <c r="CJ26">
+        <v>100</v>
+      </c>
+      <c r="CK26">
         <v>37.95</v>
-      </c>
-      <c r="CK26">
-        <v>103</v>
       </c>
       <c r="CL26">
         <v>103</v>
       </c>
       <c r="CM26">
+        <v>103</v>
+      </c>
+      <c r="CN26">
         <v>40</v>
       </c>
-      <c r="CN26">
+      <c r="CO26">
         <v>0.03</v>
       </c>
-      <c r="CO26">
+      <c r="CP26">
         <v>-0.03</v>
       </c>
-      <c r="CP26">
+      <c r="CQ26">
         <v>0.05402</v>
       </c>
     </row>
